--- a/1  临时/按键表.xlsx
+++ b/1  临时/按键表.xlsx
@@ -1,17 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet3" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet2" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
@@ -2808,8 +2808,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="6">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2975,7 +2975,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3007,9 +3007,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3041,6 +3042,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -3216,30 +3218,30 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O526"/>
   <sheetViews>
     <sheetView topLeftCell="B139" workbookViewId="0">
       <selection activeCell="B158" sqref="B158:C194"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.875" customWidth="1"/>
+    <col min="1" max="1" width="21.88671875" customWidth="1"/>
     <col min="2" max="2" width="21" customWidth="1"/>
     <col min="3" max="3" width="8" customWidth="1"/>
-    <col min="4" max="4" width="17.75" customWidth="1"/>
+    <col min="4" max="4" width="17.77734375" customWidth="1"/>
     <col min="6" max="6" width="8" customWidth="1"/>
-    <col min="7" max="7" width="19.625" customWidth="1"/>
-    <col min="8" max="8" width="16.75" customWidth="1"/>
-    <col min="9" max="9" width="13.5" customWidth="1"/>
-    <col min="12" max="12" width="7.25" customWidth="1"/>
-    <col min="13" max="13" width="4.75" customWidth="1"/>
+    <col min="7" max="7" width="19.6640625" customWidth="1"/>
+    <col min="8" max="8" width="16.77734375" customWidth="1"/>
+    <col min="9" max="9" width="13.44140625" customWidth="1"/>
+    <col min="12" max="12" width="7.21875" customWidth="1"/>
+    <col min="13" max="13" width="4.77734375" customWidth="1"/>
     <col min="14" max="14" width="19" customWidth="1"/>
-    <col min="15" max="15" width="19.125" customWidth="1"/>
+    <col min="15" max="15" width="19.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="14.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>851</v>
       </c>
@@ -3280,7 +3282,7 @@
       <c r="N1" s="6"/>
       <c r="O1" s="6"/>
     </row>
-    <row r="2" spans="1:15" ht="14.25">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>848</v>
       </c>
@@ -3333,7 +3335,7 @@
         <v>KEY_N</v>
       </c>
     </row>
-    <row r="3" spans="1:15" ht="14.25">
+    <row r="3" spans="1:15" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>845</v>
       </c>
@@ -3386,7 +3388,7 @@
         <v>KEY_AT</v>
       </c>
     </row>
-    <row r="4" spans="1:15" ht="14.25">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>842</v>
       </c>
@@ -3439,7 +3441,7 @@
         <v>KEY_Q</v>
       </c>
     </row>
-    <row r="5" spans="1:15" ht="14.25">
+    <row r="5" spans="1:15" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>839</v>
       </c>
@@ -3492,7 +3494,7 @@
         <v>KEY_FLIP</v>
       </c>
     </row>
-    <row r="6" spans="1:15" ht="14.25">
+    <row r="6" spans="1:15" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>836</v>
       </c>
@@ -3545,7 +3547,7 @@
         <v>KEY_Q</v>
       </c>
     </row>
-    <row r="7" spans="1:15" ht="14.25">
+    <row r="7" spans="1:15" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>853</v>
       </c>
@@ -3598,7 +3600,7 @@
         <v>KEY_E</v>
       </c>
     </row>
-    <row r="8" spans="1:15" ht="14.25">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>852</v>
       </c>
@@ -3651,7 +3653,7 @@
         <v>KEY_LEFT</v>
       </c>
     </row>
-    <row r="9" spans="1:15" ht="14.25">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>829</v>
       </c>
@@ -3704,7 +3706,7 @@
         <v>KEY_LEFT</v>
       </c>
     </row>
-    <row r="10" spans="1:15" ht="14.25">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>826</v>
       </c>
@@ -3757,7 +3759,7 @@
         <v>KEY_NONE</v>
       </c>
     </row>
-    <row r="11" spans="1:15" ht="14.25">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>823</v>
       </c>
@@ -3810,7 +3812,7 @@
         <v>KEY_OK</v>
       </c>
     </row>
-    <row r="12" spans="1:15" ht="14.25">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>820</v>
       </c>
@@ -3863,7 +3865,7 @@
         <v>KEY_UP</v>
       </c>
     </row>
-    <row r="13" spans="1:15" ht="14.25">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>817</v>
       </c>
@@ -3898,7 +3900,7 @@
       </c>
       <c r="K13" s="2"/>
     </row>
-    <row r="14" spans="1:15" ht="14.25">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>814</v>
       </c>
@@ -3933,7 +3935,7 @@
       </c>
       <c r="K14" s="2"/>
     </row>
-    <row r="15" spans="1:15" ht="14.25">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>811</v>
       </c>
@@ -3968,7 +3970,7 @@
       </c>
       <c r="K15" s="2"/>
     </row>
-    <row r="16" spans="1:15" ht="14.25">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>808</v>
       </c>
@@ -4003,7 +4005,7 @@
       </c>
       <c r="K16" s="2"/>
     </row>
-    <row r="17" spans="1:12" ht="14.25">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>805</v>
       </c>
@@ -4038,7 +4040,7 @@
       </c>
       <c r="K17" s="2"/>
     </row>
-    <row r="18" spans="1:12" ht="14.25">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>803</v>
       </c>
@@ -4073,7 +4075,7 @@
       </c>
       <c r="K18" s="2"/>
     </row>
-    <row r="19" spans="1:12" ht="14.25">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>799</v>
       </c>
@@ -4111,7 +4113,7 @@
         <v>859</v>
       </c>
     </row>
-    <row r="20" spans="1:12" ht="14.25">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>796</v>
       </c>
@@ -4146,7 +4148,7 @@
       </c>
       <c r="K20" s="2"/>
     </row>
-    <row r="21" spans="1:12" ht="14.25">
+    <row r="21" spans="1:12" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>793</v>
       </c>
@@ -4181,7 +4183,7 @@
       </c>
       <c r="K21" s="2"/>
     </row>
-    <row r="22" spans="1:12" ht="14.25">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>790</v>
       </c>
@@ -4216,7 +4218,7 @@
       </c>
       <c r="K22" s="2"/>
     </row>
-    <row r="23" spans="1:12" ht="14.25">
+    <row r="23" spans="1:12" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>787</v>
       </c>
@@ -4251,7 +4253,7 @@
       </c>
       <c r="K23" s="2"/>
     </row>
-    <row r="24" spans="1:12" ht="14.25">
+    <row r="24" spans="1:12" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>784</v>
       </c>
@@ -4286,7 +4288,7 @@
       </c>
       <c r="K24" s="2"/>
     </row>
-    <row r="25" spans="1:12" ht="14.25">
+    <row r="25" spans="1:12" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>781</v>
       </c>
@@ -4321,7 +4323,7 @@
       </c>
       <c r="K25" s="2"/>
     </row>
-    <row r="26" spans="1:12" ht="14.25">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>778</v>
       </c>
@@ -4356,7 +4358,7 @@
       </c>
       <c r="K26" s="2"/>
     </row>
-    <row r="27" spans="1:12" ht="14.25">
+    <row r="27" spans="1:12" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>775</v>
       </c>
@@ -4391,7 +4393,7 @@
       </c>
       <c r="K27" s="2"/>
     </row>
-    <row r="28" spans="1:12" ht="28.5">
+    <row r="28" spans="1:12" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>772</v>
       </c>
@@ -4426,7 +4428,7 @@
       </c>
       <c r="K28" s="2"/>
     </row>
-    <row r="29" spans="1:12" ht="14.25">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>769</v>
       </c>
@@ -4461,7 +4463,7 @@
       </c>
       <c r="K29" s="2"/>
     </row>
-    <row r="30" spans="1:12" ht="28.5">
+    <row r="30" spans="1:12" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>766</v>
       </c>
@@ -4496,7 +4498,7 @@
       </c>
       <c r="K30" s="2"/>
     </row>
-    <row r="31" spans="1:12" ht="28.5">
+    <row r="31" spans="1:12" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>763</v>
       </c>
@@ -4531,7 +4533,7 @@
       </c>
       <c r="K31" s="2"/>
     </row>
-    <row r="32" spans="1:12" ht="14.25">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>760</v>
       </c>
@@ -4566,7 +4568,7 @@
       </c>
       <c r="K32" s="2"/>
     </row>
-    <row r="33" spans="1:11" ht="28.5">
+    <row r="33" spans="1:11" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>757</v>
       </c>
@@ -4601,7 +4603,7 @@
       </c>
       <c r="K33" s="2"/>
     </row>
-    <row r="34" spans="1:11" ht="28.5">
+    <row r="34" spans="1:11" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>754</v>
       </c>
@@ -4636,7 +4638,7 @@
       </c>
       <c r="K34" s="2"/>
     </row>
-    <row r="35" spans="1:11" ht="28.5">
+    <row r="35" spans="1:11" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>751</v>
       </c>
@@ -4671,7 +4673,7 @@
       </c>
       <c r="K35" s="2"/>
     </row>
-    <row r="36" spans="1:11" ht="28.5">
+    <row r="36" spans="1:11" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>748</v>
       </c>
@@ -4706,7 +4708,7 @@
       </c>
       <c r="K36" s="2"/>
     </row>
-    <row r="37" spans="1:11" ht="28.5">
+    <row r="37" spans="1:11" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>745</v>
       </c>
@@ -4741,7 +4743,7 @@
       </c>
       <c r="K37" s="2"/>
     </row>
-    <row r="38" spans="1:11" ht="28.5">
+    <row r="38" spans="1:11" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>742</v>
       </c>
@@ -4776,7 +4778,7 @@
       </c>
       <c r="K38" s="2"/>
     </row>
-    <row r="39" spans="1:11" ht="28.5">
+    <row r="39" spans="1:11" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>739</v>
       </c>
@@ -4811,7 +4813,7 @@
       </c>
       <c r="K39" s="2"/>
     </row>
-    <row r="40" spans="1:11" ht="14.25">
+    <row r="40" spans="1:11" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>736</v>
       </c>
@@ -4846,7 +4848,7 @@
       </c>
       <c r="K40" s="2"/>
     </row>
-    <row r="41" spans="1:11" ht="14.25">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>733</v>
       </c>
@@ -4881,7 +4883,7 @@
       </c>
       <c r="K41" s="2"/>
     </row>
-    <row r="42" spans="1:11" ht="14.25">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>730</v>
       </c>
@@ -4916,7 +4918,7 @@
       </c>
       <c r="K42" s="2"/>
     </row>
-    <row r="43" spans="1:11" ht="14.25">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>727</v>
       </c>
@@ -4951,7 +4953,7 @@
       </c>
       <c r="K43" s="2"/>
     </row>
-    <row r="44" spans="1:11" ht="14.25">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>724</v>
       </c>
@@ -4986,7 +4988,7 @@
       </c>
       <c r="K44" s="2"/>
     </row>
-    <row r="45" spans="1:11" ht="14.25">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>721</v>
       </c>
@@ -5021,7 +5023,7 @@
       </c>
       <c r="K45" s="2"/>
     </row>
-    <row r="46" spans="1:11" ht="14.25">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>718</v>
       </c>
@@ -5056,7 +5058,7 @@
       </c>
       <c r="K46" s="2"/>
     </row>
-    <row r="47" spans="1:11" ht="14.25">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>715</v>
       </c>
@@ -5091,7 +5093,7 @@
       </c>
       <c r="K47" s="2"/>
     </row>
-    <row r="48" spans="1:11" ht="14.25">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>712</v>
       </c>
@@ -5126,7 +5128,7 @@
       </c>
       <c r="K48" s="2"/>
     </row>
-    <row r="49" spans="1:11" ht="14.25">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>709</v>
       </c>
@@ -5161,7 +5163,7 @@
       </c>
       <c r="K49" s="2"/>
     </row>
-    <row r="50" spans="1:11" ht="14.25">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>706</v>
       </c>
@@ -5196,7 +5198,7 @@
       </c>
       <c r="K50" s="2"/>
     </row>
-    <row r="51" spans="1:11" ht="14.25">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>703</v>
       </c>
@@ -5231,7 +5233,7 @@
       </c>
       <c r="K51" s="2"/>
     </row>
-    <row r="52" spans="1:11" ht="14.25">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
         <v>700</v>
       </c>
@@ -5266,7 +5268,7 @@
       </c>
       <c r="K52" s="2"/>
     </row>
-    <row r="53" spans="1:11" ht="14.25">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>697</v>
       </c>
@@ -5301,7 +5303,7 @@
       </c>
       <c r="K53" s="2"/>
     </row>
-    <row r="54" spans="1:11" ht="14.25">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
         <v>694</v>
       </c>
@@ -5336,7 +5338,7 @@
       </c>
       <c r="K54" s="2"/>
     </row>
-    <row r="55" spans="1:11" ht="14.25">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
         <v>691</v>
       </c>
@@ -5371,7 +5373,7 @@
       </c>
       <c r="K55" s="2"/>
     </row>
-    <row r="56" spans="1:11" ht="14.25">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
         <v>688</v>
       </c>
@@ -5406,7 +5408,7 @@
       </c>
       <c r="K56" s="2"/>
     </row>
-    <row r="57" spans="1:11" ht="14.25">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
         <v>685</v>
       </c>
@@ -5441,7 +5443,7 @@
       </c>
       <c r="K57" s="2"/>
     </row>
-    <row r="58" spans="1:11" ht="14.25">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
         <v>682</v>
       </c>
@@ -5476,7 +5478,7 @@
       </c>
       <c r="K58" s="2"/>
     </row>
-    <row r="59" spans="1:11" ht="14.25">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
         <v>679</v>
       </c>
@@ -5511,7 +5513,7 @@
       </c>
       <c r="K59" s="2"/>
     </row>
-    <row r="60" spans="1:11" ht="14.25">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
         <v>676</v>
       </c>
@@ -5546,7 +5548,7 @@
       </c>
       <c r="K60" s="2"/>
     </row>
-    <row r="61" spans="1:11" ht="14.25">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
         <v>673</v>
       </c>
@@ -5581,7 +5583,7 @@
       </c>
       <c r="K61" s="2"/>
     </row>
-    <row r="62" spans="1:11" ht="14.25">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
         <v>670</v>
       </c>
@@ -5616,7 +5618,7 @@
       </c>
       <c r="K62" s="2"/>
     </row>
-    <row r="63" spans="1:11" ht="14.25">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
         <v>667</v>
       </c>
@@ -5651,7 +5653,7 @@
       </c>
       <c r="K63" s="2"/>
     </row>
-    <row r="64" spans="1:11" ht="14.25">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
         <v>664</v>
       </c>
@@ -5686,7 +5688,7 @@
       </c>
       <c r="K64" s="2"/>
     </row>
-    <row r="65" spans="1:11" ht="14.25">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
         <v>661</v>
       </c>
@@ -5721,7 +5723,7 @@
       </c>
       <c r="K65" s="2"/>
     </row>
-    <row r="66" spans="1:11" ht="14.25">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
         <v>658</v>
       </c>
@@ -5756,7 +5758,7 @@
       </c>
       <c r="K66" s="2"/>
     </row>
-    <row r="67" spans="1:11" ht="14.25">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
         <v>655</v>
       </c>
@@ -5791,7 +5793,7 @@
       </c>
       <c r="K67" s="2"/>
     </row>
-    <row r="68" spans="1:11" ht="14.25">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
         <v>652</v>
       </c>
@@ -5826,7 +5828,7 @@
       </c>
       <c r="K68" s="2"/>
     </row>
-    <row r="69" spans="1:11" ht="14.25">
+    <row r="69" spans="1:11" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
         <v>649</v>
       </c>
@@ -5861,7 +5863,7 @@
       </c>
       <c r="K69" s="2"/>
     </row>
-    <row r="70" spans="1:11" ht="14.25">
+    <row r="70" spans="1:11" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
         <v>646</v>
       </c>
@@ -5896,7 +5898,7 @@
       </c>
       <c r="K70" s="2"/>
     </row>
-    <row r="71" spans="1:11" ht="14.25">
+    <row r="71" spans="1:11" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
         <v>643</v>
       </c>
@@ -5931,7 +5933,7 @@
       </c>
       <c r="K71" s="2"/>
     </row>
-    <row r="72" spans="1:11" ht="14.25">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
         <v>640</v>
       </c>
@@ -5966,7 +5968,7 @@
       </c>
       <c r="K72" s="2"/>
     </row>
-    <row r="73" spans="1:11" ht="14.25">
+    <row r="73" spans="1:11" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
         <v>637</v>
       </c>
@@ -6001,7 +6003,7 @@
       </c>
       <c r="K73" s="2"/>
     </row>
-    <row r="74" spans="1:11" ht="28.5">
+    <row r="74" spans="1:11" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
         <v>634</v>
       </c>
@@ -6036,7 +6038,7 @@
       </c>
       <c r="K74" s="2"/>
     </row>
-    <row r="75" spans="1:11" ht="14.25">
+    <row r="75" spans="1:11" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
         <v>631</v>
       </c>
@@ -6071,7 +6073,7 @@
       </c>
       <c r="K75" s="2"/>
     </row>
-    <row r="76" spans="1:11" ht="14.25">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
         <v>628</v>
       </c>
@@ -6106,7 +6108,7 @@
       </c>
       <c r="K76" s="2"/>
     </row>
-    <row r="77" spans="1:11" ht="28.5">
+    <row r="77" spans="1:11" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
         <v>625</v>
       </c>
@@ -6141,7 +6143,7 @@
       </c>
       <c r="K77" s="2"/>
     </row>
-    <row r="78" spans="1:11" ht="14.25">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
         <v>622</v>
       </c>
@@ -6176,7 +6178,7 @@
       </c>
       <c r="K78" s="2"/>
     </row>
-    <row r="79" spans="1:11" ht="14.25">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
         <v>619</v>
       </c>
@@ -6211,7 +6213,7 @@
       </c>
       <c r="K79" s="2"/>
     </row>
-    <row r="80" spans="1:11" ht="28.5">
+    <row r="80" spans="1:11" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
         <v>616</v>
       </c>
@@ -6246,7 +6248,7 @@
       </c>
       <c r="K80" s="2"/>
     </row>
-    <row r="81" spans="1:11" ht="28.5">
+    <row r="81" spans="1:11" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
         <v>613</v>
       </c>
@@ -6281,7 +6283,7 @@
       </c>
       <c r="K81" s="2"/>
     </row>
-    <row r="82" spans="1:11" ht="14.25">
+    <row r="82" spans="1:11" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
         <v>610</v>
       </c>
@@ -6316,7 +6318,7 @@
       </c>
       <c r="K82" s="2"/>
     </row>
-    <row r="83" spans="1:11" ht="28.5">
+    <row r="83" spans="1:11" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
         <v>607</v>
       </c>
@@ -6351,7 +6353,7 @@
       </c>
       <c r="K83" s="2"/>
     </row>
-    <row r="84" spans="1:11" ht="28.5">
+    <row r="84" spans="1:11" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
         <v>604</v>
       </c>
@@ -6386,7 +6388,7 @@
       </c>
       <c r="K84" s="2"/>
     </row>
-    <row r="85" spans="1:11" ht="28.5">
+    <row r="85" spans="1:11" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
         <v>601</v>
       </c>
@@ -6421,7 +6423,7 @@
       </c>
       <c r="K85" s="2"/>
     </row>
-    <row r="86" spans="1:11" ht="14.25">
+    <row r="86" spans="1:11" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
         <v>598</v>
       </c>
@@ -6456,7 +6458,7 @@
       </c>
       <c r="K86" s="2"/>
     </row>
-    <row r="87" spans="1:11" ht="14.25">
+    <row r="87" spans="1:11" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
         <v>595</v>
       </c>
@@ -6491,7 +6493,7 @@
       </c>
       <c r="K87" s="2"/>
     </row>
-    <row r="88" spans="1:11" ht="28.5">
+    <row r="88" spans="1:11" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
         <v>592</v>
       </c>
@@ -6526,7 +6528,7 @@
       </c>
       <c r="K88" s="2"/>
     </row>
-    <row r="89" spans="1:11" ht="14.25">
+    <row r="89" spans="1:11" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
         <v>589</v>
       </c>
@@ -6561,7 +6563,7 @@
       </c>
       <c r="K89" s="2"/>
     </row>
-    <row r="90" spans="1:11" ht="14.25">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
         <v>586</v>
       </c>
@@ -6596,7 +6598,7 @@
       </c>
       <c r="K90" s="2"/>
     </row>
-    <row r="91" spans="1:11" ht="14.25">
+    <row r="91" spans="1:11" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
         <v>583</v>
       </c>
@@ -6631,7 +6633,7 @@
       </c>
       <c r="K91" s="2"/>
     </row>
-    <row r="92" spans="1:11" ht="14.25">
+    <row r="92" spans="1:11" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
         <v>580</v>
       </c>
@@ -6666,7 +6668,7 @@
       </c>
       <c r="K92" s="2"/>
     </row>
-    <row r="93" spans="1:11" ht="14.25">
+    <row r="93" spans="1:11" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
         <v>577</v>
       </c>
@@ -6701,7 +6703,7 @@
       </c>
       <c r="K93" s="2"/>
     </row>
-    <row r="94" spans="1:11" ht="14.25">
+    <row r="94" spans="1:11" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
         <v>574</v>
       </c>
@@ -6736,7 +6738,7 @@
       </c>
       <c r="K94" s="2"/>
     </row>
-    <row r="95" spans="1:11" ht="14.25">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
         <v>571</v>
       </c>
@@ -6771,7 +6773,7 @@
       </c>
       <c r="K95" s="2"/>
     </row>
-    <row r="96" spans="1:11" ht="14.25">
+    <row r="96" spans="1:11" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
         <v>568</v>
       </c>
@@ -6806,7 +6808,7 @@
       </c>
       <c r="K96" s="2"/>
     </row>
-    <row r="97" spans="1:11" ht="14.25">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
         <v>565</v>
       </c>
@@ -6839,7 +6841,7 @@
       </c>
       <c r="K97" s="2"/>
     </row>
-    <row r="98" spans="1:11" ht="28.5">
+    <row r="98" spans="1:11" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
         <v>561</v>
       </c>
@@ -6872,7 +6874,7 @@
       </c>
       <c r="K98" s="2"/>
     </row>
-    <row r="99" spans="1:11" ht="14.25">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
         <v>557</v>
       </c>
@@ -6907,7 +6909,7 @@
       </c>
       <c r="K99" s="2"/>
     </row>
-    <row r="100" spans="1:11" ht="14.25">
+    <row r="100" spans="1:11" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
         <v>554</v>
       </c>
@@ -6942,7 +6944,7 @@
       </c>
       <c r="K100" s="2"/>
     </row>
-    <row r="101" spans="1:11" ht="14.25">
+    <row r="101" spans="1:11" ht="28.8" x14ac:dyDescent="0.25">
       <c r="D101" s="1" t="s">
         <v>15</v>
       </c>
@@ -6968,7 +6970,7 @@
       </c>
       <c r="K101" s="2"/>
     </row>
-    <row r="102" spans="1:11" ht="28.5">
+    <row r="102" spans="1:11" ht="28.8" x14ac:dyDescent="0.25">
       <c r="D102" s="1" t="s">
         <v>13</v>
       </c>
@@ -6994,7 +6996,7 @@
       </c>
       <c r="K102" s="2"/>
     </row>
-    <row r="103" spans="1:11" ht="14.25">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D103" s="1" t="s">
         <v>11</v>
       </c>
@@ -7020,7 +7022,7 @@
       </c>
       <c r="K103" s="2"/>
     </row>
-    <row r="104" spans="1:11" ht="14.25">
+    <row r="104" spans="1:11" ht="28.8" x14ac:dyDescent="0.25">
       <c r="D104" s="1" t="s">
         <v>9</v>
       </c>
@@ -7046,7 +7048,7 @@
       </c>
       <c r="K104" s="2"/>
     </row>
-    <row r="105" spans="1:11" ht="28.5">
+    <row r="105" spans="1:11" ht="28.8" x14ac:dyDescent="0.25">
       <c r="D105" s="1" t="s">
         <v>7</v>
       </c>
@@ -7072,7 +7074,7 @@
       </c>
       <c r="K105" s="2"/>
     </row>
-    <row r="106" spans="1:11" ht="14.25">
+    <row r="106" spans="1:11" ht="28.8" x14ac:dyDescent="0.25">
       <c r="D106" s="1" t="s">
         <v>423</v>
       </c>
@@ -7098,7 +7100,7 @@
       </c>
       <c r="K106" s="2"/>
     </row>
-    <row r="107" spans="1:11" ht="14.25">
+    <row r="107" spans="1:11" ht="28.8" x14ac:dyDescent="0.25">
       <c r="D107" s="1" t="s">
         <v>425</v>
       </c>
@@ -7124,7 +7126,7 @@
       </c>
       <c r="K107" s="2"/>
     </row>
-    <row r="108" spans="1:11" ht="14.25">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D108" s="1" t="s">
         <v>25</v>
       </c>
@@ -7150,7 +7152,7 @@
       </c>
       <c r="K108" s="2"/>
     </row>
-    <row r="109" spans="1:11" ht="14.25">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D109" s="1" t="s">
         <v>5</v>
       </c>
@@ -7176,7 +7178,7 @@
       </c>
       <c r="K109" s="2"/>
     </row>
-    <row r="110" spans="1:11" ht="14.25">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D110" s="1" t="s">
         <v>3</v>
       </c>
@@ -7202,7 +7204,7 @@
       </c>
       <c r="K110" s="2"/>
     </row>
-    <row r="111" spans="1:11" ht="28.5">
+    <row r="111" spans="1:11" ht="28.8" x14ac:dyDescent="0.25">
       <c r="D111" s="1" t="s">
         <v>312</v>
       </c>
@@ -7228,7 +7230,7 @@
       </c>
       <c r="K111" s="2"/>
     </row>
-    <row r="112" spans="1:11" ht="14.25">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D112" s="1" t="s">
         <v>419</v>
       </c>
@@ -7254,7 +7256,7 @@
       </c>
       <c r="K112" s="2"/>
     </row>
-    <row r="113" spans="2:11" ht="14.25">
+    <row r="113" spans="2:11" x14ac:dyDescent="0.25">
       <c r="D113" s="1" t="s">
         <v>416</v>
       </c>
@@ -7280,7 +7282,7 @@
       </c>
       <c r="K113" s="2"/>
     </row>
-    <row r="114" spans="2:11" ht="14.25">
+    <row r="114" spans="2:11" x14ac:dyDescent="0.25">
       <c r="D114" s="1" t="s">
         <v>0</v>
       </c>
@@ -7306,7 +7308,7 @@
       </c>
       <c r="K114" s="2"/>
     </row>
-    <row r="115" spans="2:11" ht="14.25">
+    <row r="115" spans="2:11" x14ac:dyDescent="0.25">
       <c r="D115" s="1"/>
       <c r="G115" s="1" t="s">
         <v>523</v>
@@ -7323,7 +7325,7 @@
       </c>
       <c r="K115" s="2"/>
     </row>
-    <row r="116" spans="2:11" ht="14.25">
+    <row r="116" spans="2:11" x14ac:dyDescent="0.25">
       <c r="D116" s="1"/>
       <c r="G116" s="1" t="s">
         <v>522</v>
@@ -7340,7 +7342,7 @@
       </c>
       <c r="K116" s="2"/>
     </row>
-    <row r="117" spans="2:11" ht="14.25">
+    <row r="117" spans="2:11" x14ac:dyDescent="0.25">
       <c r="D117" s="1"/>
       <c r="G117" s="1" t="s">
         <v>521</v>
@@ -7357,7 +7359,7 @@
       </c>
       <c r="K117" s="2"/>
     </row>
-    <row r="118" spans="2:11" ht="14.25">
+    <row r="118" spans="2:11" x14ac:dyDescent="0.25">
       <c r="G118" s="1" t="s">
         <v>520</v>
       </c>
@@ -7373,7 +7375,7 @@
       </c>
       <c r="K118" s="2"/>
     </row>
-    <row r="119" spans="2:11" ht="14.25">
+    <row r="119" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B119" t="s">
         <v>861</v>
       </c>
@@ -7395,7 +7397,7 @@
       </c>
       <c r="K119" s="2"/>
     </row>
-    <row r="120" spans="2:11" ht="14.25">
+    <row r="120" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B120" t="s">
         <v>862</v>
       </c>
@@ -7417,7 +7419,7 @@
       </c>
       <c r="K120" s="2"/>
     </row>
-    <row r="121" spans="2:11" ht="14.25">
+    <row r="121" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B121" t="s">
         <v>863</v>
       </c>
@@ -7439,7 +7441,7 @@
       </c>
       <c r="K121" s="2"/>
     </row>
-    <row r="122" spans="2:11" ht="14.25">
+    <row r="122" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B122" t="s">
         <v>864</v>
       </c>
@@ -7461,7 +7463,7 @@
       </c>
       <c r="K122" s="2"/>
     </row>
-    <row r="123" spans="2:11" ht="14.25">
+    <row r="123" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B123" t="s">
         <v>865</v>
       </c>
@@ -7483,7 +7485,7 @@
       </c>
       <c r="K123" s="2"/>
     </row>
-    <row r="124" spans="2:11" ht="14.25">
+    <row r="124" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B124" t="s">
         <v>866</v>
       </c>
@@ -7505,7 +7507,7 @@
       </c>
       <c r="K124" s="2"/>
     </row>
-    <row r="125" spans="2:11" ht="14.25">
+    <row r="125" spans="2:11" x14ac:dyDescent="0.25">
       <c r="G125" s="1" t="s">
         <v>513</v>
       </c>
@@ -7521,7 +7523,7 @@
       </c>
       <c r="K125" s="2"/>
     </row>
-    <row r="126" spans="2:11" ht="14.25">
+    <row r="126" spans="2:11" x14ac:dyDescent="0.25">
       <c r="G126" s="1" t="s">
         <v>512</v>
       </c>
@@ -7537,7 +7539,7 @@
       </c>
       <c r="K126" s="2"/>
     </row>
-    <row r="127" spans="2:11" ht="14.25">
+    <row r="127" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B127" t="s">
         <v>867</v>
       </c>
@@ -7559,7 +7561,7 @@
       </c>
       <c r="K127" s="2"/>
     </row>
-    <row r="128" spans="2:11" ht="14.25">
+    <row r="128" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B128" t="s">
         <v>868</v>
       </c>
@@ -7581,7 +7583,7 @@
       </c>
       <c r="K128" s="2"/>
     </row>
-    <row r="129" spans="2:11" ht="14.25">
+    <row r="129" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B129" t="s">
         <v>869</v>
       </c>
@@ -7603,7 +7605,7 @@
       </c>
       <c r="K129" s="2"/>
     </row>
-    <row r="130" spans="2:11" ht="14.25">
+    <row r="130" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B130" t="s">
         <v>870</v>
       </c>
@@ -7625,7 +7627,7 @@
       </c>
       <c r="K130" s="2"/>
     </row>
-    <row r="131" spans="2:11" ht="14.25">
+    <row r="131" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B131" t="s">
         <v>871</v>
       </c>
@@ -7647,7 +7649,7 @@
       </c>
       <c r="K131" s="2"/>
     </row>
-    <row r="132" spans="2:11" ht="14.25">
+    <row r="132" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B132" t="s">
         <v>872</v>
       </c>
@@ -7669,7 +7671,7 @@
       </c>
       <c r="K132" s="2"/>
     </row>
-    <row r="133" spans="2:11" ht="14.25">
+    <row r="133" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B133" t="s">
         <v>873</v>
       </c>
@@ -7691,7 +7693,7 @@
       </c>
       <c r="K133" s="2"/>
     </row>
-    <row r="134" spans="2:11" ht="14.25">
+    <row r="134" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B134" t="s">
         <v>874</v>
       </c>
@@ -7713,7 +7715,7 @@
       </c>
       <c r="K134" s="2"/>
     </row>
-    <row r="135" spans="2:11" ht="14.25">
+    <row r="135" spans="2:11" ht="28.8" x14ac:dyDescent="0.25">
       <c r="B135" t="s">
         <v>875</v>
       </c>
@@ -7735,7 +7737,7 @@
       </c>
       <c r="K135" s="2"/>
     </row>
-    <row r="136" spans="2:11" ht="14.25">
+    <row r="136" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B136" t="s">
         <v>876</v>
       </c>
@@ -7757,7 +7759,7 @@
       </c>
       <c r="K136" s="2"/>
     </row>
-    <row r="137" spans="2:11" ht="14.25">
+    <row r="137" spans="2:11" ht="28.8" x14ac:dyDescent="0.25">
       <c r="B137" t="s">
         <v>877</v>
       </c>
@@ -7779,7 +7781,7 @@
       </c>
       <c r="K137" s="2"/>
     </row>
-    <row r="138" spans="2:11" ht="14.25">
+    <row r="138" spans="2:11" ht="28.8" x14ac:dyDescent="0.25">
       <c r="B138" t="s">
         <v>878</v>
       </c>
@@ -7801,7 +7803,7 @@
       </c>
       <c r="K138" s="2"/>
     </row>
-    <row r="139" spans="2:11" ht="14.25">
+    <row r="139" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B139" t="s">
         <v>879</v>
       </c>
@@ -7823,7 +7825,7 @@
       </c>
       <c r="K139" s="2"/>
     </row>
-    <row r="140" spans="2:11" ht="28.5">
+    <row r="140" spans="2:11" ht="28.8" x14ac:dyDescent="0.25">
       <c r="B140" t="s">
         <v>880</v>
       </c>
@@ -7845,7 +7847,7 @@
       </c>
       <c r="K140" s="2"/>
     </row>
-    <row r="141" spans="2:11" ht="28.5">
+    <row r="141" spans="2:11" ht="28.8" x14ac:dyDescent="0.25">
       <c r="B141" t="s">
         <v>881</v>
       </c>
@@ -7867,7 +7869,7 @@
       </c>
       <c r="K141" s="2"/>
     </row>
-    <row r="142" spans="2:11" ht="28.5">
+    <row r="142" spans="2:11" ht="28.8" x14ac:dyDescent="0.25">
       <c r="B142" t="s">
         <v>882</v>
       </c>
@@ -7889,7 +7891,7 @@
       </c>
       <c r="K142" s="2"/>
     </row>
-    <row r="143" spans="2:11" ht="14.25">
+    <row r="143" spans="2:11" ht="28.8" x14ac:dyDescent="0.25">
       <c r="B143" t="s">
         <v>883</v>
       </c>
@@ -7911,7 +7913,7 @@
       </c>
       <c r="K143" s="2"/>
     </row>
-    <row r="144" spans="2:11" ht="28.5">
+    <row r="144" spans="2:11" ht="28.8" x14ac:dyDescent="0.25">
       <c r="B144" t="s">
         <v>884</v>
       </c>
@@ -7933,7 +7935,7 @@
       </c>
       <c r="K144" s="2"/>
     </row>
-    <row r="145" spans="2:11" ht="14.25">
+    <row r="145" spans="2:11" ht="28.8" x14ac:dyDescent="0.25">
       <c r="B145" t="s">
         <v>885</v>
       </c>
@@ -7955,7 +7957,7 @@
       </c>
       <c r="K145" s="2"/>
     </row>
-    <row r="146" spans="2:11" ht="14.25">
+    <row r="146" spans="2:11" ht="28.8" x14ac:dyDescent="0.25">
       <c r="B146" t="s">
         <v>886</v>
       </c>
@@ -7977,7 +7979,7 @@
       </c>
       <c r="K146" s="2"/>
     </row>
-    <row r="147" spans="2:11" ht="14.25">
+    <row r="147" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B147" t="s">
         <v>887</v>
       </c>
@@ -7999,7 +8001,7 @@
       </c>
       <c r="K147" s="2"/>
     </row>
-    <row r="148" spans="2:11" ht="14.25">
+    <row r="148" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B148" t="s">
         <v>888</v>
       </c>
@@ -8021,7 +8023,7 @@
       </c>
       <c r="K148" s="2"/>
     </row>
-    <row r="149" spans="2:11" ht="14.25">
+    <row r="149" spans="2:11" x14ac:dyDescent="0.25">
       <c r="C149">
         <v>57344</v>
       </c>
@@ -8040,7 +8042,7 @@
       </c>
       <c r="K149" s="2"/>
     </row>
-    <row r="150" spans="2:11" ht="14.25">
+    <row r="150" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B150" t="s">
         <v>860</v>
       </c>
@@ -8062,7 +8064,7 @@
       </c>
       <c r="K150" s="2"/>
     </row>
-    <row r="151" spans="2:11" ht="14.25">
+    <row r="151" spans="2:11" x14ac:dyDescent="0.25">
       <c r="G151" s="1" t="s">
         <v>487</v>
       </c>
@@ -8078,7 +8080,7 @@
       </c>
       <c r="K151" s="2"/>
     </row>
-    <row r="152" spans="2:11" ht="14.25">
+    <row r="152" spans="2:11" x14ac:dyDescent="0.25">
       <c r="G152" s="1" t="s">
         <v>486</v>
       </c>
@@ -8094,7 +8096,7 @@
       </c>
       <c r="K152" s="2"/>
     </row>
-    <row r="153" spans="2:11" ht="14.25">
+    <row r="153" spans="2:11" x14ac:dyDescent="0.25">
       <c r="G153" s="1" t="s">
         <v>485</v>
       </c>
@@ -8110,7 +8112,7 @@
       </c>
       <c r="K153" s="2"/>
     </row>
-    <row r="154" spans="2:11" ht="14.25">
+    <row r="154" spans="2:11" x14ac:dyDescent="0.25">
       <c r="G154" s="1" t="s">
         <v>484</v>
       </c>
@@ -8126,7 +8128,7 @@
       </c>
       <c r="K154" s="2"/>
     </row>
-    <row r="155" spans="2:11" ht="14.25">
+    <row r="155" spans="2:11" x14ac:dyDescent="0.25">
       <c r="G155" s="1" t="s">
         <v>483</v>
       </c>
@@ -8142,7 +8144,7 @@
       </c>
       <c r="K155" s="2"/>
     </row>
-    <row r="156" spans="2:11" ht="14.25">
+    <row r="156" spans="2:11" x14ac:dyDescent="0.25">
       <c r="G156" s="1" t="s">
         <v>482</v>
       </c>
@@ -8158,7 +8160,7 @@
       </c>
       <c r="K156" s="2"/>
     </row>
-    <row r="157" spans="2:11" ht="14.25">
+    <row r="157" spans="2:11" x14ac:dyDescent="0.25">
       <c r="G157" s="1" t="s">
         <v>481</v>
       </c>
@@ -8174,7 +8176,7 @@
       </c>
       <c r="K157" s="2"/>
     </row>
-    <row r="158" spans="2:11" ht="14.25">
+    <row r="158" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B158" t="s">
         <v>892</v>
       </c>
@@ -8197,7 +8199,7 @@
       </c>
       <c r="K158" s="2"/>
     </row>
-    <row r="159" spans="2:11" ht="14.25">
+    <row r="159" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B159" t="s">
         <v>893</v>
       </c>
@@ -8220,7 +8222,7 @@
       </c>
       <c r="K159" s="2"/>
     </row>
-    <row r="160" spans="2:11" ht="14.25">
+    <row r="160" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B160" t="s">
         <v>894</v>
       </c>
@@ -8243,7 +8245,7 @@
       </c>
       <c r="K160" s="2"/>
     </row>
-    <row r="161" spans="2:11" ht="14.25">
+    <row r="161" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B161" t="s">
         <v>895</v>
       </c>
@@ -8266,7 +8268,7 @@
       </c>
       <c r="K161" s="2"/>
     </row>
-    <row r="162" spans="2:11" ht="14.25">
+    <row r="162" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B162" t="s">
         <v>896</v>
       </c>
@@ -8289,7 +8291,7 @@
       </c>
       <c r="K162" s="2"/>
     </row>
-    <row r="163" spans="2:11" ht="14.25">
+    <row r="163" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B163" t="s">
         <v>897</v>
       </c>
@@ -8312,7 +8314,7 @@
       </c>
       <c r="K163" s="2"/>
     </row>
-    <row r="164" spans="2:11" ht="14.25">
+    <row r="164" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B164" t="s">
         <v>898</v>
       </c>
@@ -8335,7 +8337,7 @@
       </c>
       <c r="K164" s="2"/>
     </row>
-    <row r="165" spans="2:11" ht="14.25">
+    <row r="165" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B165" t="s">
         <v>899</v>
       </c>
@@ -8358,7 +8360,7 @@
       </c>
       <c r="K165" s="2"/>
     </row>
-    <row r="166" spans="2:11" ht="14.25">
+    <row r="166" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B166" t="s">
         <v>900</v>
       </c>
@@ -8381,7 +8383,7 @@
       </c>
       <c r="K166" s="2"/>
     </row>
-    <row r="167" spans="2:11" ht="14.25">
+    <row r="167" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B167" t="s">
         <v>901</v>
       </c>
@@ -8404,7 +8406,7 @@
       </c>
       <c r="K167" s="2"/>
     </row>
-    <row r="168" spans="2:11" ht="14.25">
+    <row r="168" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B168" t="s">
         <v>902</v>
       </c>
@@ -8427,7 +8429,7 @@
       </c>
       <c r="K168" s="2"/>
     </row>
-    <row r="169" spans="2:11" ht="14.25">
+    <row r="169" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B169" t="s">
         <v>903</v>
       </c>
@@ -8450,7 +8452,7 @@
       </c>
       <c r="K169" s="2"/>
     </row>
-    <row r="170" spans="2:11" ht="14.25">
+    <row r="170" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B170" t="s">
         <v>904</v>
       </c>
@@ -8473,7 +8475,7 @@
       </c>
       <c r="K170" s="2"/>
     </row>
-    <row r="171" spans="2:11" ht="14.25">
+    <row r="171" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B171" t="s">
         <v>905</v>
       </c>
@@ -8496,7 +8498,7 @@
       </c>
       <c r="K171" s="2"/>
     </row>
-    <row r="172" spans="2:11" ht="14.25">
+    <row r="172" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B172" t="s">
         <v>906</v>
       </c>
@@ -8519,7 +8521,7 @@
       </c>
       <c r="K172" s="2"/>
     </row>
-    <row r="173" spans="2:11" ht="14.25">
+    <row r="173" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B173" t="s">
         <v>907</v>
       </c>
@@ -8542,7 +8544,7 @@
       </c>
       <c r="K173" s="2"/>
     </row>
-    <row r="174" spans="2:11" ht="14.25">
+    <row r="174" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B174" t="s">
         <v>908</v>
       </c>
@@ -8565,7 +8567,7 @@
       </c>
       <c r="K174" s="2"/>
     </row>
-    <row r="175" spans="2:11" ht="14.25">
+    <row r="175" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B175" t="s">
         <v>909</v>
       </c>
@@ -8588,7 +8590,7 @@
       </c>
       <c r="K175" s="2"/>
     </row>
-    <row r="176" spans="2:11" ht="14.25">
+    <row r="176" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B176" t="s">
         <v>910</v>
       </c>
@@ -8611,7 +8613,7 @@
       </c>
       <c r="K176" s="2"/>
     </row>
-    <row r="177" spans="2:11" ht="14.25">
+    <row r="177" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B177" t="s">
         <v>911</v>
       </c>
@@ -8634,7 +8636,7 @@
       </c>
       <c r="K177" s="2"/>
     </row>
-    <row r="178" spans="2:11" ht="14.25">
+    <row r="178" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B178" t="s">
         <v>912</v>
       </c>
@@ -8657,7 +8659,7 @@
       </c>
       <c r="K178" s="2"/>
     </row>
-    <row r="179" spans="2:11" ht="14.25">
+    <row r="179" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B179" t="s">
         <v>913</v>
       </c>
@@ -8680,7 +8682,7 @@
       </c>
       <c r="K179" s="2"/>
     </row>
-    <row r="180" spans="2:11" ht="14.25">
+    <row r="180" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B180" t="s">
         <v>914</v>
       </c>
@@ -8703,7 +8705,7 @@
       </c>
       <c r="K180" s="2"/>
     </row>
-    <row r="181" spans="2:11" ht="14.25">
+    <row r="181" spans="2:11" ht="28.8" x14ac:dyDescent="0.25">
       <c r="B181" t="s">
         <v>915</v>
       </c>
@@ -8726,7 +8728,7 @@
       </c>
       <c r="K181" s="2"/>
     </row>
-    <row r="182" spans="2:11" ht="14.25">
+    <row r="182" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B182" t="s">
         <v>916</v>
       </c>
@@ -8749,7 +8751,7 @@
       </c>
       <c r="K182" s="2"/>
     </row>
-    <row r="183" spans="2:11" ht="14.25">
+    <row r="183" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B183" t="s">
         <v>917</v>
       </c>
@@ -8772,7 +8774,7 @@
       </c>
       <c r="K183" s="2"/>
     </row>
-    <row r="184" spans="2:11" ht="14.25">
+    <row r="184" spans="2:11" ht="28.8" x14ac:dyDescent="0.25">
       <c r="B184" t="s">
         <v>890</v>
       </c>
@@ -8795,7 +8797,7 @@
       </c>
       <c r="K184" s="2"/>
     </row>
-    <row r="185" spans="2:11" ht="14.25">
+    <row r="185" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B185" t="s">
         <v>891</v>
       </c>
@@ -8818,7 +8820,7 @@
       </c>
       <c r="K185" s="2"/>
     </row>
-    <row r="186" spans="2:11" ht="14.25">
+    <row r="186" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B186" t="s">
         <v>918</v>
       </c>
@@ -8841,7 +8843,7 @@
       </c>
       <c r="K186" s="2"/>
     </row>
-    <row r="187" spans="2:11" ht="28.5">
+    <row r="187" spans="2:11" ht="28.8" x14ac:dyDescent="0.25">
       <c r="B187" t="s">
         <v>919</v>
       </c>
@@ -8864,7 +8866,7 @@
       </c>
       <c r="K187" s="2"/>
     </row>
-    <row r="188" spans="2:11" ht="28.5">
+    <row r="188" spans="2:11" ht="28.8" x14ac:dyDescent="0.25">
       <c r="B188" t="s">
         <v>920</v>
       </c>
@@ -8887,7 +8889,7 @@
       </c>
       <c r="K188" s="2"/>
     </row>
-    <row r="189" spans="2:11" ht="14.25">
+    <row r="189" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B189" t="s">
         <v>921</v>
       </c>
@@ -8910,7 +8912,7 @@
       </c>
       <c r="K189" s="2"/>
     </row>
-    <row r="190" spans="2:11" ht="14.25">
+    <row r="190" spans="2:11" ht="28.8" x14ac:dyDescent="0.25">
       <c r="B190" t="s">
         <v>922</v>
       </c>
@@ -8933,7 +8935,7 @@
       </c>
       <c r="K190" s="2"/>
     </row>
-    <row r="191" spans="2:11" ht="14.25">
+    <row r="191" spans="2:11" ht="28.8" x14ac:dyDescent="0.25">
       <c r="B191" t="s">
         <v>923</v>
       </c>
@@ -8956,7 +8958,7 @@
       </c>
       <c r="K191" s="2"/>
     </row>
-    <row r="192" spans="2:11" ht="14.25">
+    <row r="192" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B192" t="s">
         <v>924</v>
       </c>
@@ -8979,7 +8981,7 @@
       </c>
       <c r="K192" s="2"/>
     </row>
-    <row r="193" spans="2:11" ht="14.25">
+    <row r="193" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B193" t="s">
         <v>925</v>
       </c>
@@ -9002,7 +9004,7 @@
       </c>
       <c r="K193" s="2"/>
     </row>
-    <row r="194" spans="2:11" ht="14.25">
+    <row r="194" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B194" t="s">
         <v>926</v>
       </c>
@@ -9025,7 +9027,7 @@
       </c>
       <c r="K194" s="2"/>
     </row>
-    <row r="195" spans="2:11" ht="28.5">
+    <row r="195" spans="2:11" ht="28.8" x14ac:dyDescent="0.25">
       <c r="G195" s="1" t="s">
         <v>443</v>
       </c>
@@ -9041,7 +9043,7 @@
       </c>
       <c r="K195" s="2"/>
     </row>
-    <row r="196" spans="2:11" ht="14.25">
+    <row r="196" spans="2:11" x14ac:dyDescent="0.25">
       <c r="G196" s="1" t="s">
         <v>442</v>
       </c>
@@ -9057,7 +9059,7 @@
       </c>
       <c r="K196" s="2"/>
     </row>
-    <row r="197" spans="2:11" ht="14.25">
+    <row r="197" spans="2:11" x14ac:dyDescent="0.25">
       <c r="G197" s="1" t="s">
         <v>440</v>
       </c>
@@ -9073,7 +9075,7 @@
       </c>
       <c r="K197" s="2"/>
     </row>
-    <row r="198" spans="2:11" ht="14.25">
+    <row r="198" spans="2:11" x14ac:dyDescent="0.25">
       <c r="G198" s="1" t="s">
         <v>439</v>
       </c>
@@ -9089,7 +9091,7 @@
       </c>
       <c r="K198" s="2"/>
     </row>
-    <row r="199" spans="2:11" ht="14.25">
+    <row r="199" spans="2:11" x14ac:dyDescent="0.25">
       <c r="G199" s="1" t="s">
         <v>438</v>
       </c>
@@ -9105,7 +9107,7 @@
       </c>
       <c r="K199" s="2"/>
     </row>
-    <row r="200" spans="2:11" ht="14.25">
+    <row r="200" spans="2:11" x14ac:dyDescent="0.25">
       <c r="G200" s="1" t="s">
         <v>437</v>
       </c>
@@ -9121,7 +9123,7 @@
       </c>
       <c r="K200" s="2"/>
     </row>
-    <row r="201" spans="2:11" ht="14.25">
+    <row r="201" spans="2:11" x14ac:dyDescent="0.25">
       <c r="G201" s="1" t="s">
         <v>436</v>
       </c>
@@ -9137,7 +9139,7 @@
       </c>
       <c r="K201" s="2"/>
     </row>
-    <row r="202" spans="2:11" ht="14.25">
+    <row r="202" spans="2:11" x14ac:dyDescent="0.25">
       <c r="G202" s="1" t="s">
         <v>435</v>
       </c>
@@ -9153,7 +9155,7 @@
       </c>
       <c r="K202" s="2"/>
     </row>
-    <row r="203" spans="2:11" ht="14.25">
+    <row r="203" spans="2:11" x14ac:dyDescent="0.25">
       <c r="G203" s="1" t="s">
         <v>434</v>
       </c>
@@ -9169,7 +9171,7 @@
       </c>
       <c r="K203" s="2"/>
     </row>
-    <row r="204" spans="2:11" ht="14.25">
+    <row r="204" spans="2:11" x14ac:dyDescent="0.25">
       <c r="G204" s="1" t="s">
         <v>433</v>
       </c>
@@ -9185,7 +9187,7 @@
       </c>
       <c r="K204" s="2"/>
     </row>
-    <row r="205" spans="2:11" ht="14.25">
+    <row r="205" spans="2:11" ht="28.8" x14ac:dyDescent="0.25">
       <c r="G205" s="1" t="s">
         <v>432</v>
       </c>
@@ -9201,7 +9203,7 @@
       </c>
       <c r="K205" s="2"/>
     </row>
-    <row r="206" spans="2:11" ht="14.25">
+    <row r="206" spans="2:11" x14ac:dyDescent="0.25">
       <c r="G206" s="1" t="s">
         <v>431</v>
       </c>
@@ -9217,7 +9219,7 @@
       </c>
       <c r="K206" s="2"/>
     </row>
-    <row r="207" spans="2:11" ht="14.25">
+    <row r="207" spans="2:11" x14ac:dyDescent="0.25">
       <c r="G207" s="1" t="s">
         <v>430</v>
       </c>
@@ -9233,7 +9235,7 @@
       </c>
       <c r="K207" s="2"/>
     </row>
-    <row r="208" spans="2:11" ht="14.25">
+    <row r="208" spans="2:11" x14ac:dyDescent="0.25">
       <c r="G208" s="1" t="s">
         <v>429</v>
       </c>
@@ -9249,7 +9251,7 @@
       </c>
       <c r="K208" s="2"/>
     </row>
-    <row r="209" spans="7:11" ht="14.25">
+    <row r="209" spans="7:11" ht="28.8" x14ac:dyDescent="0.25">
       <c r="G209" s="1" t="s">
         <v>428</v>
       </c>
@@ -9265,7 +9267,7 @@
       </c>
       <c r="K209" s="2"/>
     </row>
-    <row r="210" spans="7:11" ht="14.25">
+    <row r="210" spans="7:11" x14ac:dyDescent="0.25">
       <c r="G210" s="1" t="s">
         <v>427</v>
       </c>
@@ -9281,7 +9283,7 @@
       </c>
       <c r="K210" s="2"/>
     </row>
-    <row r="211" spans="7:11" ht="14.25">
+    <row r="211" spans="7:11" ht="28.8" x14ac:dyDescent="0.25">
       <c r="G211" s="1" t="s">
         <v>426</v>
       </c>
@@ -9297,7 +9299,7 @@
       </c>
       <c r="K211" s="2"/>
     </row>
-    <row r="212" spans="7:11" ht="14.25">
+    <row r="212" spans="7:11" x14ac:dyDescent="0.25">
       <c r="G212" s="1" t="s">
         <v>424</v>
       </c>
@@ -9313,7 +9315,7 @@
       </c>
       <c r="K212" s="2"/>
     </row>
-    <row r="213" spans="7:11" ht="14.25">
+    <row r="213" spans="7:11" x14ac:dyDescent="0.25">
       <c r="G213" s="1" t="s">
         <v>422</v>
       </c>
@@ -9329,7 +9331,7 @@
       </c>
       <c r="K213" s="2"/>
     </row>
-    <row r="214" spans="7:11" ht="14.25">
+    <row r="214" spans="7:11" x14ac:dyDescent="0.25">
       <c r="G214" s="1" t="s">
         <v>421</v>
       </c>
@@ -9345,7 +9347,7 @@
       </c>
       <c r="K214" s="2"/>
     </row>
-    <row r="215" spans="7:11" ht="14.25">
+    <row r="215" spans="7:11" x14ac:dyDescent="0.25">
       <c r="G215" s="1" t="s">
         <v>420</v>
       </c>
@@ -9361,7 +9363,7 @@
       </c>
       <c r="K215" s="2"/>
     </row>
-    <row r="216" spans="7:11" ht="14.25">
+    <row r="216" spans="7:11" x14ac:dyDescent="0.25">
       <c r="G216" s="1" t="s">
         <v>418</v>
       </c>
@@ -9377,7 +9379,7 @@
       </c>
       <c r="K216" s="2"/>
     </row>
-    <row r="217" spans="7:11" ht="14.25">
+    <row r="217" spans="7:11" x14ac:dyDescent="0.25">
       <c r="G217" s="1" t="s">
         <v>417</v>
       </c>
@@ -9393,7 +9395,7 @@
       </c>
       <c r="K217" s="2"/>
     </row>
-    <row r="218" spans="7:11" ht="14.25">
+    <row r="218" spans="7:11" ht="28.8" x14ac:dyDescent="0.25">
       <c r="G218" s="1" t="s">
         <v>415</v>
       </c>
@@ -9409,7 +9411,7 @@
       </c>
       <c r="K218" s="2"/>
     </row>
-    <row r="219" spans="7:11" ht="14.25">
+    <row r="219" spans="7:11" x14ac:dyDescent="0.25">
       <c r="G219" s="1" t="s">
         <v>413</v>
       </c>
@@ -9425,7 +9427,7 @@
       </c>
       <c r="K219" s="2"/>
     </row>
-    <row r="220" spans="7:11" ht="14.25">
+    <row r="220" spans="7:11" x14ac:dyDescent="0.25">
       <c r="G220" s="1" t="s">
         <v>412</v>
       </c>
@@ -9441,7 +9443,7 @@
       </c>
       <c r="K220" s="2"/>
     </row>
-    <row r="221" spans="7:11" ht="14.25">
+    <row r="221" spans="7:11" ht="28.8" x14ac:dyDescent="0.25">
       <c r="G221" s="1" t="s">
         <v>411</v>
       </c>
@@ -9457,7 +9459,7 @@
       </c>
       <c r="K221" s="2"/>
     </row>
-    <row r="222" spans="7:11" ht="14.25">
+    <row r="222" spans="7:11" x14ac:dyDescent="0.25">
       <c r="G222" s="1" t="s">
         <v>410</v>
       </c>
@@ -9473,7 +9475,7 @@
       </c>
       <c r="K222" s="2"/>
     </row>
-    <row r="223" spans="7:11" ht="14.25">
+    <row r="223" spans="7:11" x14ac:dyDescent="0.25">
       <c r="G223" s="1" t="s">
         <v>409</v>
       </c>
@@ -9489,7 +9491,7 @@
       </c>
       <c r="K223" s="2"/>
     </row>
-    <row r="224" spans="7:11" ht="14.25">
+    <row r="224" spans="7:11" ht="28.8" x14ac:dyDescent="0.25">
       <c r="G224" s="1" t="s">
         <v>408</v>
       </c>
@@ -9505,7 +9507,7 @@
       </c>
       <c r="K224" s="2"/>
     </row>
-    <row r="225" spans="7:11" ht="14.25">
+    <row r="225" spans="7:11" ht="28.8" x14ac:dyDescent="0.25">
       <c r="G225" s="1" t="s">
         <v>407</v>
       </c>
@@ -9521,7 +9523,7 @@
       </c>
       <c r="K225" s="2"/>
     </row>
-    <row r="226" spans="7:11" ht="14.25">
+    <row r="226" spans="7:11" x14ac:dyDescent="0.25">
       <c r="G226" s="1" t="s">
         <v>406</v>
       </c>
@@ -9537,7 +9539,7 @@
       </c>
       <c r="K226" s="2"/>
     </row>
-    <row r="227" spans="7:11" ht="14.25">
+    <row r="227" spans="7:11" x14ac:dyDescent="0.25">
       <c r="G227" s="1" t="s">
         <v>405</v>
       </c>
@@ -9553,7 +9555,7 @@
       </c>
       <c r="K227" s="2"/>
     </row>
-    <row r="228" spans="7:11" ht="14.25">
+    <row r="228" spans="7:11" x14ac:dyDescent="0.25">
       <c r="G228" s="1" t="s">
         <v>404</v>
       </c>
@@ -9569,7 +9571,7 @@
       </c>
       <c r="K228" s="2"/>
     </row>
-    <row r="229" spans="7:11" ht="14.25">
+    <row r="229" spans="7:11" x14ac:dyDescent="0.25">
       <c r="G229" s="1" t="s">
         <v>403</v>
       </c>
@@ -9585,7 +9587,7 @@
       </c>
       <c r="K229" s="2"/>
     </row>
-    <row r="230" spans="7:11" ht="14.25">
+    <row r="230" spans="7:11" x14ac:dyDescent="0.25">
       <c r="G230" s="1" t="s">
         <v>402</v>
       </c>
@@ -9601,7 +9603,7 @@
       </c>
       <c r="K230" s="2"/>
     </row>
-    <row r="231" spans="7:11" ht="14.25">
+    <row r="231" spans="7:11" x14ac:dyDescent="0.25">
       <c r="G231" s="1" t="s">
         <v>401</v>
       </c>
@@ -9617,7 +9619,7 @@
       </c>
       <c r="K231" s="2"/>
     </row>
-    <row r="232" spans="7:11" ht="14.25">
+    <row r="232" spans="7:11" x14ac:dyDescent="0.25">
       <c r="G232" s="1" t="s">
         <v>400</v>
       </c>
@@ -9633,7 +9635,7 @@
       </c>
       <c r="K232" s="2"/>
     </row>
-    <row r="233" spans="7:11" ht="14.25">
+    <row r="233" spans="7:11" x14ac:dyDescent="0.25">
       <c r="G233" s="1" t="s">
         <v>399</v>
       </c>
@@ -9649,7 +9651,7 @@
       </c>
       <c r="K233" s="2"/>
     </row>
-    <row r="234" spans="7:11" ht="14.25">
+    <row r="234" spans="7:11" x14ac:dyDescent="0.25">
       <c r="G234" s="1" t="s">
         <v>398</v>
       </c>
@@ -9665,7 +9667,7 @@
       </c>
       <c r="K234" s="2"/>
     </row>
-    <row r="235" spans="7:11" ht="14.25">
+    <row r="235" spans="7:11" x14ac:dyDescent="0.25">
       <c r="G235" s="1" t="s">
         <v>397</v>
       </c>
@@ -9681,7 +9683,7 @@
       </c>
       <c r="K235" s="2"/>
     </row>
-    <row r="236" spans="7:11" ht="14.25">
+    <row r="236" spans="7:11" x14ac:dyDescent="0.25">
       <c r="G236" s="1" t="s">
         <v>396</v>
       </c>
@@ -9697,7 +9699,7 @@
       </c>
       <c r="K236" s="2"/>
     </row>
-    <row r="237" spans="7:11" ht="14.25">
+    <row r="237" spans="7:11" x14ac:dyDescent="0.25">
       <c r="G237" s="1" t="s">
         <v>395</v>
       </c>
@@ -9713,7 +9715,7 @@
       </c>
       <c r="K237" s="2"/>
     </row>
-    <row r="238" spans="7:11" ht="14.25">
+    <row r="238" spans="7:11" x14ac:dyDescent="0.25">
       <c r="G238" s="1" t="s">
         <v>394</v>
       </c>
@@ -9729,7 +9731,7 @@
       </c>
       <c r="K238" s="2"/>
     </row>
-    <row r="239" spans="7:11" ht="14.25">
+    <row r="239" spans="7:11" ht="28.8" x14ac:dyDescent="0.25">
       <c r="G239" s="1" t="s">
         <v>393</v>
       </c>
@@ -9745,7 +9747,7 @@
       </c>
       <c r="K239" s="2"/>
     </row>
-    <row r="240" spans="7:11" ht="14.25">
+    <row r="240" spans="7:11" x14ac:dyDescent="0.25">
       <c r="G240" s="1" t="s">
         <v>392</v>
       </c>
@@ -9761,7 +9763,7 @@
       </c>
       <c r="K240" s="2"/>
     </row>
-    <row r="241" spans="7:11" ht="14.25">
+    <row r="241" spans="7:11" ht="28.8" x14ac:dyDescent="0.25">
       <c r="G241" s="1" t="s">
         <v>391</v>
       </c>
@@ -9777,7 +9779,7 @@
       </c>
       <c r="K241" s="2"/>
     </row>
-    <row r="242" spans="7:11" ht="28.5">
+    <row r="242" spans="7:11" ht="28.8" x14ac:dyDescent="0.25">
       <c r="G242" s="1" t="s">
         <v>390</v>
       </c>
@@ -9793,7 +9795,7 @@
       </c>
       <c r="K242" s="2"/>
     </row>
-    <row r="243" spans="7:11" ht="14.25">
+    <row r="243" spans="7:11" x14ac:dyDescent="0.25">
       <c r="G243" s="1" t="s">
         <v>389</v>
       </c>
@@ -9809,7 +9811,7 @@
       </c>
       <c r="K243" s="2"/>
     </row>
-    <row r="244" spans="7:11" ht="28.5">
+    <row r="244" spans="7:11" ht="28.8" x14ac:dyDescent="0.25">
       <c r="G244" s="1" t="s">
         <v>388</v>
       </c>
@@ -9825,7 +9827,7 @@
       </c>
       <c r="K244" s="2"/>
     </row>
-    <row r="245" spans="7:11" ht="28.5">
+    <row r="245" spans="7:11" ht="28.8" x14ac:dyDescent="0.25">
       <c r="G245" s="1" t="s">
         <v>387</v>
       </c>
@@ -9841,7 +9843,7 @@
       </c>
       <c r="K245" s="2"/>
     </row>
-    <row r="246" spans="7:11" ht="14.25">
+    <row r="246" spans="7:11" x14ac:dyDescent="0.25">
       <c r="G246" s="1" t="s">
         <v>386</v>
       </c>
@@ -9857,7 +9859,7 @@
       </c>
       <c r="K246" s="2"/>
     </row>
-    <row r="247" spans="7:11" ht="28.5">
+    <row r="247" spans="7:11" ht="28.8" x14ac:dyDescent="0.25">
       <c r="G247" s="1" t="s">
         <v>385</v>
       </c>
@@ -9873,7 +9875,7 @@
       </c>
       <c r="K247" s="2"/>
     </row>
-    <row r="248" spans="7:11" ht="28.5">
+    <row r="248" spans="7:11" ht="28.8" x14ac:dyDescent="0.25">
       <c r="G248" s="1" t="s">
         <v>384</v>
       </c>
@@ -9889,7 +9891,7 @@
       </c>
       <c r="K248" s="2"/>
     </row>
-    <row r="249" spans="7:11" ht="28.5">
+    <row r="249" spans="7:11" ht="28.8" x14ac:dyDescent="0.25">
       <c r="G249" s="1" t="s">
         <v>383</v>
       </c>
@@ -9905,7 +9907,7 @@
       </c>
       <c r="K249" s="2"/>
     </row>
-    <row r="250" spans="7:11" ht="28.5">
+    <row r="250" spans="7:11" ht="28.8" x14ac:dyDescent="0.25">
       <c r="G250" s="1" t="s">
         <v>382</v>
       </c>
@@ -9921,7 +9923,7 @@
       </c>
       <c r="K250" s="2"/>
     </row>
-    <row r="251" spans="7:11" ht="28.5">
+    <row r="251" spans="7:11" ht="28.8" x14ac:dyDescent="0.25">
       <c r="G251" s="1" t="s">
         <v>381</v>
       </c>
@@ -9937,7 +9939,7 @@
       </c>
       <c r="K251" s="2"/>
     </row>
-    <row r="252" spans="7:11" ht="28.5">
+    <row r="252" spans="7:11" ht="28.8" x14ac:dyDescent="0.25">
       <c r="G252" s="1" t="s">
         <v>380</v>
       </c>
@@ -9953,7 +9955,7 @@
       </c>
       <c r="K252" s="2"/>
     </row>
-    <row r="253" spans="7:11" ht="28.5">
+    <row r="253" spans="7:11" ht="28.8" x14ac:dyDescent="0.25">
       <c r="G253" s="1" t="s">
         <v>379</v>
       </c>
@@ -9969,7 +9971,7 @@
       </c>
       <c r="K253" s="2"/>
     </row>
-    <row r="254" spans="7:11" ht="14.25">
+    <row r="254" spans="7:11" ht="28.8" x14ac:dyDescent="0.25">
       <c r="G254" s="1" t="s">
         <v>378</v>
       </c>
@@ -9985,7 +9987,7 @@
       </c>
       <c r="K254" s="2"/>
     </row>
-    <row r="255" spans="7:11" ht="14.25">
+    <row r="255" spans="7:11" x14ac:dyDescent="0.25">
       <c r="G255" s="1" t="s">
         <v>377</v>
       </c>
@@ -10001,7 +10003,7 @@
       </c>
       <c r="K255" s="2"/>
     </row>
-    <row r="256" spans="7:11" ht="14.25">
+    <row r="256" spans="7:11" x14ac:dyDescent="0.25">
       <c r="G256" s="1" t="s">
         <v>376</v>
       </c>
@@ -10017,7 +10019,7 @@
       </c>
       <c r="K256" s="2"/>
     </row>
-    <row r="257" spans="7:11" ht="14.25">
+    <row r="257" spans="7:11" x14ac:dyDescent="0.25">
       <c r="G257" s="1" t="s">
         <v>375</v>
       </c>
@@ -10033,7 +10035,7 @@
       </c>
       <c r="K257" s="2"/>
     </row>
-    <row r="258" spans="7:11" ht="14.25">
+    <row r="258" spans="7:11" x14ac:dyDescent="0.25">
       <c r="G258" s="1" t="s">
         <v>374</v>
       </c>
@@ -10049,7 +10051,7 @@
       </c>
       <c r="K258" s="2"/>
     </row>
-    <row r="259" spans="7:11" ht="14.25">
+    <row r="259" spans="7:11" x14ac:dyDescent="0.25">
       <c r="G259" s="1" t="s">
         <v>373</v>
       </c>
@@ -10065,7 +10067,7 @@
       </c>
       <c r="K259" s="2"/>
     </row>
-    <row r="260" spans="7:11" ht="14.25">
+    <row r="260" spans="7:11" x14ac:dyDescent="0.25">
       <c r="G260" s="1" t="s">
         <v>372</v>
       </c>
@@ -10081,7 +10083,7 @@
       </c>
       <c r="K260" s="2"/>
     </row>
-    <row r="261" spans="7:11" ht="14.25">
+    <row r="261" spans="7:11" x14ac:dyDescent="0.25">
       <c r="G261" s="1" t="s">
         <v>371</v>
       </c>
@@ -10097,7 +10099,7 @@
       </c>
       <c r="K261" s="2"/>
     </row>
-    <row r="262" spans="7:11" ht="14.25">
+    <row r="262" spans="7:11" x14ac:dyDescent="0.25">
       <c r="G262" s="1" t="s">
         <v>370</v>
       </c>
@@ -10113,7 +10115,7 @@
       </c>
       <c r="K262" s="2"/>
     </row>
-    <row r="263" spans="7:11" ht="14.25">
+    <row r="263" spans="7:11" x14ac:dyDescent="0.25">
       <c r="G263" s="1" t="s">
         <v>369</v>
       </c>
@@ -10129,7 +10131,7 @@
       </c>
       <c r="K263" s="2"/>
     </row>
-    <row r="264" spans="7:11" ht="14.25">
+    <row r="264" spans="7:11" x14ac:dyDescent="0.25">
       <c r="G264" s="1" t="s">
         <v>368</v>
       </c>
@@ -10145,7 +10147,7 @@
       </c>
       <c r="K264" s="2"/>
     </row>
-    <row r="265" spans="7:11" ht="14.25">
+    <row r="265" spans="7:11" x14ac:dyDescent="0.25">
       <c r="G265" s="1" t="s">
         <v>367</v>
       </c>
@@ -10161,7 +10163,7 @@
       </c>
       <c r="K265" s="2"/>
     </row>
-    <row r="266" spans="7:11" ht="14.25">
+    <row r="266" spans="7:11" x14ac:dyDescent="0.25">
       <c r="G266" s="1" t="s">
         <v>366</v>
       </c>
@@ -10177,7 +10179,7 @@
       </c>
       <c r="K266" s="2"/>
     </row>
-    <row r="267" spans="7:11" ht="14.25">
+    <row r="267" spans="7:11" x14ac:dyDescent="0.25">
       <c r="G267" s="1" t="s">
         <v>365</v>
       </c>
@@ -10193,7 +10195,7 @@
       </c>
       <c r="K267" s="2"/>
     </row>
-    <row r="268" spans="7:11" ht="14.25">
+    <row r="268" spans="7:11" x14ac:dyDescent="0.25">
       <c r="G268" s="1" t="s">
         <v>364</v>
       </c>
@@ -10209,7 +10211,7 @@
       </c>
       <c r="K268" s="2"/>
     </row>
-    <row r="269" spans="7:11" ht="14.25">
+    <row r="269" spans="7:11" x14ac:dyDescent="0.25">
       <c r="G269" s="1" t="s">
         <v>363</v>
       </c>
@@ -10225,7 +10227,7 @@
       </c>
       <c r="K269" s="2"/>
     </row>
-    <row r="270" spans="7:11" ht="14.25">
+    <row r="270" spans="7:11" x14ac:dyDescent="0.25">
       <c r="G270" s="1" t="s">
         <v>362</v>
       </c>
@@ -10241,7 +10243,7 @@
       </c>
       <c r="K270" s="2"/>
     </row>
-    <row r="271" spans="7:11" ht="14.25">
+    <row r="271" spans="7:11" x14ac:dyDescent="0.25">
       <c r="G271" s="1" t="s">
         <v>361</v>
       </c>
@@ -10257,7 +10259,7 @@
       </c>
       <c r="K271" s="2"/>
     </row>
-    <row r="272" spans="7:11" ht="14.25">
+    <row r="272" spans="7:11" x14ac:dyDescent="0.25">
       <c r="G272" s="1" t="s">
         <v>360</v>
       </c>
@@ -10273,7 +10275,7 @@
       </c>
       <c r="K272" s="2"/>
     </row>
-    <row r="273" spans="7:11" ht="14.25">
+    <row r="273" spans="7:11" x14ac:dyDescent="0.25">
       <c r="G273" s="1" t="s">
         <v>359</v>
       </c>
@@ -10289,7 +10291,7 @@
       </c>
       <c r="K273" s="2"/>
     </row>
-    <row r="274" spans="7:11" ht="14.25">
+    <row r="274" spans="7:11" x14ac:dyDescent="0.25">
       <c r="G274" s="1" t="s">
         <v>358</v>
       </c>
@@ -10305,7 +10307,7 @@
       </c>
       <c r="K274" s="2"/>
     </row>
-    <row r="275" spans="7:11" ht="14.25">
+    <row r="275" spans="7:11" x14ac:dyDescent="0.25">
       <c r="G275" s="1" t="s">
         <v>357</v>
       </c>
@@ -10321,7 +10323,7 @@
       </c>
       <c r="K275" s="2"/>
     </row>
-    <row r="276" spans="7:11" ht="14.25">
+    <row r="276" spans="7:11" x14ac:dyDescent="0.25">
       <c r="G276" s="1" t="s">
         <v>356</v>
       </c>
@@ -10337,7 +10339,7 @@
       </c>
       <c r="K276" s="2"/>
     </row>
-    <row r="277" spans="7:11" ht="14.25">
+    <row r="277" spans="7:11" x14ac:dyDescent="0.25">
       <c r="G277" s="1" t="s">
         <v>355</v>
       </c>
@@ -10353,7 +10355,7 @@
       </c>
       <c r="K277" s="2"/>
     </row>
-    <row r="278" spans="7:11" ht="14.25">
+    <row r="278" spans="7:11" x14ac:dyDescent="0.25">
       <c r="G278" s="1" t="s">
         <v>354</v>
       </c>
@@ -10369,7 +10371,7 @@
       </c>
       <c r="K278" s="2"/>
     </row>
-    <row r="279" spans="7:11" ht="14.25">
+    <row r="279" spans="7:11" x14ac:dyDescent="0.25">
       <c r="G279" s="1" t="s">
         <v>353</v>
       </c>
@@ -10385,7 +10387,7 @@
       </c>
       <c r="K279" s="2"/>
     </row>
-    <row r="280" spans="7:11" ht="14.25">
+    <row r="280" spans="7:11" x14ac:dyDescent="0.25">
       <c r="G280" s="1" t="s">
         <v>352</v>
       </c>
@@ -10401,7 +10403,7 @@
       </c>
       <c r="K280" s="2"/>
     </row>
-    <row r="281" spans="7:11" ht="14.25">
+    <row r="281" spans="7:11" x14ac:dyDescent="0.25">
       <c r="G281" s="1" t="s">
         <v>351</v>
       </c>
@@ -10417,7 +10419,7 @@
       </c>
       <c r="K281" s="2"/>
     </row>
-    <row r="282" spans="7:11" ht="14.25">
+    <row r="282" spans="7:11" x14ac:dyDescent="0.25">
       <c r="G282" s="1" t="s">
         <v>350</v>
       </c>
@@ -10433,7 +10435,7 @@
       </c>
       <c r="K282" s="2"/>
     </row>
-    <row r="283" spans="7:11" ht="14.25">
+    <row r="283" spans="7:11" ht="28.8" x14ac:dyDescent="0.25">
       <c r="G283" s="1" t="s">
         <v>349</v>
       </c>
@@ -10449,7 +10451,7 @@
       </c>
       <c r="K283" s="2"/>
     </row>
-    <row r="284" spans="7:11" ht="14.25">
+    <row r="284" spans="7:11" ht="28.8" x14ac:dyDescent="0.25">
       <c r="G284" s="1" t="s">
         <v>348</v>
       </c>
@@ -10465,7 +10467,7 @@
       </c>
       <c r="K284" s="2"/>
     </row>
-    <row r="285" spans="7:11" ht="14.25">
+    <row r="285" spans="7:11" ht="28.8" x14ac:dyDescent="0.25">
       <c r="G285" s="1" t="s">
         <v>347</v>
       </c>
@@ -10481,7 +10483,7 @@
       </c>
       <c r="K285" s="2"/>
     </row>
-    <row r="286" spans="7:11" ht="14.25">
+    <row r="286" spans="7:11" x14ac:dyDescent="0.25">
       <c r="G286" s="1" t="s">
         <v>346</v>
       </c>
@@ -10497,7 +10499,7 @@
       </c>
       <c r="K286" s="2"/>
     </row>
-    <row r="287" spans="7:11" ht="14.25">
+    <row r="287" spans="7:11" x14ac:dyDescent="0.25">
       <c r="G287" s="1" t="s">
         <v>345</v>
       </c>
@@ -10513,7 +10515,7 @@
       </c>
       <c r="K287" s="2"/>
     </row>
-    <row r="288" spans="7:11" ht="28.5">
+    <row r="288" spans="7:11" ht="28.8" x14ac:dyDescent="0.25">
       <c r="G288" s="1" t="s">
         <v>344</v>
       </c>
@@ -10529,7 +10531,7 @@
       </c>
       <c r="K288" s="2"/>
     </row>
-    <row r="289" spans="7:11" ht="14.25">
+    <row r="289" spans="7:11" x14ac:dyDescent="0.25">
       <c r="G289" s="1" t="s">
         <v>343</v>
       </c>
@@ -10545,7 +10547,7 @@
       </c>
       <c r="K289" s="2"/>
     </row>
-    <row r="290" spans="7:11" ht="14.25">
+    <row r="290" spans="7:11" x14ac:dyDescent="0.25">
       <c r="G290" s="1" t="s">
         <v>342</v>
       </c>
@@ -10561,7 +10563,7 @@
       </c>
       <c r="K290" s="2"/>
     </row>
-    <row r="291" spans="7:11" ht="28.5">
+    <row r="291" spans="7:11" ht="28.8" x14ac:dyDescent="0.25">
       <c r="G291" s="1" t="s">
         <v>341</v>
       </c>
@@ -10577,7 +10579,7 @@
       </c>
       <c r="K291" s="2"/>
     </row>
-    <row r="292" spans="7:11" ht="14.25">
+    <row r="292" spans="7:11" x14ac:dyDescent="0.25">
       <c r="G292" s="1" t="s">
         <v>340</v>
       </c>
@@ -10593,7 +10595,7 @@
       </c>
       <c r="K292" s="2"/>
     </row>
-    <row r="293" spans="7:11" ht="14.25">
+    <row r="293" spans="7:11" x14ac:dyDescent="0.25">
       <c r="G293" s="1" t="s">
         <v>339</v>
       </c>
@@ -10609,7 +10611,7 @@
       </c>
       <c r="K293" s="2"/>
     </row>
-    <row r="294" spans="7:11" ht="28.5">
+    <row r="294" spans="7:11" ht="28.8" x14ac:dyDescent="0.25">
       <c r="G294" s="1" t="s">
         <v>338</v>
       </c>
@@ -10625,7 +10627,7 @@
       </c>
       <c r="K294" s="2"/>
     </row>
-    <row r="295" spans="7:11" ht="28.5">
+    <row r="295" spans="7:11" ht="28.8" x14ac:dyDescent="0.25">
       <c r="G295" s="1" t="s">
         <v>337</v>
       </c>
@@ -10641,7 +10643,7 @@
       </c>
       <c r="K295" s="2"/>
     </row>
-    <row r="296" spans="7:11" ht="14.25">
+    <row r="296" spans="7:11" ht="28.8" x14ac:dyDescent="0.25">
       <c r="G296" s="1" t="s">
         <v>336</v>
       </c>
@@ -10657,7 +10659,7 @@
       </c>
       <c r="K296" s="2"/>
     </row>
-    <row r="297" spans="7:11" ht="14.25">
+    <row r="297" spans="7:11" ht="28.8" x14ac:dyDescent="0.25">
       <c r="G297" s="1" t="s">
         <v>335</v>
       </c>
@@ -10673,7 +10675,7 @@
       </c>
       <c r="K297" s="2"/>
     </row>
-    <row r="298" spans="7:11" ht="28.5">
+    <row r="298" spans="7:11" ht="28.8" x14ac:dyDescent="0.25">
       <c r="G298" s="1" t="s">
         <v>334</v>
       </c>
@@ -10689,7 +10691,7 @@
       </c>
       <c r="K298" s="2"/>
     </row>
-    <row r="299" spans="7:11" ht="14.25">
+    <row r="299" spans="7:11" ht="28.8" x14ac:dyDescent="0.25">
       <c r="G299" s="1" t="s">
         <v>333</v>
       </c>
@@ -10705,7 +10707,7 @@
       </c>
       <c r="K299" s="2"/>
     </row>
-    <row r="300" spans="7:11" ht="14.25">
+    <row r="300" spans="7:11" x14ac:dyDescent="0.25">
       <c r="G300" s="1" t="s">
         <v>332</v>
       </c>
@@ -10721,7 +10723,7 @@
       </c>
       <c r="K300" s="2"/>
     </row>
-    <row r="301" spans="7:11" ht="14.25">
+    <row r="301" spans="7:11" x14ac:dyDescent="0.25">
       <c r="G301" s="1" t="s">
         <v>331</v>
       </c>
@@ -10737,7 +10739,7 @@
       </c>
       <c r="K301" s="2"/>
     </row>
-    <row r="302" spans="7:11" ht="28.5">
+    <row r="302" spans="7:11" ht="28.8" x14ac:dyDescent="0.25">
       <c r="G302" s="1" t="s">
         <v>330</v>
       </c>
@@ -10753,7 +10755,7 @@
       </c>
       <c r="K302" s="2"/>
     </row>
-    <row r="303" spans="7:11" ht="14.25">
+    <row r="303" spans="7:11" x14ac:dyDescent="0.25">
       <c r="G303" s="1" t="s">
         <v>329</v>
       </c>
@@ -10769,7 +10771,7 @@
       </c>
       <c r="K303" s="2"/>
     </row>
-    <row r="304" spans="7:11" ht="14.25">
+    <row r="304" spans="7:11" x14ac:dyDescent="0.25">
       <c r="G304" s="1" t="s">
         <v>328</v>
       </c>
@@ -10785,7 +10787,7 @@
       </c>
       <c r="K304" s="2"/>
     </row>
-    <row r="305" spans="7:11" ht="14.25">
+    <row r="305" spans="7:11" x14ac:dyDescent="0.25">
       <c r="G305" s="1" t="s">
         <v>327</v>
       </c>
@@ -10801,7 +10803,7 @@
       </c>
       <c r="K305" s="2"/>
     </row>
-    <row r="306" spans="7:11" ht="14.25">
+    <row r="306" spans="7:11" x14ac:dyDescent="0.25">
       <c r="G306" s="1" t="s">
         <v>326</v>
       </c>
@@ -10817,7 +10819,7 @@
       </c>
       <c r="K306" s="2"/>
     </row>
-    <row r="307" spans="7:11" ht="14.25">
+    <row r="307" spans="7:11" x14ac:dyDescent="0.25">
       <c r="G307" s="1" t="s">
         <v>325</v>
       </c>
@@ -10833,7 +10835,7 @@
       </c>
       <c r="K307" s="2"/>
     </row>
-    <row r="308" spans="7:11" ht="14.25">
+    <row r="308" spans="7:11" x14ac:dyDescent="0.25">
       <c r="G308" s="1" t="s">
         <v>324</v>
       </c>
@@ -10849,7 +10851,7 @@
       </c>
       <c r="K308" s="2"/>
     </row>
-    <row r="309" spans="7:11" ht="14.25">
+    <row r="309" spans="7:11" ht="28.8" x14ac:dyDescent="0.25">
       <c r="G309" s="1" t="s">
         <v>323</v>
       </c>
@@ -10865,7 +10867,7 @@
       </c>
       <c r="K309" s="2"/>
     </row>
-    <row r="310" spans="7:11" ht="14.25">
+    <row r="310" spans="7:11" x14ac:dyDescent="0.25">
       <c r="G310" s="1" t="s">
         <v>322</v>
       </c>
@@ -10881,7 +10883,7 @@
       </c>
       <c r="K310" s="2"/>
     </row>
-    <row r="311" spans="7:11" ht="28.5">
+    <row r="311" spans="7:11" ht="28.8" x14ac:dyDescent="0.25">
       <c r="G311" s="1" t="s">
         <v>321</v>
       </c>
@@ -10897,7 +10899,7 @@
       </c>
       <c r="K311" s="2"/>
     </row>
-    <row r="312" spans="7:11" ht="14.25">
+    <row r="312" spans="7:11" x14ac:dyDescent="0.25">
       <c r="G312" s="1" t="s">
         <v>320</v>
       </c>
@@ -10913,7 +10915,7 @@
       </c>
       <c r="K312" s="2"/>
     </row>
-    <row r="313" spans="7:11" ht="14.25">
+    <row r="313" spans="7:11" x14ac:dyDescent="0.25">
       <c r="G313" s="1" t="s">
         <v>319</v>
       </c>
@@ -10929,7 +10931,7 @@
       </c>
       <c r="K313" s="2"/>
     </row>
-    <row r="314" spans="7:11" ht="14.25">
+    <row r="314" spans="7:11" ht="28.8" x14ac:dyDescent="0.25">
       <c r="G314" s="1" t="s">
         <v>318</v>
       </c>
@@ -10945,7 +10947,7 @@
       </c>
       <c r="K314" s="2"/>
     </row>
-    <row r="315" spans="7:11" ht="28.5">
+    <row r="315" spans="7:11" ht="28.8" x14ac:dyDescent="0.25">
       <c r="G315" s="1" t="s">
         <v>317</v>
       </c>
@@ -10961,7 +10963,7 @@
       </c>
       <c r="K315" s="2"/>
     </row>
-    <row r="316" spans="7:11" ht="14.25">
+    <row r="316" spans="7:11" x14ac:dyDescent="0.25">
       <c r="G316" s="1" t="s">
         <v>316</v>
       </c>
@@ -10977,7 +10979,7 @@
       </c>
       <c r="K316" s="2"/>
     </row>
-    <row r="317" spans="7:11" ht="14.25">
+    <row r="317" spans="7:11" ht="28.8" x14ac:dyDescent="0.25">
       <c r="G317" s="1" t="s">
         <v>315</v>
       </c>
@@ -10993,7 +10995,7 @@
       </c>
       <c r="K317" s="2"/>
     </row>
-    <row r="318" spans="7:11" ht="14.25">
+    <row r="318" spans="7:11" x14ac:dyDescent="0.25">
       <c r="G318" s="1" t="s">
         <v>314</v>
       </c>
@@ -11009,7 +11011,7 @@
       </c>
       <c r="K318" s="2"/>
     </row>
-    <row r="319" spans="7:11" ht="14.25">
+    <row r="319" spans="7:11" x14ac:dyDescent="0.25">
       <c r="G319" s="1" t="s">
         <v>313</v>
       </c>
@@ -11025,7 +11027,7 @@
       </c>
       <c r="K319" s="2"/>
     </row>
-    <row r="320" spans="7:11" ht="28.5">
+    <row r="320" spans="7:11" ht="28.8" x14ac:dyDescent="0.25">
       <c r="G320" s="1" t="s">
         <v>311</v>
       </c>
@@ -11041,7 +11043,7 @@
       </c>
       <c r="K320" s="2"/>
     </row>
-    <row r="321" spans="7:11" ht="14.25">
+    <row r="321" spans="7:11" x14ac:dyDescent="0.25">
       <c r="G321" s="1" t="s">
         <v>309</v>
       </c>
@@ -11057,7 +11059,7 @@
       </c>
       <c r="K321" s="2"/>
     </row>
-    <row r="322" spans="7:11" ht="14.25">
+    <row r="322" spans="7:11" x14ac:dyDescent="0.25">
       <c r="G322" s="1" t="s">
         <v>308</v>
       </c>
@@ -11073,7 +11075,7 @@
       </c>
       <c r="K322" s="2"/>
     </row>
-    <row r="323" spans="7:11" ht="14.25">
+    <row r="323" spans="7:11" ht="28.8" x14ac:dyDescent="0.25">
       <c r="G323" s="1" t="s">
         <v>307</v>
       </c>
@@ -11089,7 +11091,7 @@
       </c>
       <c r="K323" s="2"/>
     </row>
-    <row r="324" spans="7:11" ht="14.25">
+    <row r="324" spans="7:11" ht="28.8" x14ac:dyDescent="0.25">
       <c r="G324" s="1" t="s">
         <v>306</v>
       </c>
@@ -11105,7 +11107,7 @@
       </c>
       <c r="K324" s="2"/>
     </row>
-    <row r="325" spans="7:11" ht="14.25">
+    <row r="325" spans="7:11" ht="28.8" x14ac:dyDescent="0.25">
       <c r="G325" s="1" t="s">
         <v>305</v>
       </c>
@@ -11121,7 +11123,7 @@
       </c>
       <c r="K325" s="2"/>
     </row>
-    <row r="326" spans="7:11" ht="14.25">
+    <row r="326" spans="7:11" ht="28.8" x14ac:dyDescent="0.25">
       <c r="G326" s="1" t="s">
         <v>304</v>
       </c>
@@ -11137,7 +11139,7 @@
       </c>
       <c r="K326" s="2"/>
     </row>
-    <row r="327" spans="7:11" ht="28.5">
+    <row r="327" spans="7:11" ht="28.8" x14ac:dyDescent="0.25">
       <c r="G327" s="1" t="s">
         <v>303</v>
       </c>
@@ -11153,7 +11155,7 @@
       </c>
       <c r="K327" s="2"/>
     </row>
-    <row r="328" spans="7:11" ht="14.25">
+    <row r="328" spans="7:11" x14ac:dyDescent="0.25">
       <c r="G328" s="1" t="s">
         <v>302</v>
       </c>
@@ -11169,7 +11171,7 @@
       </c>
       <c r="K328" s="2"/>
     </row>
-    <row r="329" spans="7:11" ht="14.25">
+    <row r="329" spans="7:11" x14ac:dyDescent="0.25">
       <c r="G329" s="1" t="s">
         <v>301</v>
       </c>
@@ -11185,7 +11187,7 @@
       </c>
       <c r="K329" s="2"/>
     </row>
-    <row r="330" spans="7:11" ht="14.25">
+    <row r="330" spans="7:11" x14ac:dyDescent="0.25">
       <c r="G330" s="1" t="s">
         <v>300</v>
       </c>
@@ -11201,7 +11203,7 @@
       </c>
       <c r="K330" s="2"/>
     </row>
-    <row r="331" spans="7:11" ht="14.25">
+    <row r="331" spans="7:11" x14ac:dyDescent="0.25">
       <c r="G331" s="1" t="s">
         <v>299</v>
       </c>
@@ -11217,7 +11219,7 @@
       </c>
       <c r="K331" s="2"/>
     </row>
-    <row r="332" spans="7:11" ht="14.25">
+    <row r="332" spans="7:11" x14ac:dyDescent="0.25">
       <c r="G332" s="1" t="s">
         <v>298</v>
       </c>
@@ -11233,7 +11235,7 @@
       </c>
       <c r="K332" s="2"/>
     </row>
-    <row r="333" spans="7:11" ht="14.25">
+    <row r="333" spans="7:11" x14ac:dyDescent="0.25">
       <c r="G333" s="1" t="s">
         <v>297</v>
       </c>
@@ -11249,7 +11251,7 @@
       </c>
       <c r="K333" s="2"/>
     </row>
-    <row r="334" spans="7:11" ht="14.25">
+    <row r="334" spans="7:11" x14ac:dyDescent="0.25">
       <c r="G334" s="1" t="s">
         <v>296</v>
       </c>
@@ -11265,7 +11267,7 @@
       </c>
       <c r="K334" s="2"/>
     </row>
-    <row r="335" spans="7:11" ht="14.25">
+    <row r="335" spans="7:11" x14ac:dyDescent="0.25">
       <c r="G335" s="1" t="s">
         <v>295</v>
       </c>
@@ -11281,7 +11283,7 @@
       </c>
       <c r="K335" s="2"/>
     </row>
-    <row r="336" spans="7:11" ht="14.25">
+    <row r="336" spans="7:11" x14ac:dyDescent="0.25">
       <c r="G336" s="1" t="s">
         <v>294</v>
       </c>
@@ -11297,7 +11299,7 @@
       </c>
       <c r="K336" s="2"/>
     </row>
-    <row r="337" spans="7:11" ht="14.25">
+    <row r="337" spans="7:11" ht="28.8" x14ac:dyDescent="0.25">
       <c r="G337" s="1" t="s">
         <v>293</v>
       </c>
@@ -11313,7 +11315,7 @@
       </c>
       <c r="K337" s="2"/>
     </row>
-    <row r="338" spans="7:11" ht="14.25">
+    <row r="338" spans="7:11" x14ac:dyDescent="0.25">
       <c r="G338" s="1" t="s">
         <v>292</v>
       </c>
@@ -11329,7 +11331,7 @@
       </c>
       <c r="K338" s="2"/>
     </row>
-    <row r="339" spans="7:11" ht="14.25">
+    <row r="339" spans="7:11" ht="28.8" x14ac:dyDescent="0.25">
       <c r="G339" s="1" t="s">
         <v>291</v>
       </c>
@@ -11345,7 +11347,7 @@
       </c>
       <c r="K339" s="2"/>
     </row>
-    <row r="340" spans="7:11" ht="14.25">
+    <row r="340" spans="7:11" ht="28.8" x14ac:dyDescent="0.25">
       <c r="G340" s="1" t="s">
         <v>290</v>
       </c>
@@ -11361,7 +11363,7 @@
       </c>
       <c r="K340" s="2"/>
     </row>
-    <row r="341" spans="7:11" ht="14.25">
+    <row r="341" spans="7:11" ht="28.8" x14ac:dyDescent="0.25">
       <c r="G341" s="1" t="s">
         <v>289</v>
       </c>
@@ -11377,7 +11379,7 @@
       </c>
       <c r="K341" s="2"/>
     </row>
-    <row r="342" spans="7:11" ht="14.25">
+    <row r="342" spans="7:11" x14ac:dyDescent="0.25">
       <c r="G342" s="1" t="s">
         <v>288</v>
       </c>
@@ -11393,7 +11395,7 @@
       </c>
       <c r="K342" s="2"/>
     </row>
-    <row r="343" spans="7:11" ht="28.5">
+    <row r="343" spans="7:11" ht="28.8" x14ac:dyDescent="0.25">
       <c r="G343" s="1" t="s">
         <v>287</v>
       </c>
@@ -11409,7 +11411,7 @@
       </c>
       <c r="K343" s="2"/>
     </row>
-    <row r="344" spans="7:11" ht="14.25">
+    <row r="344" spans="7:11" ht="28.8" x14ac:dyDescent="0.25">
       <c r="G344" s="1" t="s">
         <v>286</v>
       </c>
@@ -11425,7 +11427,7 @@
       </c>
       <c r="K344" s="2"/>
     </row>
-    <row r="345" spans="7:11" ht="28.5">
+    <row r="345" spans="7:11" ht="28.8" x14ac:dyDescent="0.25">
       <c r="G345" s="1" t="s">
         <v>285</v>
       </c>
@@ -11441,7 +11443,7 @@
       </c>
       <c r="K345" s="2"/>
     </row>
-    <row r="346" spans="7:11" ht="28.5">
+    <row r="346" spans="7:11" ht="28.8" x14ac:dyDescent="0.25">
       <c r="G346" s="1" t="s">
         <v>284</v>
       </c>
@@ -11457,7 +11459,7 @@
       </c>
       <c r="K346" s="2"/>
     </row>
-    <row r="347" spans="7:11" ht="14.25">
+    <row r="347" spans="7:11" ht="28.8" x14ac:dyDescent="0.25">
       <c r="G347" s="1" t="s">
         <v>283</v>
       </c>
@@ -11473,7 +11475,7 @@
       </c>
       <c r="K347" s="2"/>
     </row>
-    <row r="348" spans="7:11" ht="28.5">
+    <row r="348" spans="7:11" ht="28.8" x14ac:dyDescent="0.25">
       <c r="G348" s="1" t="s">
         <v>282</v>
       </c>
@@ -11489,7 +11491,7 @@
       </c>
       <c r="K348" s="2"/>
     </row>
-    <row r="349" spans="7:11" ht="28.5">
+    <row r="349" spans="7:11" ht="28.8" x14ac:dyDescent="0.25">
       <c r="G349" s="1" t="s">
         <v>281</v>
       </c>
@@ -11505,7 +11507,7 @@
       </c>
       <c r="K349" s="2"/>
     </row>
-    <row r="350" spans="7:11" ht="14.25">
+    <row r="350" spans="7:11" ht="28.8" x14ac:dyDescent="0.25">
       <c r="G350" s="1" t="s">
         <v>280</v>
       </c>
@@ -11521,7 +11523,7 @@
       </c>
       <c r="K350" s="2"/>
     </row>
-    <row r="351" spans="7:11" ht="28.5">
+    <row r="351" spans="7:11" ht="28.8" x14ac:dyDescent="0.25">
       <c r="G351" s="1" t="s">
         <v>279</v>
       </c>
@@ -11537,7 +11539,7 @@
       </c>
       <c r="K351" s="2"/>
     </row>
-    <row r="352" spans="7:11" ht="28.5">
+    <row r="352" spans="7:11" ht="28.8" x14ac:dyDescent="0.25">
       <c r="G352" s="1" t="s">
         <v>278</v>
       </c>
@@ -11553,7 +11555,7 @@
       </c>
       <c r="K352" s="2"/>
     </row>
-    <row r="353" spans="7:11" ht="28.5">
+    <row r="353" spans="7:11" ht="28.8" x14ac:dyDescent="0.25">
       <c r="G353" s="1" t="s">
         <v>277</v>
       </c>
@@ -11569,7 +11571,7 @@
       </c>
       <c r="K353" s="2"/>
     </row>
-    <row r="354" spans="7:11" ht="28.5">
+    <row r="354" spans="7:11" ht="28.8" x14ac:dyDescent="0.25">
       <c r="G354" s="1" t="s">
         <v>276</v>
       </c>
@@ -11585,7 +11587,7 @@
       </c>
       <c r="K354" s="2"/>
     </row>
-    <row r="355" spans="7:11" ht="28.5">
+    <row r="355" spans="7:11" ht="28.8" x14ac:dyDescent="0.25">
       <c r="G355" s="1" t="s">
         <v>275</v>
       </c>
@@ -11601,7 +11603,7 @@
       </c>
       <c r="K355" s="2"/>
     </row>
-    <row r="356" spans="7:11" ht="28.5">
+    <row r="356" spans="7:11" ht="28.8" x14ac:dyDescent="0.25">
       <c r="G356" s="1" t="s">
         <v>274</v>
       </c>
@@ -11617,7 +11619,7 @@
       </c>
       <c r="K356" s="2"/>
     </row>
-    <row r="357" spans="7:11" ht="28.5">
+    <row r="357" spans="7:11" ht="28.8" x14ac:dyDescent="0.25">
       <c r="G357" s="1" t="s">
         <v>273</v>
       </c>
@@ -11633,7 +11635,7 @@
       </c>
       <c r="K357" s="2"/>
     </row>
-    <row r="358" spans="7:11" ht="28.5">
+    <row r="358" spans="7:11" ht="28.8" x14ac:dyDescent="0.25">
       <c r="G358" s="1" t="s">
         <v>272</v>
       </c>
@@ -11649,7 +11651,7 @@
       </c>
       <c r="K358" s="2"/>
     </row>
-    <row r="359" spans="7:11" ht="14.25">
+    <row r="359" spans="7:11" x14ac:dyDescent="0.25">
       <c r="G359" s="1" t="s">
         <v>271</v>
       </c>
@@ -11665,7 +11667,7 @@
       </c>
       <c r="K359" s="2"/>
     </row>
-    <row r="360" spans="7:11" ht="14.25">
+    <row r="360" spans="7:11" x14ac:dyDescent="0.25">
       <c r="G360" s="1" t="s">
         <v>270</v>
       </c>
@@ -11681,7 +11683,7 @@
       </c>
       <c r="K360" s="2"/>
     </row>
-    <row r="361" spans="7:11" ht="14.25">
+    <row r="361" spans="7:11" x14ac:dyDescent="0.25">
       <c r="G361" s="1" t="s">
         <v>269</v>
       </c>
@@ -11697,7 +11699,7 @@
       </c>
       <c r="K361" s="2"/>
     </row>
-    <row r="362" spans="7:11" ht="14.25">
+    <row r="362" spans="7:11" x14ac:dyDescent="0.25">
       <c r="G362" s="1" t="s">
         <v>268</v>
       </c>
@@ -11713,7 +11715,7 @@
       </c>
       <c r="K362" s="2"/>
     </row>
-    <row r="363" spans="7:11" ht="14.25">
+    <row r="363" spans="7:11" x14ac:dyDescent="0.25">
       <c r="G363" s="1" t="s">
         <v>267</v>
       </c>
@@ -11729,7 +11731,7 @@
       </c>
       <c r="K363" s="2"/>
     </row>
-    <row r="364" spans="7:11" ht="14.25">
+    <row r="364" spans="7:11" x14ac:dyDescent="0.25">
       <c r="G364" s="1" t="s">
         <v>266</v>
       </c>
@@ -11745,7 +11747,7 @@
       </c>
       <c r="K364" s="2"/>
     </row>
-    <row r="365" spans="7:11" ht="14.25">
+    <row r="365" spans="7:11" x14ac:dyDescent="0.25">
       <c r="G365" s="1" t="s">
         <v>265</v>
       </c>
@@ -11761,7 +11763,7 @@
       </c>
       <c r="K365" s="2"/>
     </row>
-    <row r="366" spans="7:11" ht="14.25">
+    <row r="366" spans="7:11" x14ac:dyDescent="0.25">
       <c r="G366" s="1" t="s">
         <v>264</v>
       </c>
@@ -11777,7 +11779,7 @@
       </c>
       <c r="K366" s="2"/>
     </row>
-    <row r="367" spans="7:11" ht="14.25">
+    <row r="367" spans="7:11" x14ac:dyDescent="0.25">
       <c r="G367" s="1" t="s">
         <v>263</v>
       </c>
@@ -11793,7 +11795,7 @@
       </c>
       <c r="K367" s="2"/>
     </row>
-    <row r="368" spans="7:11" ht="14.25">
+    <row r="368" spans="7:11" x14ac:dyDescent="0.25">
       <c r="G368" s="1" t="s">
         <v>262</v>
       </c>
@@ -11809,7 +11811,7 @@
       </c>
       <c r="K368" s="2"/>
     </row>
-    <row r="369" spans="7:11" ht="14.25">
+    <row r="369" spans="7:11" x14ac:dyDescent="0.25">
       <c r="G369" s="1" t="s">
         <v>261</v>
       </c>
@@ -11825,7 +11827,7 @@
       </c>
       <c r="K369" s="2"/>
     </row>
-    <row r="370" spans="7:11" ht="14.25">
+    <row r="370" spans="7:11" x14ac:dyDescent="0.25">
       <c r="G370" s="1" t="s">
         <v>260</v>
       </c>
@@ -11841,7 +11843,7 @@
       </c>
       <c r="K370" s="2"/>
     </row>
-    <row r="371" spans="7:11" ht="14.25">
+    <row r="371" spans="7:11" x14ac:dyDescent="0.25">
       <c r="G371" s="1" t="s">
         <v>259</v>
       </c>
@@ -11857,7 +11859,7 @@
       </c>
       <c r="K371" s="2"/>
     </row>
-    <row r="372" spans="7:11" ht="14.25">
+    <row r="372" spans="7:11" x14ac:dyDescent="0.25">
       <c r="G372" s="1" t="s">
         <v>258</v>
       </c>
@@ -11873,7 +11875,7 @@
       </c>
       <c r="K372" s="2"/>
     </row>
-    <row r="373" spans="7:11" ht="14.25">
+    <row r="373" spans="7:11" x14ac:dyDescent="0.25">
       <c r="G373" s="1" t="s">
         <v>257</v>
       </c>
@@ -11889,7 +11891,7 @@
       </c>
       <c r="K373" s="2"/>
     </row>
-    <row r="374" spans="7:11" ht="14.25">
+    <row r="374" spans="7:11" x14ac:dyDescent="0.25">
       <c r="G374" s="1" t="s">
         <v>256</v>
       </c>
@@ -11905,7 +11907,7 @@
       </c>
       <c r="K374" s="2"/>
     </row>
-    <row r="375" spans="7:11" ht="14.25">
+    <row r="375" spans="7:11" x14ac:dyDescent="0.25">
       <c r="G375" s="1" t="s">
         <v>255</v>
       </c>
@@ -11921,7 +11923,7 @@
       </c>
       <c r="K375" s="2"/>
     </row>
-    <row r="376" spans="7:11" ht="14.25">
+    <row r="376" spans="7:11" x14ac:dyDescent="0.25">
       <c r="G376" s="1" t="s">
         <v>254</v>
       </c>
@@ -11937,7 +11939,7 @@
       </c>
       <c r="K376" s="2"/>
     </row>
-    <row r="377" spans="7:11" ht="14.25">
+    <row r="377" spans="7:11" x14ac:dyDescent="0.25">
       <c r="G377" s="1" t="s">
         <v>253</v>
       </c>
@@ -11953,7 +11955,7 @@
       </c>
       <c r="K377" s="2"/>
     </row>
-    <row r="378" spans="7:11" ht="14.25">
+    <row r="378" spans="7:11" x14ac:dyDescent="0.25">
       <c r="G378" s="1" t="s">
         <v>252</v>
       </c>
@@ -11969,7 +11971,7 @@
       </c>
       <c r="K378" s="2"/>
     </row>
-    <row r="379" spans="7:11" ht="14.25">
+    <row r="379" spans="7:11" ht="28.8" x14ac:dyDescent="0.25">
       <c r="G379" s="1" t="s">
         <v>251</v>
       </c>
@@ -11985,7 +11987,7 @@
       </c>
       <c r="K379" s="2"/>
     </row>
-    <row r="380" spans="7:11" ht="14.25">
+    <row r="380" spans="7:11" x14ac:dyDescent="0.25">
       <c r="G380" s="1" t="s">
         <v>250</v>
       </c>
@@ -12001,7 +12003,7 @@
       </c>
       <c r="K380" s="2"/>
     </row>
-    <row r="381" spans="7:11" ht="14.25">
+    <row r="381" spans="7:11" x14ac:dyDescent="0.25">
       <c r="G381" s="1" t="s">
         <v>249</v>
       </c>
@@ -12017,7 +12019,7 @@
       </c>
       <c r="K381" s="2"/>
     </row>
-    <row r="382" spans="7:11" ht="14.25">
+    <row r="382" spans="7:11" x14ac:dyDescent="0.25">
       <c r="G382" s="1" t="s">
         <v>248</v>
       </c>
@@ -12033,7 +12035,7 @@
       </c>
       <c r="K382" s="2"/>
     </row>
-    <row r="383" spans="7:11" ht="14.25">
+    <row r="383" spans="7:11" x14ac:dyDescent="0.25">
       <c r="G383" s="1" t="s">
         <v>247</v>
       </c>
@@ -12049,7 +12051,7 @@
       </c>
       <c r="K383" s="2"/>
     </row>
-    <row r="384" spans="7:11" ht="14.25">
+    <row r="384" spans="7:11" x14ac:dyDescent="0.25">
       <c r="G384" s="1" t="s">
         <v>246</v>
       </c>
@@ -12065,7 +12067,7 @@
       </c>
       <c r="K384" s="2"/>
     </row>
-    <row r="385" spans="7:11" ht="14.25">
+    <row r="385" spans="7:11" x14ac:dyDescent="0.25">
       <c r="G385" s="1" t="s">
         <v>245</v>
       </c>
@@ -12081,7 +12083,7 @@
       </c>
       <c r="K385" s="2"/>
     </row>
-    <row r="386" spans="7:11" ht="14.25">
+    <row r="386" spans="7:11" x14ac:dyDescent="0.25">
       <c r="G386" s="1" t="s">
         <v>244</v>
       </c>
@@ -12097,7 +12099,7 @@
       </c>
       <c r="K386" s="2"/>
     </row>
-    <row r="387" spans="7:11" ht="28.5">
+    <row r="387" spans="7:11" ht="28.8" x14ac:dyDescent="0.25">
       <c r="G387" s="1" t="s">
         <v>243</v>
       </c>
@@ -12113,7 +12115,7 @@
       </c>
       <c r="K387" s="2"/>
     </row>
-    <row r="388" spans="7:11" ht="28.5">
+    <row r="388" spans="7:11" ht="28.8" x14ac:dyDescent="0.25">
       <c r="G388" s="1" t="s">
         <v>242</v>
       </c>
@@ -12129,7 +12131,7 @@
       </c>
       <c r="K388" s="2"/>
     </row>
-    <row r="389" spans="7:11" ht="14.25">
+    <row r="389" spans="7:11" ht="28.8" x14ac:dyDescent="0.25">
       <c r="G389" s="1" t="s">
         <v>241</v>
       </c>
@@ -12145,7 +12147,7 @@
       </c>
       <c r="K389" s="2"/>
     </row>
-    <row r="390" spans="7:11" ht="14.25">
+    <row r="390" spans="7:11" x14ac:dyDescent="0.25">
       <c r="G390" s="1" t="s">
         <v>240</v>
       </c>
@@ -12161,7 +12163,7 @@
       </c>
       <c r="K390" s="2"/>
     </row>
-    <row r="391" spans="7:11" ht="14.25">
+    <row r="391" spans="7:11" ht="28.8" x14ac:dyDescent="0.25">
       <c r="G391" s="1" t="s">
         <v>239</v>
       </c>
@@ -12177,7 +12179,7 @@
       </c>
       <c r="K391" s="2"/>
     </row>
-    <row r="392" spans="7:11" ht="28.5">
+    <row r="392" spans="7:11" ht="28.8" x14ac:dyDescent="0.25">
       <c r="G392" s="1" t="s">
         <v>238</v>
       </c>
@@ -12193,7 +12195,7 @@
       </c>
       <c r="K392" s="2"/>
     </row>
-    <row r="393" spans="7:11" ht="14.25">
+    <row r="393" spans="7:11" ht="28.8" x14ac:dyDescent="0.25">
       <c r="G393" s="1" t="s">
         <v>237</v>
       </c>
@@ -12209,7 +12211,7 @@
       </c>
       <c r="K393" s="2"/>
     </row>
-    <row r="394" spans="7:11" ht="14.25">
+    <row r="394" spans="7:11" ht="28.8" x14ac:dyDescent="0.25">
       <c r="G394" s="1" t="s">
         <v>236</v>
       </c>
@@ -12225,7 +12227,7 @@
       </c>
       <c r="K394" s="2"/>
     </row>
-    <row r="395" spans="7:11" ht="28.5">
+    <row r="395" spans="7:11" ht="28.8" x14ac:dyDescent="0.25">
       <c r="G395" s="1" t="s">
         <v>235</v>
       </c>
@@ -12241,7 +12243,7 @@
       </c>
       <c r="K395" s="2"/>
     </row>
-    <row r="396" spans="7:11" ht="14.25">
+    <row r="396" spans="7:11" ht="28.8" x14ac:dyDescent="0.25">
       <c r="G396" s="1" t="s">
         <v>234</v>
       </c>
@@ -12257,7 +12259,7 @@
       </c>
       <c r="K396" s="2"/>
     </row>
-    <row r="397" spans="7:11" ht="14.25">
+    <row r="397" spans="7:11" ht="28.8" x14ac:dyDescent="0.25">
       <c r="G397" s="1" t="s">
         <v>233</v>
       </c>
@@ -12273,7 +12275,7 @@
       </c>
       <c r="K397" s="2"/>
     </row>
-    <row r="398" spans="7:11" ht="28.5">
+    <row r="398" spans="7:11" ht="28.8" x14ac:dyDescent="0.25">
       <c r="G398" s="1" t="s">
         <v>232</v>
       </c>
@@ -12289,7 +12291,7 @@
       </c>
       <c r="K398" s="2"/>
     </row>
-    <row r="399" spans="7:11" ht="28.5">
+    <row r="399" spans="7:11" ht="28.8" x14ac:dyDescent="0.25">
       <c r="G399" s="1" t="s">
         <v>231</v>
       </c>
@@ -12305,7 +12307,7 @@
       </c>
       <c r="K399" s="2"/>
     </row>
-    <row r="400" spans="7:11" ht="14.25">
+    <row r="400" spans="7:11" ht="28.8" x14ac:dyDescent="0.25">
       <c r="G400" s="1" t="s">
         <v>230</v>
       </c>
@@ -12321,7 +12323,7 @@
       </c>
       <c r="K400" s="2"/>
     </row>
-    <row r="401" spans="7:11" ht="28.5">
+    <row r="401" spans="7:11" ht="28.8" x14ac:dyDescent="0.25">
       <c r="G401" s="1" t="s">
         <v>229</v>
       </c>
@@ -12337,7 +12339,7 @@
       </c>
       <c r="K401" s="2"/>
     </row>
-    <row r="402" spans="7:11" ht="28.5">
+    <row r="402" spans="7:11" ht="28.8" x14ac:dyDescent="0.25">
       <c r="G402" s="1" t="s">
         <v>228</v>
       </c>
@@ -12353,7 +12355,7 @@
       </c>
       <c r="K402" s="2"/>
     </row>
-    <row r="403" spans="7:11" ht="14.25">
+    <row r="403" spans="7:11" ht="28.8" x14ac:dyDescent="0.25">
       <c r="G403" s="1" t="s">
         <v>227</v>
       </c>
@@ -12369,7 +12371,7 @@
       </c>
       <c r="K403" s="2"/>
     </row>
-    <row r="404" spans="7:11" ht="14.25">
+    <row r="404" spans="7:11" ht="28.8" x14ac:dyDescent="0.25">
       <c r="G404" s="1" t="s">
         <v>226</v>
       </c>
@@ -12385,7 +12387,7 @@
       </c>
       <c r="K404" s="2"/>
     </row>
-    <row r="405" spans="7:11" ht="14.25">
+    <row r="405" spans="7:11" ht="28.8" x14ac:dyDescent="0.25">
       <c r="G405" s="1" t="s">
         <v>225</v>
       </c>
@@ -12401,7 +12403,7 @@
       </c>
       <c r="K405" s="2"/>
     </row>
-    <row r="406" spans="7:11" ht="28.5">
+    <row r="406" spans="7:11" ht="28.8" x14ac:dyDescent="0.25">
       <c r="G406" s="1" t="s">
         <v>224</v>
       </c>
@@ -12417,7 +12419,7 @@
       </c>
       <c r="K406" s="2"/>
     </row>
-    <row r="407" spans="7:11" ht="14.25">
+    <row r="407" spans="7:11" x14ac:dyDescent="0.25">
       <c r="G407" s="1" t="s">
         <v>223</v>
       </c>
@@ -12433,7 +12435,7 @@
       </c>
       <c r="K407" s="2"/>
     </row>
-    <row r="408" spans="7:11" ht="14.25">
+    <row r="408" spans="7:11" ht="28.8" x14ac:dyDescent="0.25">
       <c r="G408" s="1" t="s">
         <v>222</v>
       </c>
@@ -12449,7 +12451,7 @@
       </c>
       <c r="K408" s="2"/>
     </row>
-    <row r="409" spans="7:11" ht="14.25">
+    <row r="409" spans="7:11" ht="28.8" x14ac:dyDescent="0.25">
       <c r="G409" s="1" t="s">
         <v>221</v>
       </c>
@@ -12465,7 +12467,7 @@
       </c>
       <c r="K409" s="2"/>
     </row>
-    <row r="410" spans="7:11" ht="14.25">
+    <row r="410" spans="7:11" ht="28.8" x14ac:dyDescent="0.25">
       <c r="G410" s="1" t="s">
         <v>220</v>
       </c>
@@ -12481,7 +12483,7 @@
       </c>
       <c r="K410" s="2"/>
     </row>
-    <row r="411" spans="7:11" ht="14.25">
+    <row r="411" spans="7:11" ht="28.8" x14ac:dyDescent="0.25">
       <c r="G411" s="1" t="s">
         <v>219</v>
       </c>
@@ -12497,7 +12499,7 @@
       </c>
       <c r="K411" s="2"/>
     </row>
-    <row r="412" spans="7:11" ht="14.25">
+    <row r="412" spans="7:11" ht="28.8" x14ac:dyDescent="0.25">
       <c r="G412" s="1" t="s">
         <v>218</v>
       </c>
@@ -12513,7 +12515,7 @@
       </c>
       <c r="K412" s="2"/>
     </row>
-    <row r="413" spans="7:11" ht="14.25">
+    <row r="413" spans="7:11" ht="28.8" x14ac:dyDescent="0.25">
       <c r="G413" s="1" t="s">
         <v>217</v>
       </c>
@@ -12529,7 +12531,7 @@
       </c>
       <c r="K413" s="2"/>
     </row>
-    <row r="414" spans="7:11" ht="14.25">
+    <row r="414" spans="7:11" ht="28.8" x14ac:dyDescent="0.25">
       <c r="G414" s="1" t="s">
         <v>216</v>
       </c>
@@ -12545,7 +12547,7 @@
       </c>
       <c r="K414" s="2"/>
     </row>
-    <row r="415" spans="7:11" ht="28.5">
+    <row r="415" spans="7:11" ht="28.8" x14ac:dyDescent="0.25">
       <c r="G415" s="1" t="s">
         <v>215</v>
       </c>
@@ -12561,7 +12563,7 @@
       </c>
       <c r="K415" s="2"/>
     </row>
-    <row r="416" spans="7:11" ht="14.25">
+    <row r="416" spans="7:11" x14ac:dyDescent="0.25">
       <c r="G416" s="1" t="s">
         <v>214</v>
       </c>
@@ -12577,7 +12579,7 @@
       </c>
       <c r="K416" s="2"/>
     </row>
-    <row r="417" spans="7:11" ht="14.25">
+    <row r="417" spans="7:11" ht="28.8" x14ac:dyDescent="0.25">
       <c r="G417" s="1" t="s">
         <v>213</v>
       </c>
@@ -12593,7 +12595,7 @@
       </c>
       <c r="K417" s="2"/>
     </row>
-    <row r="418" spans="7:11" ht="28.5">
+    <row r="418" spans="7:11" ht="28.8" x14ac:dyDescent="0.25">
       <c r="G418" s="1" t="s">
         <v>212</v>
       </c>
@@ -12609,7 +12611,7 @@
       </c>
       <c r="K418" s="2"/>
     </row>
-    <row r="419" spans="7:11" ht="28.5">
+    <row r="419" spans="7:11" ht="28.8" x14ac:dyDescent="0.25">
       <c r="G419" s="1" t="s">
         <v>211</v>
       </c>
@@ -12625,7 +12627,7 @@
       </c>
       <c r="K419" s="2"/>
     </row>
-    <row r="420" spans="7:11" ht="14.25">
+    <row r="420" spans="7:11" ht="28.8" x14ac:dyDescent="0.25">
       <c r="G420" s="1" t="s">
         <v>210</v>
       </c>
@@ -12641,7 +12643,7 @@
       </c>
       <c r="K420" s="2"/>
     </row>
-    <row r="421" spans="7:11" ht="28.5">
+    <row r="421" spans="7:11" ht="28.8" x14ac:dyDescent="0.25">
       <c r="G421" s="1" t="s">
         <v>209</v>
       </c>
@@ -12657,7 +12659,7 @@
       </c>
       <c r="K421" s="2"/>
     </row>
-    <row r="422" spans="7:11" ht="14.25">
+    <row r="422" spans="7:11" ht="28.8" x14ac:dyDescent="0.25">
       <c r="G422" s="1" t="s">
         <v>208</v>
       </c>
@@ -12673,7 +12675,7 @@
       </c>
       <c r="K422" s="2"/>
     </row>
-    <row r="423" spans="7:11" ht="28.5">
+    <row r="423" spans="7:11" ht="28.8" x14ac:dyDescent="0.25">
       <c r="G423" s="1" t="s">
         <v>207</v>
       </c>
@@ -12689,7 +12691,7 @@
       </c>
       <c r="K423" s="2"/>
     </row>
-    <row r="424" spans="7:11" ht="14.25">
+    <row r="424" spans="7:11" x14ac:dyDescent="0.25">
       <c r="G424" s="1" t="s">
         <v>205</v>
       </c>
@@ -12705,7 +12707,7 @@
       </c>
       <c r="K424" s="2"/>
     </row>
-    <row r="425" spans="7:11" ht="14.25">
+    <row r="425" spans="7:11" x14ac:dyDescent="0.25">
       <c r="G425" s="1" t="s">
         <v>203</v>
       </c>
@@ -12721,7 +12723,7 @@
       </c>
       <c r="K425" s="2"/>
     </row>
-    <row r="426" spans="7:11" ht="14.25">
+    <row r="426" spans="7:11" ht="28.8" x14ac:dyDescent="0.25">
       <c r="G426" s="1" t="s">
         <v>201</v>
       </c>
@@ -12737,7 +12739,7 @@
       </c>
       <c r="K426" s="2"/>
     </row>
-    <row r="427" spans="7:11" ht="14.25">
+    <row r="427" spans="7:11" x14ac:dyDescent="0.25">
       <c r="G427" s="1" t="s">
         <v>199</v>
       </c>
@@ -12753,7 +12755,7 @@
       </c>
       <c r="K427" s="2"/>
     </row>
-    <row r="428" spans="7:11" ht="14.25">
+    <row r="428" spans="7:11" ht="28.8" x14ac:dyDescent="0.25">
       <c r="G428" s="1" t="s">
         <v>197</v>
       </c>
@@ -12769,7 +12771,7 @@
       </c>
       <c r="K428" s="2"/>
     </row>
-    <row r="429" spans="7:11" ht="14.25">
+    <row r="429" spans="7:11" ht="28.8" x14ac:dyDescent="0.25">
       <c r="G429" s="1" t="s">
         <v>195</v>
       </c>
@@ -12785,7 +12787,7 @@
       </c>
       <c r="K429" s="2"/>
     </row>
-    <row r="430" spans="7:11" ht="28.5">
+    <row r="430" spans="7:11" ht="28.8" x14ac:dyDescent="0.25">
       <c r="G430" s="1" t="s">
         <v>194</v>
       </c>
@@ -12801,7 +12803,7 @@
       </c>
       <c r="K430" s="2"/>
     </row>
-    <row r="431" spans="7:11" ht="14.25">
+    <row r="431" spans="7:11" x14ac:dyDescent="0.25">
       <c r="G431" s="1" t="s">
         <v>192</v>
       </c>
@@ -12817,7 +12819,7 @@
       </c>
       <c r="K431" s="2"/>
     </row>
-    <row r="432" spans="7:11" ht="14.25">
+    <row r="432" spans="7:11" x14ac:dyDescent="0.25">
       <c r="G432" s="1" t="s">
         <v>190</v>
       </c>
@@ -12833,7 +12835,7 @@
       </c>
       <c r="K432" s="2"/>
     </row>
-    <row r="433" spans="7:11" ht="14.25">
+    <row r="433" spans="7:11" x14ac:dyDescent="0.25">
       <c r="G433" s="1" t="s">
         <v>188</v>
       </c>
@@ -12849,7 +12851,7 @@
       </c>
       <c r="K433" s="2"/>
     </row>
-    <row r="434" spans="7:11" ht="14.25">
+    <row r="434" spans="7:11" x14ac:dyDescent="0.25">
       <c r="G434" s="1" t="s">
         <v>186</v>
       </c>
@@ -12865,7 +12867,7 @@
       </c>
       <c r="K434" s="2"/>
     </row>
-    <row r="435" spans="7:11" ht="14.25">
+    <row r="435" spans="7:11" x14ac:dyDescent="0.25">
       <c r="G435" s="1" t="s">
         <v>184</v>
       </c>
@@ -12881,7 +12883,7 @@
       </c>
       <c r="K435" s="2"/>
     </row>
-    <row r="436" spans="7:11" ht="14.25">
+    <row r="436" spans="7:11" x14ac:dyDescent="0.25">
       <c r="G436" s="1" t="s">
         <v>182</v>
       </c>
@@ -12897,7 +12899,7 @@
       </c>
       <c r="K436" s="2"/>
     </row>
-    <row r="437" spans="7:11" ht="14.25">
+    <row r="437" spans="7:11" x14ac:dyDescent="0.25">
       <c r="G437" s="1" t="s">
         <v>180</v>
       </c>
@@ -12913,7 +12915,7 @@
       </c>
       <c r="K437" s="2"/>
     </row>
-    <row r="438" spans="7:11" ht="14.25">
+    <row r="438" spans="7:11" x14ac:dyDescent="0.25">
       <c r="G438" s="1" t="s">
         <v>178</v>
       </c>
@@ -12929,7 +12931,7 @@
       </c>
       <c r="K438" s="2"/>
     </row>
-    <row r="439" spans="7:11" ht="14.25">
+    <row r="439" spans="7:11" x14ac:dyDescent="0.25">
       <c r="G439" s="1" t="s">
         <v>176</v>
       </c>
@@ -12945,7 +12947,7 @@
       </c>
       <c r="K439" s="2"/>
     </row>
-    <row r="440" spans="7:11" ht="14.25">
+    <row r="440" spans="7:11" ht="28.8" x14ac:dyDescent="0.25">
       <c r="G440" s="1" t="s">
         <v>174</v>
       </c>
@@ -12961,7 +12963,7 @@
       </c>
       <c r="K440" s="2"/>
     </row>
-    <row r="441" spans="7:11" ht="14.25">
+    <row r="441" spans="7:11" x14ac:dyDescent="0.25">
       <c r="G441" s="1" t="s">
         <v>172</v>
       </c>
@@ -12977,7 +12979,7 @@
       </c>
       <c r="K441" s="2"/>
     </row>
-    <row r="442" spans="7:11" ht="14.25">
+    <row r="442" spans="7:11" ht="28.8" x14ac:dyDescent="0.25">
       <c r="G442" s="1" t="s">
         <v>170</v>
       </c>
@@ -12993,7 +12995,7 @@
       </c>
       <c r="K442" s="2"/>
     </row>
-    <row r="443" spans="7:11" ht="14.25">
+    <row r="443" spans="7:11" ht="28.8" x14ac:dyDescent="0.25">
       <c r="G443" s="1" t="s">
         <v>168</v>
       </c>
@@ -13009,7 +13011,7 @@
       </c>
       <c r="K443" s="2"/>
     </row>
-    <row r="444" spans="7:11" ht="14.25">
+    <row r="444" spans="7:11" ht="28.8" x14ac:dyDescent="0.25">
       <c r="G444" s="1" t="s">
         <v>166</v>
       </c>
@@ -13025,7 +13027,7 @@
       </c>
       <c r="K444" s="2"/>
     </row>
-    <row r="445" spans="7:11" ht="14.25">
+    <row r="445" spans="7:11" x14ac:dyDescent="0.25">
       <c r="G445" s="1" t="s">
         <v>164</v>
       </c>
@@ -13041,7 +13043,7 @@
       </c>
       <c r="K445" s="2"/>
     </row>
-    <row r="446" spans="7:11" ht="14.25">
+    <row r="446" spans="7:11" ht="28.8" x14ac:dyDescent="0.25">
       <c r="G446" s="1" t="s">
         <v>162</v>
       </c>
@@ -13057,7 +13059,7 @@
       </c>
       <c r="K446" s="2"/>
     </row>
-    <row r="447" spans="7:11" ht="14.25">
+    <row r="447" spans="7:11" x14ac:dyDescent="0.25">
       <c r="G447" s="1" t="s">
         <v>160</v>
       </c>
@@ -13073,7 +13075,7 @@
       </c>
       <c r="K447" s="2"/>
     </row>
-    <row r="448" spans="7:11" ht="14.25">
+    <row r="448" spans="7:11" ht="28.8" x14ac:dyDescent="0.25">
       <c r="G448" s="1" t="s">
         <v>158</v>
       </c>
@@ -13089,7 +13091,7 @@
       </c>
       <c r="K448" s="2"/>
     </row>
-    <row r="449" spans="7:11" ht="28.5">
+    <row r="449" spans="7:11" ht="28.8" x14ac:dyDescent="0.25">
       <c r="G449" s="1" t="s">
         <v>156</v>
       </c>
@@ -13105,7 +13107,7 @@
       </c>
       <c r="K449" s="2"/>
     </row>
-    <row r="450" spans="7:11" ht="14.25">
+    <row r="450" spans="7:11" x14ac:dyDescent="0.25">
       <c r="G450" s="1" t="s">
         <v>154</v>
       </c>
@@ -13121,7 +13123,7 @@
       </c>
       <c r="K450" s="2"/>
     </row>
-    <row r="451" spans="7:11" ht="28.5">
+    <row r="451" spans="7:11" ht="28.8" x14ac:dyDescent="0.25">
       <c r="G451" s="1" t="s">
         <v>152</v>
       </c>
@@ -13137,7 +13139,7 @@
       </c>
       <c r="K451" s="2"/>
     </row>
-    <row r="452" spans="7:11" ht="28.5">
+    <row r="452" spans="7:11" ht="28.8" x14ac:dyDescent="0.25">
       <c r="G452" s="1" t="s">
         <v>150</v>
       </c>
@@ -13153,7 +13155,7 @@
       </c>
       <c r="K452" s="2"/>
     </row>
-    <row r="453" spans="7:11" ht="14.25">
+    <row r="453" spans="7:11" x14ac:dyDescent="0.25">
       <c r="G453" s="1" t="s">
         <v>148</v>
       </c>
@@ -13169,7 +13171,7 @@
       </c>
       <c r="K453" s="2"/>
     </row>
-    <row r="454" spans="7:11" ht="28.5">
+    <row r="454" spans="7:11" ht="28.8" x14ac:dyDescent="0.25">
       <c r="G454" s="1" t="s">
         <v>146</v>
       </c>
@@ -13185,7 +13187,7 @@
       </c>
       <c r="K454" s="2"/>
     </row>
-    <row r="455" spans="7:11" ht="28.5">
+    <row r="455" spans="7:11" ht="28.8" x14ac:dyDescent="0.25">
       <c r="G455" s="1" t="s">
         <v>144</v>
       </c>
@@ -13201,7 +13203,7 @@
       </c>
       <c r="K455" s="2"/>
     </row>
-    <row r="456" spans="7:11" ht="28.5">
+    <row r="456" spans="7:11" ht="28.8" x14ac:dyDescent="0.25">
       <c r="G456" s="1" t="s">
         <v>142</v>
       </c>
@@ -13217,7 +13219,7 @@
       </c>
       <c r="K456" s="2"/>
     </row>
-    <row r="457" spans="7:11" ht="28.5">
+    <row r="457" spans="7:11" ht="28.8" x14ac:dyDescent="0.25">
       <c r="G457" s="1" t="s">
         <v>140</v>
       </c>
@@ -13233,7 +13235,7 @@
       </c>
       <c r="K457" s="2"/>
     </row>
-    <row r="458" spans="7:11" ht="28.5">
+    <row r="458" spans="7:11" ht="28.8" x14ac:dyDescent="0.25">
       <c r="G458" s="1" t="s">
         <v>138</v>
       </c>
@@ -13249,7 +13251,7 @@
       </c>
       <c r="K458" s="2"/>
     </row>
-    <row r="459" spans="7:11" ht="28.5">
+    <row r="459" spans="7:11" ht="28.8" x14ac:dyDescent="0.25">
       <c r="G459" s="1" t="s">
         <v>136</v>
       </c>
@@ -13265,7 +13267,7 @@
       </c>
       <c r="K459" s="2"/>
     </row>
-    <row r="460" spans="7:11" ht="28.5">
+    <row r="460" spans="7:11" ht="28.8" x14ac:dyDescent="0.25">
       <c r="G460" s="1" t="s">
         <v>134</v>
       </c>
@@ -13281,7 +13283,7 @@
       </c>
       <c r="K460" s="2"/>
     </row>
-    <row r="461" spans="7:11" ht="28.5">
+    <row r="461" spans="7:11" ht="28.8" x14ac:dyDescent="0.25">
       <c r="G461" s="1" t="s">
         <v>132</v>
       </c>
@@ -13297,7 +13299,7 @@
       </c>
       <c r="K461" s="2"/>
     </row>
-    <row r="462" spans="7:11" ht="14.25">
+    <row r="462" spans="7:11" x14ac:dyDescent="0.25">
       <c r="G462" s="1" t="s">
         <v>130</v>
       </c>
@@ -13313,7 +13315,7 @@
       </c>
       <c r="K462" s="2"/>
     </row>
-    <row r="463" spans="7:11" ht="14.25">
+    <row r="463" spans="7:11" x14ac:dyDescent="0.25">
       <c r="G463" s="1" t="s">
         <v>128</v>
       </c>
@@ -13329,7 +13331,7 @@
       </c>
       <c r="K463" s="2"/>
     </row>
-    <row r="464" spans="7:11" ht="14.25">
+    <row r="464" spans="7:11" x14ac:dyDescent="0.25">
       <c r="G464" s="1" t="s">
         <v>126</v>
       </c>
@@ -13345,7 +13347,7 @@
       </c>
       <c r="K464" s="2"/>
     </row>
-    <row r="465" spans="7:11" ht="14.25">
+    <row r="465" spans="7:11" x14ac:dyDescent="0.25">
       <c r="G465" s="1" t="s">
         <v>124</v>
       </c>
@@ -13361,7 +13363,7 @@
       </c>
       <c r="K465" s="2"/>
     </row>
-    <row r="466" spans="7:11" ht="14.25">
+    <row r="466" spans="7:11" x14ac:dyDescent="0.25">
       <c r="G466" s="1" t="s">
         <v>122</v>
       </c>
@@ -13377,7 +13379,7 @@
       </c>
       <c r="K466" s="2"/>
     </row>
-    <row r="467" spans="7:11" ht="14.25">
+    <row r="467" spans="7:11" x14ac:dyDescent="0.25">
       <c r="G467" s="1" t="s">
         <v>120</v>
       </c>
@@ -13393,7 +13395,7 @@
       </c>
       <c r="K467" s="2"/>
     </row>
-    <row r="468" spans="7:11" ht="14.25">
+    <row r="468" spans="7:11" x14ac:dyDescent="0.25">
       <c r="G468" s="1" t="s">
         <v>118</v>
       </c>
@@ -13409,7 +13411,7 @@
       </c>
       <c r="K468" s="2"/>
     </row>
-    <row r="469" spans="7:11" ht="14.25">
+    <row r="469" spans="7:11" x14ac:dyDescent="0.25">
       <c r="G469" s="1" t="s">
         <v>116</v>
       </c>
@@ -13425,7 +13427,7 @@
       </c>
       <c r="K469" s="2"/>
     </row>
-    <row r="470" spans="7:11" ht="14.25">
+    <row r="470" spans="7:11" x14ac:dyDescent="0.25">
       <c r="G470" s="1" t="s">
         <v>114</v>
       </c>
@@ -13441,7 +13443,7 @@
       </c>
       <c r="K470" s="2"/>
     </row>
-    <row r="471" spans="7:11" ht="14.25">
+    <row r="471" spans="7:11" x14ac:dyDescent="0.25">
       <c r="G471" s="1" t="s">
         <v>112</v>
       </c>
@@ -13457,7 +13459,7 @@
       </c>
       <c r="K471" s="2"/>
     </row>
-    <row r="472" spans="7:11" ht="14.25">
+    <row r="472" spans="7:11" x14ac:dyDescent="0.25">
       <c r="G472" s="1" t="s">
         <v>110</v>
       </c>
@@ -13473,7 +13475,7 @@
       </c>
       <c r="K472" s="2"/>
     </row>
-    <row r="473" spans="7:11" ht="14.25">
+    <row r="473" spans="7:11" x14ac:dyDescent="0.25">
       <c r="G473" s="1" t="s">
         <v>108</v>
       </c>
@@ -13489,7 +13491,7 @@
       </c>
       <c r="K473" s="2"/>
     </row>
-    <row r="474" spans="7:11" ht="14.25">
+    <row r="474" spans="7:11" x14ac:dyDescent="0.25">
       <c r="G474" s="1" t="s">
         <v>106</v>
       </c>
@@ -13505,7 +13507,7 @@
       </c>
       <c r="K474" s="2"/>
     </row>
-    <row r="475" spans="7:11" ht="14.25">
+    <row r="475" spans="7:11" x14ac:dyDescent="0.25">
       <c r="G475" s="1" t="s">
         <v>104</v>
       </c>
@@ -13521,7 +13523,7 @@
       </c>
       <c r="K475" s="2"/>
     </row>
-    <row r="476" spans="7:11" ht="14.25">
+    <row r="476" spans="7:11" x14ac:dyDescent="0.25">
       <c r="G476" s="1" t="s">
         <v>102</v>
       </c>
@@ -13537,7 +13539,7 @@
       </c>
       <c r="K476" s="2"/>
     </row>
-    <row r="477" spans="7:11" ht="14.25">
+    <row r="477" spans="7:11" x14ac:dyDescent="0.25">
       <c r="G477" s="1" t="s">
         <v>100</v>
       </c>
@@ -13553,7 +13555,7 @@
       </c>
       <c r="K477" s="2"/>
     </row>
-    <row r="478" spans="7:11" ht="14.25">
+    <row r="478" spans="7:11" x14ac:dyDescent="0.25">
       <c r="G478" s="1" t="s">
         <v>98</v>
       </c>
@@ -13569,7 +13571,7 @@
       </c>
       <c r="K478" s="2"/>
     </row>
-    <row r="479" spans="7:11" ht="14.25">
+    <row r="479" spans="7:11" x14ac:dyDescent="0.25">
       <c r="G479" s="1" t="s">
         <v>96</v>
       </c>
@@ -13585,7 +13587,7 @@
       </c>
       <c r="K479" s="2"/>
     </row>
-    <row r="480" spans="7:11" ht="14.25">
+    <row r="480" spans="7:11" x14ac:dyDescent="0.25">
       <c r="G480" s="1" t="s">
         <v>94</v>
       </c>
@@ -13601,7 +13603,7 @@
       </c>
       <c r="K480" s="2"/>
     </row>
-    <row r="481" spans="7:11" ht="14.25">
+    <row r="481" spans="7:11" x14ac:dyDescent="0.25">
       <c r="G481" s="1" t="s">
         <v>92</v>
       </c>
@@ -13617,7 +13619,7 @@
       </c>
       <c r="K481" s="2"/>
     </row>
-    <row r="482" spans="7:11" ht="14.25">
+    <row r="482" spans="7:11" x14ac:dyDescent="0.25">
       <c r="G482" s="1" t="s">
         <v>90</v>
       </c>
@@ -13633,7 +13635,7 @@
       </c>
       <c r="K482" s="2"/>
     </row>
-    <row r="483" spans="7:11" ht="14.25">
+    <row r="483" spans="7:11" x14ac:dyDescent="0.25">
       <c r="G483" s="1" t="s">
         <v>88</v>
       </c>
@@ -13649,7 +13651,7 @@
       </c>
       <c r="K483" s="2"/>
     </row>
-    <row r="484" spans="7:11" ht="14.25">
+    <row r="484" spans="7:11" x14ac:dyDescent="0.25">
       <c r="G484" s="1" t="s">
         <v>86</v>
       </c>
@@ -13665,7 +13667,7 @@
       </c>
       <c r="K484" s="2"/>
     </row>
-    <row r="485" spans="7:11" ht="14.25">
+    <row r="485" spans="7:11" x14ac:dyDescent="0.25">
       <c r="G485" s="1" t="s">
         <v>84</v>
       </c>
@@ -13681,7 +13683,7 @@
       </c>
       <c r="K485" s="2"/>
     </row>
-    <row r="486" spans="7:11" ht="14.25">
+    <row r="486" spans="7:11" x14ac:dyDescent="0.25">
       <c r="G486" s="1" t="s">
         <v>82</v>
       </c>
@@ -13697,7 +13699,7 @@
       </c>
       <c r="K486" s="2"/>
     </row>
-    <row r="487" spans="7:11" ht="14.25">
+    <row r="487" spans="7:11" x14ac:dyDescent="0.25">
       <c r="G487" s="1" t="s">
         <v>80</v>
       </c>
@@ -13713,7 +13715,7 @@
       </c>
       <c r="K487" s="2"/>
     </row>
-    <row r="488" spans="7:11" ht="14.25">
+    <row r="488" spans="7:11" x14ac:dyDescent="0.25">
       <c r="G488" s="1" t="s">
         <v>78</v>
       </c>
@@ -13729,7 +13731,7 @@
       </c>
       <c r="K488" s="2"/>
     </row>
-    <row r="489" spans="7:11" ht="14.25">
+    <row r="489" spans="7:11" x14ac:dyDescent="0.25">
       <c r="G489" s="1" t="s">
         <v>76</v>
       </c>
@@ -13745,7 +13747,7 @@
       </c>
       <c r="K489" s="2"/>
     </row>
-    <row r="490" spans="7:11" ht="28.5">
+    <row r="490" spans="7:11" ht="28.8" x14ac:dyDescent="0.25">
       <c r="G490" s="1" t="s">
         <v>74</v>
       </c>
@@ -13761,7 +13763,7 @@
       </c>
       <c r="K490" s="2"/>
     </row>
-    <row r="491" spans="7:11" ht="14.25">
+    <row r="491" spans="7:11" ht="28.8" x14ac:dyDescent="0.25">
       <c r="G491" s="1" t="s">
         <v>72</v>
       </c>
@@ -13777,7 +13779,7 @@
       </c>
       <c r="K491" s="2"/>
     </row>
-    <row r="492" spans="7:11" ht="14.25">
+    <row r="492" spans="7:11" ht="28.8" x14ac:dyDescent="0.25">
       <c r="G492" s="1" t="s">
         <v>70</v>
       </c>
@@ -13793,7 +13795,7 @@
       </c>
       <c r="K492" s="2"/>
     </row>
-    <row r="493" spans="7:11" ht="14.25">
+    <row r="493" spans="7:11" x14ac:dyDescent="0.25">
       <c r="G493" s="1" t="s">
         <v>68</v>
       </c>
@@ -13809,7 +13811,7 @@
       </c>
       <c r="K493" s="2"/>
     </row>
-    <row r="494" spans="7:11" ht="14.25">
+    <row r="494" spans="7:11" ht="28.8" x14ac:dyDescent="0.25">
       <c r="G494" s="1" t="s">
         <v>66</v>
       </c>
@@ -13825,7 +13827,7 @@
       </c>
       <c r="K494" s="2"/>
     </row>
-    <row r="495" spans="7:11" ht="28.5">
+    <row r="495" spans="7:11" ht="28.8" x14ac:dyDescent="0.25">
       <c r="G495" s="1" t="s">
         <v>64</v>
       </c>
@@ -13841,7 +13843,7 @@
       </c>
       <c r="K495" s="2"/>
     </row>
-    <row r="496" spans="7:11" ht="14.25">
+    <row r="496" spans="7:11" ht="28.8" x14ac:dyDescent="0.25">
       <c r="G496" s="1" t="s">
         <v>62</v>
       </c>
@@ -13857,7 +13859,7 @@
       </c>
       <c r="K496" s="2"/>
     </row>
-    <row r="497" spans="7:11" ht="14.25">
+    <row r="497" spans="7:11" x14ac:dyDescent="0.25">
       <c r="G497" s="1" t="s">
         <v>60</v>
       </c>
@@ -13873,7 +13875,7 @@
       </c>
       <c r="K497" s="2"/>
     </row>
-    <row r="498" spans="7:11" ht="28.5">
+    <row r="498" spans="7:11" ht="28.8" x14ac:dyDescent="0.25">
       <c r="G498" s="1" t="s">
         <v>58</v>
       </c>
@@ -13889,7 +13891,7 @@
       </c>
       <c r="K498" s="2"/>
     </row>
-    <row r="499" spans="7:11" ht="14.25">
+    <row r="499" spans="7:11" ht="28.8" x14ac:dyDescent="0.25">
       <c r="G499" s="1" t="s">
         <v>56</v>
       </c>
@@ -13905,7 +13907,7 @@
       </c>
       <c r="K499" s="2"/>
     </row>
-    <row r="500" spans="7:11" ht="14.25">
+    <row r="500" spans="7:11" ht="28.8" x14ac:dyDescent="0.25">
       <c r="G500" s="1" t="s">
         <v>54</v>
       </c>
@@ -13921,7 +13923,7 @@
       </c>
       <c r="K500" s="2"/>
     </row>
-    <row r="501" spans="7:11" ht="28.5">
+    <row r="501" spans="7:11" ht="28.8" x14ac:dyDescent="0.25">
       <c r="G501" s="1" t="s">
         <v>52</v>
       </c>
@@ -13937,7 +13939,7 @@
       </c>
       <c r="K501" s="2"/>
     </row>
-    <row r="502" spans="7:11" ht="28.5">
+    <row r="502" spans="7:11" ht="28.8" x14ac:dyDescent="0.25">
       <c r="G502" s="1" t="s">
         <v>50</v>
       </c>
@@ -13953,7 +13955,7 @@
       </c>
       <c r="K502" s="2"/>
     </row>
-    <row r="503" spans="7:11" ht="14.25">
+    <row r="503" spans="7:11" ht="28.8" x14ac:dyDescent="0.25">
       <c r="G503" s="1" t="s">
         <v>48</v>
       </c>
@@ -13969,7 +13971,7 @@
       </c>
       <c r="K503" s="2"/>
     </row>
-    <row r="504" spans="7:11" ht="28.5">
+    <row r="504" spans="7:11" ht="28.8" x14ac:dyDescent="0.25">
       <c r="G504" s="1" t="s">
         <v>46</v>
       </c>
@@ -13985,7 +13987,7 @@
       </c>
       <c r="K504" s="2"/>
     </row>
-    <row r="505" spans="7:11" ht="28.5">
+    <row r="505" spans="7:11" ht="28.8" x14ac:dyDescent="0.25">
       <c r="G505" s="1" t="s">
         <v>44</v>
       </c>
@@ -14001,7 +14003,7 @@
       </c>
       <c r="K505" s="2"/>
     </row>
-    <row r="506" spans="7:11" ht="14.25">
+    <row r="506" spans="7:11" ht="28.8" x14ac:dyDescent="0.25">
       <c r="G506" s="1" t="s">
         <v>42</v>
       </c>
@@ -14017,7 +14019,7 @@
       </c>
       <c r="K506" s="2"/>
     </row>
-    <row r="507" spans="7:11" ht="14.25">
+    <row r="507" spans="7:11" ht="28.8" x14ac:dyDescent="0.25">
       <c r="G507" s="1" t="s">
         <v>40</v>
       </c>
@@ -14033,7 +14035,7 @@
       </c>
       <c r="K507" s="2"/>
     </row>
-    <row r="508" spans="7:11" ht="14.25">
+    <row r="508" spans="7:11" ht="28.8" x14ac:dyDescent="0.25">
       <c r="G508" s="1" t="s">
         <v>38</v>
       </c>
@@ -14049,7 +14051,7 @@
       </c>
       <c r="K508" s="2"/>
     </row>
-    <row r="509" spans="7:11" ht="28.5">
+    <row r="509" spans="7:11" ht="28.8" x14ac:dyDescent="0.25">
       <c r="G509" s="1" t="s">
         <v>36</v>
       </c>
@@ -14065,7 +14067,7 @@
       </c>
       <c r="K509" s="2"/>
     </row>
-    <row r="510" spans="7:11" ht="14.25">
+    <row r="510" spans="7:11" x14ac:dyDescent="0.25">
       <c r="G510" s="1" t="s">
         <v>34</v>
       </c>
@@ -14081,7 +14083,7 @@
       </c>
       <c r="K510" s="2"/>
     </row>
-    <row r="511" spans="7:11" ht="14.25">
+    <row r="511" spans="7:11" ht="28.8" x14ac:dyDescent="0.25">
       <c r="G511" s="1" t="s">
         <v>32</v>
       </c>
@@ -14097,7 +14099,7 @@
       </c>
       <c r="K511" s="2"/>
     </row>
-    <row r="512" spans="7:11" ht="14.25">
+    <row r="512" spans="7:11" ht="28.8" x14ac:dyDescent="0.25">
       <c r="G512" s="1" t="s">
         <v>30</v>
       </c>
@@ -14113,7 +14115,7 @@
       </c>
       <c r="K512" s="2"/>
     </row>
-    <row r="513" spans="7:11" ht="14.25">
+    <row r="513" spans="7:11" ht="28.8" x14ac:dyDescent="0.25">
       <c r="G513" s="1" t="s">
         <v>28</v>
       </c>
@@ -14129,7 +14131,7 @@
       </c>
       <c r="K513" s="2"/>
     </row>
-    <row r="514" spans="7:11" ht="14.25">
+    <row r="514" spans="7:11" ht="28.8" x14ac:dyDescent="0.25">
       <c r="G514" s="1" t="s">
         <v>26</v>
       </c>
@@ -14145,7 +14147,7 @@
       </c>
       <c r="K514" s="2"/>
     </row>
-    <row r="515" spans="7:11" ht="14.25">
+    <row r="515" spans="7:11" x14ac:dyDescent="0.25">
       <c r="G515" s="1" t="s">
         <v>24</v>
       </c>
@@ -14161,7 +14163,7 @@
       </c>
       <c r="K515" s="2"/>
     </row>
-    <row r="516" spans="7:11" ht="14.25">
+    <row r="516" spans="7:11" ht="28.8" x14ac:dyDescent="0.25">
       <c r="G516" s="1" t="s">
         <v>22</v>
       </c>
@@ -14177,7 +14179,7 @@
       </c>
       <c r="K516" s="2"/>
     </row>
-    <row r="517" spans="7:11" ht="14.25">
+    <row r="517" spans="7:11" x14ac:dyDescent="0.25">
       <c r="G517" s="1" t="s">
         <v>20</v>
       </c>
@@ -14193,7 +14195,7 @@
       </c>
       <c r="K517" s="2"/>
     </row>
-    <row r="518" spans="7:11" ht="28.5">
+    <row r="518" spans="7:11" ht="28.8" x14ac:dyDescent="0.25">
       <c r="G518" s="1" t="s">
         <v>18</v>
       </c>
@@ -14209,7 +14211,7 @@
       </c>
       <c r="K518" s="2"/>
     </row>
-    <row r="519" spans="7:11" ht="14.25">
+    <row r="519" spans="7:11" x14ac:dyDescent="0.25">
       <c r="G519" s="1" t="s">
         <v>16</v>
       </c>
@@ -14225,7 +14227,7 @@
       </c>
       <c r="K519" s="2"/>
     </row>
-    <row r="520" spans="7:11" ht="14.25">
+    <row r="520" spans="7:11" ht="28.8" x14ac:dyDescent="0.25">
       <c r="G520" s="1" t="s">
         <v>14</v>
       </c>
@@ -14241,7 +14243,7 @@
       </c>
       <c r="K520" s="2"/>
     </row>
-    <row r="521" spans="7:11" ht="14.25">
+    <row r="521" spans="7:11" ht="28.8" x14ac:dyDescent="0.25">
       <c r="G521" s="1" t="s">
         <v>12</v>
       </c>
@@ -14257,7 +14259,7 @@
       </c>
       <c r="K521" s="2"/>
     </row>
-    <row r="522" spans="7:11" ht="28.5">
+    <row r="522" spans="7:11" ht="28.8" x14ac:dyDescent="0.25">
       <c r="G522" s="1" t="s">
         <v>10</v>
       </c>
@@ -14273,7 +14275,7 @@
       </c>
       <c r="K522" s="2"/>
     </row>
-    <row r="523" spans="7:11" ht="14.25">
+    <row r="523" spans="7:11" x14ac:dyDescent="0.25">
       <c r="G523" s="1" t="s">
         <v>8</v>
       </c>
@@ -14289,7 +14291,7 @@
       </c>
       <c r="K523" s="2"/>
     </row>
-    <row r="524" spans="7:11" ht="14.25">
+    <row r="524" spans="7:11" ht="28.8" x14ac:dyDescent="0.25">
       <c r="G524" s="1" t="s">
         <v>6</v>
       </c>
@@ -14305,7 +14307,7 @@
       </c>
       <c r="K524" s="2"/>
     </row>
-    <row r="525" spans="7:11" ht="14.25">
+    <row r="525" spans="7:11" ht="28.8" x14ac:dyDescent="0.25">
       <c r="G525" s="1" t="s">
         <v>4</v>
       </c>
@@ -14321,7 +14323,7 @@
       </c>
       <c r="K525" s="2"/>
     </row>
-    <row r="526" spans="7:11" ht="28.5">
+    <row r="526" spans="7:11" ht="28.8" x14ac:dyDescent="0.25">
       <c r="G526" s="1" t="s">
         <v>2</v>
       </c>
@@ -14344,26 +14346,26 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J526"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J23" sqref="J23"/>
+    <sheetView tabSelected="1" topLeftCell="E109" workbookViewId="0">
+      <selection activeCell="M119" sqref="M119"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25.25" customWidth="1"/>
-    <col min="2" max="2" width="25.875" customWidth="1"/>
-    <col min="3" max="3" width="7.875" customWidth="1"/>
-    <col min="4" max="4" width="17.75" customWidth="1"/>
+    <col min="1" max="1" width="25.21875" customWidth="1"/>
+    <col min="2" max="2" width="25.88671875" customWidth="1"/>
+    <col min="3" max="3" width="7.88671875" customWidth="1"/>
+    <col min="4" max="4" width="17.77734375" customWidth="1"/>
     <col min="6" max="6" width="8" customWidth="1"/>
-    <col min="7" max="7" width="24.625" customWidth="1"/>
-    <col min="8" max="8" width="16.75" customWidth="1"/>
-    <col min="9" max="9" width="13.5" customWidth="1"/>
+    <col min="7" max="7" width="24.6640625" customWidth="1"/>
+    <col min="8" max="8" width="16.77734375" customWidth="1"/>
+    <col min="9" max="9" width="13.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="14.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>851</v>
       </c>
@@ -14395,7 +14397,7 @@
         <v>64000</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="14.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>848</v>
       </c>
@@ -14427,7 +14429,7 @@
         <v>64001</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="14.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>845</v>
       </c>
@@ -14459,7 +14461,7 @@
         <v>64002</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="14.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>842</v>
       </c>
@@ -14491,7 +14493,7 @@
         <v>64003</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="14.25">
+    <row r="5" spans="1:10" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>839</v>
       </c>
@@ -14523,7 +14525,7 @@
         <v>64004</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="14.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>836</v>
       </c>
@@ -14555,7 +14557,7 @@
         <v>64005</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="14.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>857</v>
       </c>
@@ -14587,7 +14589,7 @@
         <v>64006</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="14.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>858</v>
       </c>
@@ -14619,7 +14621,7 @@
         <v>64008</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="14.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>829</v>
       </c>
@@ -14651,7 +14653,7 @@
         <v>64009</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="14.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>826</v>
       </c>
@@ -14683,7 +14685,7 @@
         <v>64010</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="14.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>823</v>
       </c>
@@ -14715,7 +14717,7 @@
         <v>64011</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="14.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>820</v>
       </c>
@@ -14747,7 +14749,7 @@
         <v>64012</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="14.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>817</v>
       </c>
@@ -14779,7 +14781,7 @@
         <v>64013</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="14.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>814</v>
       </c>
@@ -14811,7 +14813,7 @@
         <v>64014</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="14.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>811</v>
       </c>
@@ -14843,7 +14845,7 @@
         <v>64015</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="14.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>808</v>
       </c>
@@ -14875,7 +14877,7 @@
         <v>64016</v>
       </c>
     </row>
-    <row r="17" spans="1:10" ht="14.25">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>805</v>
       </c>
@@ -14907,7 +14909,7 @@
         <v>64017</v>
       </c>
     </row>
-    <row r="18" spans="1:10" ht="14.25">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>803</v>
       </c>
@@ -14939,7 +14941,7 @@
         <v>64018</v>
       </c>
     </row>
-    <row r="19" spans="1:10" ht="14.25">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>799</v>
       </c>
@@ -14971,7 +14973,7 @@
         <v>64019</v>
       </c>
     </row>
-    <row r="20" spans="1:10" ht="14.25">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>796</v>
       </c>
@@ -15003,7 +15005,7 @@
         <v>64020</v>
       </c>
     </row>
-    <row r="21" spans="1:10" ht="14.25">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>793</v>
       </c>
@@ -15035,7 +15037,7 @@
         <v>64021</v>
       </c>
     </row>
-    <row r="22" spans="1:10" ht="14.25">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>790</v>
       </c>
@@ -15067,7 +15069,7 @@
         <v>64022</v>
       </c>
     </row>
-    <row r="23" spans="1:10" ht="14.25">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>787</v>
       </c>
@@ -15099,7 +15101,7 @@
         <v>64023</v>
       </c>
     </row>
-    <row r="24" spans="1:10" ht="14.25">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>784</v>
       </c>
@@ -15131,7 +15133,7 @@
         <v>64022</v>
       </c>
     </row>
-    <row r="25" spans="1:10" ht="14.25">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>781</v>
       </c>
@@ -15163,7 +15165,7 @@
         <v>64023</v>
       </c>
     </row>
-    <row r="26" spans="1:10" ht="14.25">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>778</v>
       </c>
@@ -15195,7 +15197,7 @@
         <v>64024</v>
       </c>
     </row>
-    <row r="27" spans="1:10" ht="14.25">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>775</v>
       </c>
@@ -15227,7 +15229,7 @@
         <v>64025</v>
       </c>
     </row>
-    <row r="28" spans="1:10" ht="14.25">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>772</v>
       </c>
@@ -15259,7 +15261,7 @@
         <v>64026</v>
       </c>
     </row>
-    <row r="29" spans="1:10" ht="14.25">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>769</v>
       </c>
@@ -15291,7 +15293,7 @@
         <v>64027</v>
       </c>
     </row>
-    <row r="30" spans="1:10" ht="14.25">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>766</v>
       </c>
@@ -15323,7 +15325,7 @@
         <v>64028</v>
       </c>
     </row>
-    <row r="31" spans="1:10" ht="14.25">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>763</v>
       </c>
@@ -15355,7 +15357,7 @@
         <v>64029</v>
       </c>
     </row>
-    <row r="32" spans="1:10" ht="14.25">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>760</v>
       </c>
@@ -15387,7 +15389,7 @@
         <v>64030</v>
       </c>
     </row>
-    <row r="33" spans="1:10" ht="28.5">
+    <row r="33" spans="1:10" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>757</v>
       </c>
@@ -15419,7 +15421,7 @@
         <v>64031</v>
       </c>
     </row>
-    <row r="34" spans="1:10" ht="28.5">
+    <row r="34" spans="1:10" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>754</v>
       </c>
@@ -15451,7 +15453,7 @@
         <v>64032</v>
       </c>
     </row>
-    <row r="35" spans="1:10" ht="28.5">
+    <row r="35" spans="1:10" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>751</v>
       </c>
@@ -15483,7 +15485,7 @@
         <v>64033</v>
       </c>
     </row>
-    <row r="36" spans="1:10" ht="14.25">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>748</v>
       </c>
@@ -15515,7 +15517,7 @@
         <v>64034</v>
       </c>
     </row>
-    <row r="37" spans="1:10" ht="14.25">
+    <row r="37" spans="1:10" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>745</v>
       </c>
@@ -15547,7 +15549,7 @@
         <v>64035</v>
       </c>
     </row>
-    <row r="38" spans="1:10" ht="14.25">
+    <row r="38" spans="1:10" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>742</v>
       </c>
@@ -15579,7 +15581,7 @@
         <v>64036</v>
       </c>
     </row>
-    <row r="39" spans="1:10" ht="14.25">
+    <row r="39" spans="1:10" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>739</v>
       </c>
@@ -15611,7 +15613,7 @@
         <v>64037</v>
       </c>
     </row>
-    <row r="40" spans="1:10" ht="14.25">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>736</v>
       </c>
@@ -15643,7 +15645,7 @@
         <v>64038</v>
       </c>
     </row>
-    <row r="41" spans="1:10" ht="14.25">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>733</v>
       </c>
@@ -15675,7 +15677,7 @@
         <v>64039</v>
       </c>
     </row>
-    <row r="42" spans="1:10" ht="14.25">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>730</v>
       </c>
@@ -15707,7 +15709,7 @@
         <v>64040</v>
       </c>
     </row>
-    <row r="43" spans="1:10" ht="14.25">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>727</v>
       </c>
@@ -15739,7 +15741,7 @@
         <v>64041</v>
       </c>
     </row>
-    <row r="44" spans="1:10" ht="14.25">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>724</v>
       </c>
@@ -15771,7 +15773,7 @@
         <v>64042</v>
       </c>
     </row>
-    <row r="45" spans="1:10" ht="14.25">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>721</v>
       </c>
@@ -15803,7 +15805,7 @@
         <v>64043</v>
       </c>
     </row>
-    <row r="46" spans="1:10" ht="14.25">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>718</v>
       </c>
@@ -15835,7 +15837,7 @@
         <v>64044</v>
       </c>
     </row>
-    <row r="47" spans="1:10" ht="14.25">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>715</v>
       </c>
@@ -15867,7 +15869,7 @@
         <v>64045</v>
       </c>
     </row>
-    <row r="48" spans="1:10" ht="14.25">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>712</v>
       </c>
@@ -15899,7 +15901,7 @@
         <v>64046</v>
       </c>
     </row>
-    <row r="49" spans="1:10" ht="14.25">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>709</v>
       </c>
@@ -15931,7 +15933,7 @@
         <v>64047</v>
       </c>
     </row>
-    <row r="50" spans="1:10" ht="14.25">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>706</v>
       </c>
@@ -15963,7 +15965,7 @@
         <v>64048</v>
       </c>
     </row>
-    <row r="51" spans="1:10" ht="14.25">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>703</v>
       </c>
@@ -15995,7 +15997,7 @@
         <v>64049</v>
       </c>
     </row>
-    <row r="52" spans="1:10" ht="14.25">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
         <v>700</v>
       </c>
@@ -16027,7 +16029,7 @@
         <v>64050</v>
       </c>
     </row>
-    <row r="53" spans="1:10" ht="14.25">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>697</v>
       </c>
@@ -16059,7 +16061,7 @@
         <v>64051</v>
       </c>
     </row>
-    <row r="54" spans="1:10" ht="14.25">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
         <v>694</v>
       </c>
@@ -16091,7 +16093,7 @@
         <v>64052</v>
       </c>
     </row>
-    <row r="55" spans="1:10" ht="14.25">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
         <v>691</v>
       </c>
@@ -16123,7 +16125,7 @@
         <v>64053</v>
       </c>
     </row>
-    <row r="56" spans="1:10" ht="14.25">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
         <v>688</v>
       </c>
@@ -16155,7 +16157,7 @@
         <v>64054</v>
       </c>
     </row>
-    <row r="57" spans="1:10" ht="14.25">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
         <v>685</v>
       </c>
@@ -16187,7 +16189,7 @@
         <v>64055</v>
       </c>
     </row>
-    <row r="58" spans="1:10" ht="14.25">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
         <v>682</v>
       </c>
@@ -16219,7 +16221,7 @@
         <v>64056</v>
       </c>
     </row>
-    <row r="59" spans="1:10" ht="14.25">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
         <v>679</v>
       </c>
@@ -16251,7 +16253,7 @@
         <v>64057</v>
       </c>
     </row>
-    <row r="60" spans="1:10" ht="14.25">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
         <v>676</v>
       </c>
@@ -16283,7 +16285,7 @@
         <v>64058</v>
       </c>
     </row>
-    <row r="61" spans="1:10" ht="14.25">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
         <v>673</v>
       </c>
@@ -16315,7 +16317,7 @@
         <v>64059</v>
       </c>
     </row>
-    <row r="62" spans="1:10" ht="14.25">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
         <v>670</v>
       </c>
@@ -16347,7 +16349,7 @@
         <v>64060</v>
       </c>
     </row>
-    <row r="63" spans="1:10" ht="14.25">
+    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
         <v>667</v>
       </c>
@@ -16379,7 +16381,7 @@
         <v>64061</v>
       </c>
     </row>
-    <row r="64" spans="1:10" ht="14.25">
+    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
         <v>664</v>
       </c>
@@ -16411,7 +16413,7 @@
         <v>64062</v>
       </c>
     </row>
-    <row r="65" spans="1:10" ht="14.25">
+    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
         <v>661</v>
       </c>
@@ -16443,7 +16445,7 @@
         <v>64063</v>
       </c>
     </row>
-    <row r="66" spans="1:10" ht="14.25">
+    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
         <v>658</v>
       </c>
@@ -16475,7 +16477,7 @@
         <v>64064</v>
       </c>
     </row>
-    <row r="67" spans="1:10" ht="14.25">
+    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
         <v>655</v>
       </c>
@@ -16507,7 +16509,7 @@
         <v>64065</v>
       </c>
     </row>
-    <row r="68" spans="1:10" ht="14.25">
+    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
         <v>652</v>
       </c>
@@ -16539,7 +16541,7 @@
         <v>64066</v>
       </c>
     </row>
-    <row r="69" spans="1:10" ht="14.25">
+    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
         <v>649</v>
       </c>
@@ -16571,7 +16573,7 @@
         <v>64067</v>
       </c>
     </row>
-    <row r="70" spans="1:10" ht="14.25">
+    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
         <v>646</v>
       </c>
@@ -16603,7 +16605,7 @@
         <v>64068</v>
       </c>
     </row>
-    <row r="71" spans="1:10" ht="14.25">
+    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
         <v>643</v>
       </c>
@@ -16635,7 +16637,7 @@
         <v>64069</v>
       </c>
     </row>
-    <row r="72" spans="1:10" ht="14.25">
+    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
         <v>640</v>
       </c>
@@ -16667,7 +16669,7 @@
         <v>64070</v>
       </c>
     </row>
-    <row r="73" spans="1:10" ht="14.25">
+    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
         <v>637</v>
       </c>
@@ -16699,7 +16701,7 @@
         <v>64071</v>
       </c>
     </row>
-    <row r="74" spans="1:10" ht="14.25">
+    <row r="74" spans="1:10" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
         <v>634</v>
       </c>
@@ -16731,7 +16733,7 @@
         <v>64072</v>
       </c>
     </row>
-    <row r="75" spans="1:10" ht="14.25">
+    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
         <v>631</v>
       </c>
@@ -16763,7 +16765,7 @@
         <v>64073</v>
       </c>
     </row>
-    <row r="76" spans="1:10" ht="14.25">
+    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
         <v>628</v>
       </c>
@@ -16795,7 +16797,7 @@
         <v>64074</v>
       </c>
     </row>
-    <row r="77" spans="1:10" ht="14.25">
+    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
         <v>625</v>
       </c>
@@ -16827,7 +16829,7 @@
         <v>64075</v>
       </c>
     </row>
-    <row r="78" spans="1:10" ht="14.25">
+    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
         <v>622</v>
       </c>
@@ -16859,7 +16861,7 @@
         <v>64076</v>
       </c>
     </row>
-    <row r="79" spans="1:10" ht="14.25">
+    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
         <v>619</v>
       </c>
@@ -16891,7 +16893,7 @@
         <v>64077</v>
       </c>
     </row>
-    <row r="80" spans="1:10" ht="14.25">
+    <row r="80" spans="1:10" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
         <v>616</v>
       </c>
@@ -16923,7 +16925,7 @@
         <v>64078</v>
       </c>
     </row>
-    <row r="81" spans="1:10" ht="14.25">
+    <row r="81" spans="1:10" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
         <v>613</v>
       </c>
@@ -16955,7 +16957,7 @@
         <v>64079</v>
       </c>
     </row>
-    <row r="82" spans="1:10" ht="14.25">
+    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
         <v>610</v>
       </c>
@@ -16987,7 +16989,7 @@
         <v>64080</v>
       </c>
     </row>
-    <row r="83" spans="1:10" ht="14.25">
+    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
         <v>607</v>
       </c>
@@ -17019,7 +17021,7 @@
         <v>64005</v>
       </c>
     </row>
-    <row r="84" spans="1:10" ht="28.5">
+    <row r="84" spans="1:10" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
         <v>604</v>
       </c>
@@ -17051,7 +17053,7 @@
         <v>64082</v>
       </c>
     </row>
-    <row r="85" spans="1:10" ht="28.5">
+    <row r="85" spans="1:10" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
         <v>601</v>
       </c>
@@ -17083,7 +17085,7 @@
         <v>64083</v>
       </c>
     </row>
-    <row r="86" spans="1:10" ht="14.25">
+    <row r="86" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
         <v>598</v>
       </c>
@@ -17115,7 +17117,7 @@
         <v>64084</v>
       </c>
     </row>
-    <row r="87" spans="1:10" ht="14.25">
+    <row r="87" spans="1:10" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
         <v>595</v>
       </c>
@@ -17147,7 +17149,7 @@
         <v>64085</v>
       </c>
     </row>
-    <row r="88" spans="1:10" ht="14.25">
+    <row r="88" spans="1:10" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
         <v>592</v>
       </c>
@@ -17179,7 +17181,7 @@
         <v>64086</v>
       </c>
     </row>
-    <row r="89" spans="1:10" ht="14.25">
+    <row r="89" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
         <v>589</v>
       </c>
@@ -17211,7 +17213,7 @@
         <v>64087</v>
       </c>
     </row>
-    <row r="90" spans="1:10" ht="14.25">
+    <row r="90" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
         <v>586</v>
       </c>
@@ -17243,7 +17245,7 @@
         <v>64088</v>
       </c>
     </row>
-    <row r="91" spans="1:10" ht="14.25">
+    <row r="91" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
         <v>583</v>
       </c>
@@ -17275,7 +17277,7 @@
         <v>64005</v>
       </c>
     </row>
-    <row r="92" spans="1:10" ht="14.25">
+    <row r="92" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
         <v>580</v>
       </c>
@@ -17307,7 +17309,7 @@
         <v>64089</v>
       </c>
     </row>
-    <row r="93" spans="1:10" ht="14.25">
+    <row r="93" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
         <v>577</v>
       </c>
@@ -17339,7 +17341,7 @@
         <v>64090</v>
       </c>
     </row>
-    <row r="94" spans="1:10" ht="14.25">
+    <row r="94" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
         <v>574</v>
       </c>
@@ -17371,7 +17373,7 @@
         <v>64102</v>
       </c>
     </row>
-    <row r="95" spans="1:10" ht="14.25">
+    <row r="95" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
         <v>571</v>
       </c>
@@ -17403,7 +17405,7 @@
         <v>64091</v>
       </c>
     </row>
-    <row r="96" spans="1:10" ht="14.25">
+    <row r="96" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
         <v>568</v>
       </c>
@@ -17435,7 +17437,7 @@
         <v>64092</v>
       </c>
     </row>
-    <row r="97" spans="1:10" ht="14.25">
+    <row r="97" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
         <v>565</v>
       </c>
@@ -17465,7 +17467,7 @@
         <v>64093</v>
       </c>
     </row>
-    <row r="98" spans="1:10" ht="14.25">
+    <row r="98" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
         <v>561</v>
       </c>
@@ -17495,7 +17497,7 @@
         <v>64094</v>
       </c>
     </row>
-    <row r="99" spans="1:10" ht="14.25">
+    <row r="99" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
         <v>557</v>
       </c>
@@ -17527,7 +17529,7 @@
         <v>64095</v>
       </c>
     </row>
-    <row r="100" spans="1:10" ht="14.25">
+    <row r="100" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
         <v>554</v>
       </c>
@@ -17559,7 +17561,7 @@
         <v>64096</v>
       </c>
     </row>
-    <row r="101" spans="1:10" ht="14.25">
+    <row r="101" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D101" s="1" t="s">
         <v>15</v>
       </c>
@@ -17582,7 +17584,7 @@
         <v>64097</v>
       </c>
     </row>
-    <row r="102" spans="1:10" ht="14.25">
+    <row r="102" spans="1:10" ht="28.8" x14ac:dyDescent="0.25">
       <c r="D102" s="1" t="s">
         <v>13</v>
       </c>
@@ -17605,7 +17607,7 @@
         <v>64098</v>
       </c>
     </row>
-    <row r="103" spans="1:10" ht="14.25">
+    <row r="103" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D103" s="1" t="s">
         <v>11</v>
       </c>
@@ -17628,7 +17630,7 @@
         <v>64099</v>
       </c>
     </row>
-    <row r="104" spans="1:10" ht="14.25">
+    <row r="104" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D104" s="1" t="s">
         <v>9</v>
       </c>
@@ -17651,7 +17653,7 @@
         <v>64100</v>
       </c>
     </row>
-    <row r="105" spans="1:10" ht="14.25">
+    <row r="105" spans="1:10" ht="28.8" x14ac:dyDescent="0.25">
       <c r="D105" s="1" t="s">
         <v>7</v>
       </c>
@@ -17674,7 +17676,7 @@
         <v>64101</v>
       </c>
     </row>
-    <row r="106" spans="1:10" ht="14.25">
+    <row r="106" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D106" s="1" t="s">
         <v>423</v>
       </c>
@@ -17697,7 +17699,7 @@
         <v>64103</v>
       </c>
     </row>
-    <row r="107" spans="1:10" ht="14.25">
+    <row r="107" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D107" s="1" t="s">
         <v>425</v>
       </c>
@@ -17720,7 +17722,7 @@
         <v>64104</v>
       </c>
     </row>
-    <row r="108" spans="1:10" ht="14.25">
+    <row r="108" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D108" s="1" t="s">
         <v>25</v>
       </c>
@@ -17743,7 +17745,7 @@
         <v>64106</v>
       </c>
     </row>
-    <row r="109" spans="1:10" ht="14.25">
+    <row r="109" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D109" s="1" t="s">
         <v>5</v>
       </c>
@@ -17766,7 +17768,7 @@
         <v>64105</v>
       </c>
     </row>
-    <row r="110" spans="1:10" ht="14.25">
+    <row r="110" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D110" s="1" t="s">
         <v>3</v>
       </c>
@@ -17789,7 +17791,7 @@
         <v>64107</v>
       </c>
     </row>
-    <row r="111" spans="1:10" ht="14.25">
+    <row r="111" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D111" s="1" t="s">
         <v>312</v>
       </c>
@@ -17812,7 +17814,7 @@
         <v>64255</v>
       </c>
     </row>
-    <row r="112" spans="1:10" ht="14.25">
+    <row r="112" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D112" s="1" t="s">
         <v>419</v>
       </c>
@@ -17835,7 +17837,7 @@
         <v>64256</v>
       </c>
     </row>
-    <row r="113" spans="2:10" ht="14.25">
+    <row r="113" spans="2:10" x14ac:dyDescent="0.25">
       <c r="D113" s="1" t="s">
         <v>416</v>
       </c>
@@ -17858,7 +17860,7 @@
         <v>64257</v>
       </c>
     </row>
-    <row r="114" spans="2:10" ht="14.25">
+    <row r="114" spans="2:10" x14ac:dyDescent="0.25">
       <c r="D114" s="1" t="s">
         <v>0</v>
       </c>
@@ -17881,7 +17883,7 @@
         <v>64258</v>
       </c>
     </row>
-    <row r="115" spans="2:10" ht="14.25">
+    <row r="115" spans="2:10" x14ac:dyDescent="0.25">
       <c r="D115" s="1"/>
       <c r="G115" s="1" t="s">
         <v>523</v>
@@ -17896,7 +17898,7 @@
         <v>64259</v>
       </c>
     </row>
-    <row r="116" spans="2:10" ht="14.25">
+    <row r="116" spans="2:10" x14ac:dyDescent="0.25">
       <c r="D116" s="1"/>
       <c r="G116" s="1" t="s">
         <v>522</v>
@@ -17911,7 +17913,7 @@
         <v>64260</v>
       </c>
     </row>
-    <row r="117" spans="2:10" ht="14.25">
+    <row r="117" spans="2:10" x14ac:dyDescent="0.25">
       <c r="D117" s="1"/>
       <c r="G117" s="1" t="s">
         <v>521</v>
@@ -17926,7 +17928,7 @@
         <v>64261</v>
       </c>
     </row>
-    <row r="118" spans="2:10" ht="14.25">
+    <row r="118" spans="2:10" x14ac:dyDescent="0.25">
       <c r="G118" s="1" t="s">
         <v>520</v>
       </c>
@@ -17940,7 +17942,7 @@
         <v>64262</v>
       </c>
     </row>
-    <row r="119" spans="2:10" ht="14.25">
+    <row r="119" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B119" t="s">
         <v>861</v>
       </c>
@@ -17960,7 +17962,7 @@
         <v>64264</v>
       </c>
     </row>
-    <row r="120" spans="2:10" ht="14.25">
+    <row r="120" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B120" t="s">
         <v>862</v>
       </c>
@@ -17980,7 +17982,7 @@
         <v>64265</v>
       </c>
     </row>
-    <row r="121" spans="2:10" ht="14.25">
+    <row r="121" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B121" t="s">
         <v>863</v>
       </c>
@@ -18000,7 +18002,7 @@
         <v>64266</v>
       </c>
     </row>
-    <row r="122" spans="2:10" ht="14.25">
+    <row r="122" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B122" t="s">
         <v>864</v>
       </c>
@@ -18020,7 +18022,7 @@
         <v>64267</v>
       </c>
     </row>
-    <row r="123" spans="2:10" ht="14.25">
+    <row r="123" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B123" t="s">
         <v>889</v>
       </c>
@@ -18040,7 +18042,7 @@
         <v>64268</v>
       </c>
     </row>
-    <row r="124" spans="2:10" ht="14.25">
+    <row r="124" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B124" t="s">
         <v>866</v>
       </c>
@@ -18060,7 +18062,7 @@
         <v>64269</v>
       </c>
     </row>
-    <row r="125" spans="2:10" ht="14.25">
+    <row r="125" spans="2:10" x14ac:dyDescent="0.25">
       <c r="C125" s="2"/>
       <c r="G125" s="1" t="s">
         <v>513</v>
@@ -18075,7 +18077,7 @@
         <v>64270</v>
       </c>
     </row>
-    <row r="126" spans="2:10" ht="14.25">
+    <row r="126" spans="2:10" x14ac:dyDescent="0.25">
       <c r="C126" s="2"/>
       <c r="G126" s="1" t="s">
         <v>512</v>
@@ -18090,7 +18092,7 @@
         <v>64271</v>
       </c>
     </row>
-    <row r="127" spans="2:10" ht="14.25">
+    <row r="127" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B127" t="s">
         <v>867</v>
       </c>
@@ -18110,7 +18112,7 @@
         <v>64272</v>
       </c>
     </row>
-    <row r="128" spans="2:10" ht="14.25">
+    <row r="128" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B128" t="s">
         <v>868</v>
       </c>
@@ -18130,7 +18132,7 @@
         <v>64273</v>
       </c>
     </row>
-    <row r="129" spans="2:10" ht="14.25">
+    <row r="129" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B129" t="s">
         <v>869</v>
       </c>
@@ -18150,7 +18152,7 @@
         <v>64274</v>
       </c>
     </row>
-    <row r="130" spans="2:10" ht="14.25">
+    <row r="130" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B130" t="s">
         <v>870</v>
       </c>
@@ -18170,7 +18172,7 @@
         <v>64275</v>
       </c>
     </row>
-    <row r="131" spans="2:10" ht="14.25">
+    <row r="131" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B131" t="s">
         <v>871</v>
       </c>
@@ -18190,7 +18192,7 @@
         <v>64278</v>
       </c>
     </row>
-    <row r="132" spans="2:10" ht="14.25">
+    <row r="132" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B132" t="s">
         <v>872</v>
       </c>
@@ -18210,7 +18212,7 @@
         <v>64279</v>
       </c>
     </row>
-    <row r="133" spans="2:10" ht="14.25">
+    <row r="133" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B133" t="s">
         <v>873</v>
       </c>
@@ -18230,7 +18232,7 @@
         <v>64280</v>
       </c>
     </row>
-    <row r="134" spans="2:10" ht="14.25">
+    <row r="134" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B134" t="s">
         <v>874</v>
       </c>
@@ -18250,7 +18252,7 @@
         <v>64281</v>
       </c>
     </row>
-    <row r="135" spans="2:10" ht="14.25">
+    <row r="135" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B135" t="s">
         <v>875</v>
       </c>
@@ -18270,7 +18272,7 @@
         <v>64282</v>
       </c>
     </row>
-    <row r="136" spans="2:10" ht="14.25">
+    <row r="136" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B136" t="s">
         <v>876</v>
       </c>
@@ -18290,7 +18292,7 @@
         <v>64283</v>
       </c>
     </row>
-    <row r="137" spans="2:10" ht="14.25">
+    <row r="137" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B137" t="s">
         <v>877</v>
       </c>
@@ -18310,7 +18312,7 @@
         <v>64284</v>
       </c>
     </row>
-    <row r="138" spans="2:10" ht="14.25">
+    <row r="138" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B138" t="s">
         <v>878</v>
       </c>
@@ -18330,7 +18332,7 @@
         <v>64285</v>
       </c>
     </row>
-    <row r="139" spans="2:10" ht="14.25">
+    <row r="139" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B139" t="s">
         <v>879</v>
       </c>
@@ -18350,7 +18352,7 @@
         <v>64286</v>
       </c>
     </row>
-    <row r="140" spans="2:10" ht="14.25">
+    <row r="140" spans="2:10" ht="28.8" x14ac:dyDescent="0.25">
       <c r="B140" t="s">
         <v>880</v>
       </c>
@@ -18370,7 +18372,7 @@
         <v>64287</v>
       </c>
     </row>
-    <row r="141" spans="2:10" ht="14.25">
+    <row r="141" spans="2:10" ht="28.8" x14ac:dyDescent="0.25">
       <c r="B141" t="s">
         <v>881</v>
       </c>
@@ -18390,7 +18392,7 @@
         <v>64288</v>
       </c>
     </row>
-    <row r="142" spans="2:10" ht="14.25">
+    <row r="142" spans="2:10" ht="28.8" x14ac:dyDescent="0.25">
       <c r="B142" t="s">
         <v>882</v>
       </c>
@@ -18410,7 +18412,7 @@
         <v>64289</v>
       </c>
     </row>
-    <row r="143" spans="2:10" ht="14.25">
+    <row r="143" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B143" t="s">
         <v>883</v>
       </c>
@@ -18430,7 +18432,7 @@
         <v>64290</v>
       </c>
     </row>
-    <row r="144" spans="2:10" ht="14.25">
+    <row r="144" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B144" t="s">
         <v>884</v>
       </c>
@@ -18450,7 +18452,7 @@
         <v>64291</v>
       </c>
     </row>
-    <row r="145" spans="2:10" ht="14.25">
+    <row r="145" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B145" t="s">
         <v>885</v>
       </c>
@@ -18470,7 +18472,7 @@
         <v>64292</v>
       </c>
     </row>
-    <row r="146" spans="2:10" ht="14.25">
+    <row r="146" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B146" t="s">
         <v>886</v>
       </c>
@@ -18490,7 +18492,7 @@
         <v>64293</v>
       </c>
     </row>
-    <row r="147" spans="2:10" ht="14.25">
+    <row r="147" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B147" t="s">
         <v>887</v>
       </c>
@@ -18510,7 +18512,7 @@
         <v>64294</v>
       </c>
     </row>
-    <row r="148" spans="2:10" ht="14.25">
+    <row r="148" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B148" t="s">
         <v>888</v>
       </c>
@@ -18530,7 +18532,7 @@
         <v>64295</v>
       </c>
     </row>
-    <row r="149" spans="2:10" ht="14.25">
+    <row r="149" spans="2:10" x14ac:dyDescent="0.25">
       <c r="G149" s="1" t="s">
         <v>489</v>
       </c>
@@ -18544,7 +18546,7 @@
         <v>64296</v>
       </c>
     </row>
-    <row r="150" spans="2:10" ht="14.25">
+    <row r="150" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B150" t="s">
         <v>860</v>
       </c>
@@ -18564,7 +18566,7 @@
         <v>64297</v>
       </c>
     </row>
-    <row r="151" spans="2:10" ht="14.25">
+    <row r="151" spans="2:10" x14ac:dyDescent="0.25">
       <c r="C151" s="2"/>
       <c r="G151" s="1" t="s">
         <v>487</v>
@@ -18579,7 +18581,7 @@
         <v>64298</v>
       </c>
     </row>
-    <row r="152" spans="2:10" ht="14.25">
+    <row r="152" spans="2:10" x14ac:dyDescent="0.25">
       <c r="C152" s="2"/>
       <c r="G152" s="1" t="s">
         <v>486</v>
@@ -18594,7 +18596,7 @@
         <v>64299</v>
       </c>
     </row>
-    <row r="153" spans="2:10" ht="14.25">
+    <row r="153" spans="2:10" x14ac:dyDescent="0.25">
       <c r="C153" s="2"/>
       <c r="G153" s="1" t="s">
         <v>485</v>
@@ -18609,7 +18611,7 @@
         <v>64300</v>
       </c>
     </row>
-    <row r="154" spans="2:10" ht="14.25">
+    <row r="154" spans="2:10" x14ac:dyDescent="0.25">
       <c r="C154" s="2"/>
       <c r="G154" s="1" t="s">
         <v>484</v>
@@ -18624,7 +18626,7 @@
         <v>64301</v>
       </c>
     </row>
-    <row r="155" spans="2:10" ht="14.25">
+    <row r="155" spans="2:10" x14ac:dyDescent="0.25">
       <c r="C155" s="2"/>
       <c r="G155" s="1" t="s">
         <v>483</v>
@@ -18639,7 +18641,7 @@
         <v>64302</v>
       </c>
     </row>
-    <row r="156" spans="2:10" ht="14.25">
+    <row r="156" spans="2:10" x14ac:dyDescent="0.25">
       <c r="C156" s="2"/>
       <c r="G156" s="1" t="s">
         <v>482</v>
@@ -18654,7 +18656,7 @@
         <v>64303</v>
       </c>
     </row>
-    <row r="157" spans="2:10" ht="14.25">
+    <row r="157" spans="2:10" x14ac:dyDescent="0.25">
       <c r="C157" s="2"/>
       <c r="G157" s="1" t="s">
         <v>481</v>
@@ -18669,7 +18671,7 @@
         <v>64304</v>
       </c>
     </row>
-    <row r="158" spans="2:10" ht="14.25">
+    <row r="158" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B158" t="s">
         <v>892</v>
       </c>
@@ -18689,7 +18691,7 @@
         <v>64305</v>
       </c>
     </row>
-    <row r="159" spans="2:10" ht="14.25">
+    <row r="159" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B159" t="s">
         <v>893</v>
       </c>
@@ -18709,7 +18711,7 @@
         <v>64306</v>
       </c>
     </row>
-    <row r="160" spans="2:10" ht="14.25">
+    <row r="160" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B160" t="s">
         <v>894</v>
       </c>
@@ -18729,7 +18731,7 @@
         <v>64307</v>
       </c>
     </row>
-    <row r="161" spans="2:10" ht="14.25">
+    <row r="161" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B161" t="s">
         <v>895</v>
       </c>
@@ -18749,7 +18751,7 @@
         <v>64308</v>
       </c>
     </row>
-    <row r="162" spans="2:10" ht="14.25">
+    <row r="162" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B162" t="s">
         <v>896</v>
       </c>
@@ -18769,7 +18771,7 @@
         <v>64309</v>
       </c>
     </row>
-    <row r="163" spans="2:10" ht="14.25">
+    <row r="163" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B163" t="s">
         <v>897</v>
       </c>
@@ -18789,7 +18791,7 @@
         <v>64310</v>
       </c>
     </row>
-    <row r="164" spans="2:10" ht="14.25">
+    <row r="164" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B164" t="s">
         <v>898</v>
       </c>
@@ -18809,7 +18811,7 @@
         <v>64311</v>
       </c>
     </row>
-    <row r="165" spans="2:10" ht="14.25">
+    <row r="165" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B165" t="s">
         <v>899</v>
       </c>
@@ -18829,7 +18831,7 @@
         <v>64312</v>
       </c>
     </row>
-    <row r="166" spans="2:10" ht="14.25">
+    <row r="166" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B166" t="s">
         <v>900</v>
       </c>
@@ -18849,7 +18851,7 @@
         <v>64313</v>
       </c>
     </row>
-    <row r="167" spans="2:10" ht="14.25">
+    <row r="167" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B167" t="s">
         <v>901</v>
       </c>
@@ -18869,7 +18871,7 @@
         <v>64314</v>
       </c>
     </row>
-    <row r="168" spans="2:10" ht="14.25">
+    <row r="168" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B168" t="s">
         <v>902</v>
       </c>
@@ -18889,7 +18891,7 @@
         <v>64315</v>
       </c>
     </row>
-    <row r="169" spans="2:10" ht="14.25">
+    <row r="169" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B169" t="s">
         <v>903</v>
       </c>
@@ -18909,7 +18911,7 @@
         <v>64316</v>
       </c>
     </row>
-    <row r="170" spans="2:10" ht="14.25">
+    <row r="170" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B170" t="s">
         <v>904</v>
       </c>
@@ -18929,7 +18931,7 @@
         <v>64317</v>
       </c>
     </row>
-    <row r="171" spans="2:10" ht="14.25">
+    <row r="171" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B171" t="s">
         <v>905</v>
       </c>
@@ -18949,7 +18951,7 @@
         <v>64318</v>
       </c>
     </row>
-    <row r="172" spans="2:10" ht="14.25">
+    <row r="172" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B172" t="s">
         <v>906</v>
       </c>
@@ -18969,7 +18971,7 @@
         <v>64319</v>
       </c>
     </row>
-    <row r="173" spans="2:10" ht="14.25">
+    <row r="173" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B173" t="s">
         <v>907</v>
       </c>
@@ -18989,7 +18991,7 @@
         <v>64320</v>
       </c>
     </row>
-    <row r="174" spans="2:10" ht="14.25">
+    <row r="174" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B174" t="s">
         <v>908</v>
       </c>
@@ -19009,7 +19011,7 @@
         <v>64321</v>
       </c>
     </row>
-    <row r="175" spans="2:10" ht="14.25">
+    <row r="175" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B175" t="s">
         <v>909</v>
       </c>
@@ -19029,7 +19031,7 @@
         <v>64322</v>
       </c>
     </row>
-    <row r="176" spans="2:10" ht="14.25">
+    <row r="176" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B176" t="s">
         <v>910</v>
       </c>
@@ -19049,7 +19051,7 @@
         <v>64323</v>
       </c>
     </row>
-    <row r="177" spans="2:10" ht="14.25">
+    <row r="177" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B177" t="s">
         <v>911</v>
       </c>
@@ -19069,7 +19071,7 @@
         <v>64324</v>
       </c>
     </row>
-    <row r="178" spans="2:10" ht="14.25">
+    <row r="178" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B178" t="s">
         <v>912</v>
       </c>
@@ -19089,7 +19091,7 @@
         <v>64325</v>
       </c>
     </row>
-    <row r="179" spans="2:10" ht="14.25">
+    <row r="179" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B179" t="s">
         <v>913</v>
       </c>
@@ -19109,7 +19111,7 @@
         <v>64326</v>
       </c>
     </row>
-    <row r="180" spans="2:10" ht="14.25">
+    <row r="180" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B180" t="s">
         <v>914</v>
       </c>
@@ -19129,7 +19131,7 @@
         <v>64327</v>
       </c>
     </row>
-    <row r="181" spans="2:10" ht="14.25">
+    <row r="181" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B181" t="s">
         <v>915</v>
       </c>
@@ -19149,7 +19151,7 @@
         <v>64328</v>
       </c>
     </row>
-    <row r="182" spans="2:10" ht="14.25">
+    <row r="182" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B182" t="s">
         <v>916</v>
       </c>
@@ -19169,7 +19171,7 @@
         <v>64329</v>
       </c>
     </row>
-    <row r="183" spans="2:10" ht="14.25">
+    <row r="183" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B183" t="s">
         <v>917</v>
       </c>
@@ -19189,7 +19191,7 @@
         <v>64330</v>
       </c>
     </row>
-    <row r="184" spans="2:10" ht="14.25">
+    <row r="184" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B184" t="s">
         <v>890</v>
       </c>
@@ -19209,7 +19211,7 @@
         <v>64331</v>
       </c>
     </row>
-    <row r="185" spans="2:10" ht="14.25">
+    <row r="185" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B185" t="s">
         <v>891</v>
       </c>
@@ -19229,7 +19231,7 @@
         <v>64332</v>
       </c>
     </row>
-    <row r="186" spans="2:10" ht="14.25">
+    <row r="186" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B186" t="s">
         <v>918</v>
       </c>
@@ -19249,7 +19251,7 @@
         <v>64333</v>
       </c>
     </row>
-    <row r="187" spans="2:10" ht="14.25">
+    <row r="187" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B187" t="s">
         <v>919</v>
       </c>
@@ -19269,7 +19271,7 @@
         <v>64334</v>
       </c>
     </row>
-    <row r="188" spans="2:10" ht="14.25">
+    <row r="188" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B188" t="s">
         <v>920</v>
       </c>
@@ -19289,7 +19291,7 @@
         <v>64335</v>
       </c>
     </row>
-    <row r="189" spans="2:10" ht="14.25">
+    <row r="189" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B189" t="s">
         <v>921</v>
       </c>
@@ -19309,7 +19311,7 @@
         <v>64336</v>
       </c>
     </row>
-    <row r="190" spans="2:10" ht="14.25">
+    <row r="190" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B190" t="s">
         <v>922</v>
       </c>
@@ -19329,7 +19331,7 @@
         <v>64261</v>
       </c>
     </row>
-    <row r="191" spans="2:10" ht="14.25">
+    <row r="191" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B191" t="s">
         <v>923</v>
       </c>
@@ -19349,7 +19351,7 @@
         <v>64338</v>
       </c>
     </row>
-    <row r="192" spans="2:10" ht="14.25">
+    <row r="192" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B192" t="s">
         <v>924</v>
       </c>
@@ -19369,7 +19371,7 @@
         <v>64339</v>
       </c>
     </row>
-    <row r="193" spans="2:10" ht="14.25">
+    <row r="193" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B193" t="s">
         <v>925</v>
       </c>
@@ -19389,7 +19391,7 @@
         <v>64340</v>
       </c>
     </row>
-    <row r="194" spans="2:10" ht="14.25">
+    <row r="194" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B194" t="s">
         <v>926</v>
       </c>
@@ -19409,7 +19411,7 @@
         <v>64341</v>
       </c>
     </row>
-    <row r="195" spans="2:10" ht="14.25">
+    <row r="195" spans="2:10" x14ac:dyDescent="0.25">
       <c r="G195" s="1" t="s">
         <v>443</v>
       </c>
@@ -19423,7 +19425,7 @@
         <v>64342</v>
       </c>
     </row>
-    <row r="196" spans="2:10" ht="14.25">
+    <row r="196" spans="2:10" x14ac:dyDescent="0.25">
       <c r="G196" s="1" t="s">
         <v>442</v>
       </c>
@@ -19437,7 +19439,7 @@
         <v>64343</v>
       </c>
     </row>
-    <row r="197" spans="2:10" ht="14.25">
+    <row r="197" spans="2:10" x14ac:dyDescent="0.25">
       <c r="G197" s="1" t="s">
         <v>440</v>
       </c>
@@ -19451,7 +19453,7 @@
         <v>64344</v>
       </c>
     </row>
-    <row r="198" spans="2:10" ht="14.25">
+    <row r="198" spans="2:10" x14ac:dyDescent="0.25">
       <c r="G198" s="1" t="s">
         <v>439</v>
       </c>
@@ -19465,7 +19467,7 @@
         <v>64261</v>
       </c>
     </row>
-    <row r="199" spans="2:10" ht="14.25">
+    <row r="199" spans="2:10" x14ac:dyDescent="0.25">
       <c r="G199" s="1" t="s">
         <v>438</v>
       </c>
@@ -19479,7 +19481,7 @@
         <v>64345</v>
       </c>
     </row>
-    <row r="200" spans="2:10" ht="14.25">
+    <row r="200" spans="2:10" x14ac:dyDescent="0.25">
       <c r="G200" s="1" t="s">
         <v>437</v>
       </c>
@@ -19493,7 +19495,7 @@
         <v>64346</v>
       </c>
     </row>
-    <row r="201" spans="2:10" ht="14.25">
+    <row r="201" spans="2:10" x14ac:dyDescent="0.25">
       <c r="G201" s="1" t="s">
         <v>436</v>
       </c>
@@ -19507,7 +19509,7 @@
         <v>64358</v>
       </c>
     </row>
-    <row r="202" spans="2:10" ht="14.25">
+    <row r="202" spans="2:10" x14ac:dyDescent="0.25">
       <c r="G202" s="1" t="s">
         <v>435</v>
       </c>
@@ -19521,7 +19523,7 @@
         <v>64347</v>
       </c>
     </row>
-    <row r="203" spans="2:10" ht="14.25">
+    <row r="203" spans="2:10" x14ac:dyDescent="0.25">
       <c r="G203" s="1" t="s">
         <v>434</v>
       </c>
@@ -19535,7 +19537,7 @@
         <v>64348</v>
       </c>
     </row>
-    <row r="204" spans="2:10" ht="14.25">
+    <row r="204" spans="2:10" x14ac:dyDescent="0.25">
       <c r="G204" s="1" t="s">
         <v>433</v>
       </c>
@@ -19549,7 +19551,7 @@
         <v>64349</v>
       </c>
     </row>
-    <row r="205" spans="2:10" ht="14.25">
+    <row r="205" spans="2:10" x14ac:dyDescent="0.25">
       <c r="G205" s="1" t="s">
         <v>432</v>
       </c>
@@ -19563,7 +19565,7 @@
         <v>64350</v>
       </c>
     </row>
-    <row r="206" spans="2:10" ht="14.25">
+    <row r="206" spans="2:10" x14ac:dyDescent="0.25">
       <c r="G206" s="1" t="s">
         <v>431</v>
       </c>
@@ -19577,7 +19579,7 @@
         <v>64351</v>
       </c>
     </row>
-    <row r="207" spans="2:10" ht="14.25">
+    <row r="207" spans="2:10" x14ac:dyDescent="0.25">
       <c r="G207" s="1" t="s">
         <v>430</v>
       </c>
@@ -19591,7 +19593,7 @@
         <v>64352</v>
       </c>
     </row>
-    <row r="208" spans="2:10" ht="14.25">
+    <row r="208" spans="2:10" x14ac:dyDescent="0.25">
       <c r="G208" s="1" t="s">
         <v>429</v>
       </c>
@@ -19605,7 +19607,7 @@
         <v>64353</v>
       </c>
     </row>
-    <row r="209" spans="7:10" ht="14.25">
+    <row r="209" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G209" s="1" t="s">
         <v>428</v>
       </c>
@@ -19619,7 +19621,7 @@
         <v>64354</v>
       </c>
     </row>
-    <row r="210" spans="7:10" ht="14.25">
+    <row r="210" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G210" s="1" t="s">
         <v>427</v>
       </c>
@@ -19633,7 +19635,7 @@
         <v>64355</v>
       </c>
     </row>
-    <row r="211" spans="7:10" ht="14.25">
+    <row r="211" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G211" s="1" t="s">
         <v>426</v>
       </c>
@@ -19647,7 +19649,7 @@
         <v>64869</v>
       </c>
     </row>
-    <row r="212" spans="7:10" ht="14.25">
+    <row r="212" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G212" s="1" t="s">
         <v>424</v>
       </c>
@@ -19661,7 +19663,7 @@
         <v>64356</v>
       </c>
     </row>
-    <row r="213" spans="7:10" ht="14.25">
+    <row r="213" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G213" s="1" t="s">
         <v>422</v>
       </c>
@@ -19675,7 +19677,7 @@
         <v>64359</v>
       </c>
     </row>
-    <row r="214" spans="7:10" ht="14.25">
+    <row r="214" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G214" s="1" t="s">
         <v>421</v>
       </c>
@@ -19689,7 +19691,7 @@
         <v>64360</v>
       </c>
     </row>
-    <row r="215" spans="7:10" ht="14.25">
+    <row r="215" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G215" s="1" t="s">
         <v>420</v>
       </c>
@@ -19703,7 +19705,7 @@
         <v>64362</v>
       </c>
     </row>
-    <row r="216" spans="7:10" ht="14.25">
+    <row r="216" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G216" s="1" t="s">
         <v>418</v>
       </c>
@@ -19717,7 +19719,7 @@
         <v>64361</v>
       </c>
     </row>
-    <row r="217" spans="7:10" ht="14.25">
+    <row r="217" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G217" s="1" t="s">
         <v>417</v>
       </c>
@@ -19731,7 +19733,7 @@
         <v>64363</v>
       </c>
     </row>
-    <row r="218" spans="7:10" ht="14.25">
+    <row r="218" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G218" s="1" t="s">
         <v>415</v>
       </c>
@@ -19745,7 +19747,7 @@
         <v>64511</v>
       </c>
     </row>
-    <row r="219" spans="7:10" ht="14.25">
+    <row r="219" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G219" s="1" t="s">
         <v>413</v>
       </c>
@@ -19759,7 +19761,7 @@
         <v>64512</v>
       </c>
     </row>
-    <row r="220" spans="7:10" ht="14.25">
+    <row r="220" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G220" s="1" t="s">
         <v>412</v>
       </c>
@@ -19773,7 +19775,7 @@
         <v>64513</v>
       </c>
     </row>
-    <row r="221" spans="7:10" ht="14.25">
+    <row r="221" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G221" s="1" t="s">
         <v>411</v>
       </c>
@@ -19787,7 +19789,7 @@
         <v>64514</v>
       </c>
     </row>
-    <row r="222" spans="7:10" ht="14.25">
+    <row r="222" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G222" s="1" t="s">
         <v>410</v>
       </c>
@@ -19801,7 +19803,7 @@
         <v>64515</v>
       </c>
     </row>
-    <row r="223" spans="7:10" ht="14.25">
+    <row r="223" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G223" s="1" t="s">
         <v>409</v>
       </c>
@@ -19815,7 +19817,7 @@
         <v>64516</v>
       </c>
     </row>
-    <row r="224" spans="7:10" ht="14.25">
+    <row r="224" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G224" s="1" t="s">
         <v>408</v>
       </c>
@@ -19829,7 +19831,7 @@
         <v>64517</v>
       </c>
     </row>
-    <row r="225" spans="7:10" ht="14.25">
+    <row r="225" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G225" s="1" t="s">
         <v>407</v>
       </c>
@@ -19843,7 +19845,7 @@
         <v>64518</v>
       </c>
     </row>
-    <row r="226" spans="7:10" ht="14.25">
+    <row r="226" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G226" s="1" t="s">
         <v>406</v>
       </c>
@@ -19857,7 +19859,7 @@
         <v>64520</v>
       </c>
     </row>
-    <row r="227" spans="7:10" ht="14.25">
+    <row r="227" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G227" s="1" t="s">
         <v>405</v>
       </c>
@@ -19871,7 +19873,7 @@
         <v>64521</v>
       </c>
     </row>
-    <row r="228" spans="7:10" ht="14.25">
+    <row r="228" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G228" s="1" t="s">
         <v>404</v>
       </c>
@@ -19885,7 +19887,7 @@
         <v>64522</v>
       </c>
     </row>
-    <row r="229" spans="7:10" ht="14.25">
+    <row r="229" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G229" s="1" t="s">
         <v>403</v>
       </c>
@@ -19899,7 +19901,7 @@
         <v>64523</v>
       </c>
     </row>
-    <row r="230" spans="7:10" ht="14.25">
+    <row r="230" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G230" s="1" t="s">
         <v>402</v>
       </c>
@@ -19913,7 +19915,7 @@
         <v>64524</v>
       </c>
     </row>
-    <row r="231" spans="7:10" ht="14.25">
+    <row r="231" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G231" s="1" t="s">
         <v>401</v>
       </c>
@@ -19927,7 +19929,7 @@
         <v>64525</v>
       </c>
     </row>
-    <row r="232" spans="7:10" ht="14.25">
+    <row r="232" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G232" s="1" t="s">
         <v>400</v>
       </c>
@@ -19941,7 +19943,7 @@
         <v>64526</v>
       </c>
     </row>
-    <row r="233" spans="7:10" ht="14.25">
+    <row r="233" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G233" s="1" t="s">
         <v>399</v>
       </c>
@@ -19955,7 +19957,7 @@
         <v>64527</v>
       </c>
     </row>
-    <row r="234" spans="7:10" ht="14.25">
+    <row r="234" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G234" s="1" t="s">
         <v>398</v>
       </c>
@@ -19969,7 +19971,7 @@
         <v>64528</v>
       </c>
     </row>
-    <row r="235" spans="7:10" ht="14.25">
+    <row r="235" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G235" s="1" t="s">
         <v>397</v>
       </c>
@@ -19983,7 +19985,7 @@
         <v>64529</v>
       </c>
     </row>
-    <row r="236" spans="7:10" ht="14.25">
+    <row r="236" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G236" s="1" t="s">
         <v>396</v>
       </c>
@@ -19997,7 +19999,7 @@
         <v>64530</v>
       </c>
     </row>
-    <row r="237" spans="7:10" ht="14.25">
+    <row r="237" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G237" s="1" t="s">
         <v>395</v>
       </c>
@@ -20011,7 +20013,7 @@
         <v>64531</v>
       </c>
     </row>
-    <row r="238" spans="7:10" ht="14.25">
+    <row r="238" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G238" s="1" t="s">
         <v>394</v>
       </c>
@@ -20025,7 +20027,7 @@
         <v>64534</v>
       </c>
     </row>
-    <row r="239" spans="7:10" ht="14.25">
+    <row r="239" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G239" s="1" t="s">
         <v>393</v>
       </c>
@@ -20039,7 +20041,7 @@
         <v>64535</v>
       </c>
     </row>
-    <row r="240" spans="7:10" ht="14.25">
+    <row r="240" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G240" s="1" t="s">
         <v>392</v>
       </c>
@@ -20053,7 +20055,7 @@
         <v>64536</v>
       </c>
     </row>
-    <row r="241" spans="7:10" ht="14.25">
+    <row r="241" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G241" s="1" t="s">
         <v>391</v>
       </c>
@@ -20067,7 +20069,7 @@
         <v>64537</v>
       </c>
     </row>
-    <row r="242" spans="7:10" ht="14.25">
+    <row r="242" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G242" s="1" t="s">
         <v>390</v>
       </c>
@@ -20081,7 +20083,7 @@
         <v>64538</v>
       </c>
     </row>
-    <row r="243" spans="7:10" ht="14.25">
+    <row r="243" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G243" s="1" t="s">
         <v>389</v>
       </c>
@@ -20095,7 +20097,7 @@
         <v>64539</v>
       </c>
     </row>
-    <row r="244" spans="7:10" ht="14.25">
+    <row r="244" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G244" s="1" t="s">
         <v>388</v>
       </c>
@@ -20109,7 +20111,7 @@
         <v>64540</v>
       </c>
     </row>
-    <row r="245" spans="7:10" ht="14.25">
+    <row r="245" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G245" s="1" t="s">
         <v>387</v>
       </c>
@@ -20123,7 +20125,7 @@
         <v>64541</v>
       </c>
     </row>
-    <row r="246" spans="7:10" ht="14.25">
+    <row r="246" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G246" s="1" t="s">
         <v>386</v>
       </c>
@@ -20137,7 +20139,7 @@
         <v>64542</v>
       </c>
     </row>
-    <row r="247" spans="7:10" ht="28.5">
+    <row r="247" spans="7:10" ht="28.8" x14ac:dyDescent="0.25">
       <c r="G247" s="1" t="s">
         <v>385</v>
       </c>
@@ -20151,7 +20153,7 @@
         <v>64543</v>
       </c>
     </row>
-    <row r="248" spans="7:10" ht="28.5">
+    <row r="248" spans="7:10" ht="28.8" x14ac:dyDescent="0.25">
       <c r="G248" s="1" t="s">
         <v>384</v>
       </c>
@@ -20165,7 +20167,7 @@
         <v>64544</v>
       </c>
     </row>
-    <row r="249" spans="7:10" ht="28.5">
+    <row r="249" spans="7:10" ht="28.8" x14ac:dyDescent="0.25">
       <c r="G249" s="1" t="s">
         <v>383</v>
       </c>
@@ -20179,7 +20181,7 @@
         <v>64545</v>
       </c>
     </row>
-    <row r="250" spans="7:10" ht="14.25">
+    <row r="250" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G250" s="1" t="s">
         <v>382</v>
       </c>
@@ -20193,7 +20195,7 @@
         <v>64546</v>
       </c>
     </row>
-    <row r="251" spans="7:10" ht="14.25">
+    <row r="251" spans="7:10" ht="28.8" x14ac:dyDescent="0.25">
       <c r="G251" s="1" t="s">
         <v>381</v>
       </c>
@@ -20207,7 +20209,7 @@
         <v>64547</v>
       </c>
     </row>
-    <row r="252" spans="7:10" ht="14.25">
+    <row r="252" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G252" s="1" t="s">
         <v>380</v>
       </c>
@@ -20221,7 +20223,7 @@
         <v>64548</v>
       </c>
     </row>
-    <row r="253" spans="7:10" ht="14.25">
+    <row r="253" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G253" s="1" t="s">
         <v>379</v>
       </c>
@@ -20235,7 +20237,7 @@
         <v>64549</v>
       </c>
     </row>
-    <row r="254" spans="7:10" ht="14.25">
+    <row r="254" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G254" s="1" t="s">
         <v>378</v>
       </c>
@@ -20249,7 +20251,7 @@
         <v>64550</v>
       </c>
     </row>
-    <row r="255" spans="7:10" ht="14.25">
+    <row r="255" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G255" s="1" t="s">
         <v>377</v>
       </c>
@@ -20263,7 +20265,7 @@
         <v>64551</v>
       </c>
     </row>
-    <row r="256" spans="7:10" ht="14.25">
+    <row r="256" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G256" s="1" t="s">
         <v>376</v>
       </c>
@@ -20277,7 +20279,7 @@
         <v>64552</v>
       </c>
     </row>
-    <row r="257" spans="7:10" ht="14.25">
+    <row r="257" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G257" s="1" t="s">
         <v>375</v>
       </c>
@@ -20291,7 +20293,7 @@
         <v>64553</v>
       </c>
     </row>
-    <row r="258" spans="7:10" ht="14.25">
+    <row r="258" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G258" s="1" t="s">
         <v>374</v>
       </c>
@@ -20305,7 +20307,7 @@
         <v>64554</v>
       </c>
     </row>
-    <row r="259" spans="7:10" ht="14.25">
+    <row r="259" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G259" s="1" t="s">
         <v>373</v>
       </c>
@@ -20319,7 +20321,7 @@
         <v>64555</v>
       </c>
     </row>
-    <row r="260" spans="7:10" ht="14.25">
+    <row r="260" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G260" s="1" t="s">
         <v>372</v>
       </c>
@@ -20333,7 +20335,7 @@
         <v>64556</v>
       </c>
     </row>
-    <row r="261" spans="7:10" ht="14.25">
+    <row r="261" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G261" s="1" t="s">
         <v>371</v>
       </c>
@@ -20347,7 +20349,7 @@
         <v>64557</v>
       </c>
     </row>
-    <row r="262" spans="7:10" ht="14.25">
+    <row r="262" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G262" s="1" t="s">
         <v>370</v>
       </c>
@@ -20361,7 +20363,7 @@
         <v>64558</v>
       </c>
     </row>
-    <row r="263" spans="7:10" ht="14.25">
+    <row r="263" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G263" s="1" t="s">
         <v>369</v>
       </c>
@@ -20375,7 +20377,7 @@
         <v>64559</v>
       </c>
     </row>
-    <row r="264" spans="7:10" ht="14.25">
+    <row r="264" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G264" s="1" t="s">
         <v>368</v>
       </c>
@@ -20389,7 +20391,7 @@
         <v>64560</v>
       </c>
     </row>
-    <row r="265" spans="7:10" ht="14.25">
+    <row r="265" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G265" s="1" t="s">
         <v>367</v>
       </c>
@@ -20403,7 +20405,7 @@
         <v>64561</v>
       </c>
     </row>
-    <row r="266" spans="7:10" ht="14.25">
+    <row r="266" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G266" s="1" t="s">
         <v>366</v>
       </c>
@@ -20417,7 +20419,7 @@
         <v>64562</v>
       </c>
     </row>
-    <row r="267" spans="7:10" ht="14.25">
+    <row r="267" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G267" s="1" t="s">
         <v>365</v>
       </c>
@@ -20431,7 +20433,7 @@
         <v>64563</v>
       </c>
     </row>
-    <row r="268" spans="7:10" ht="14.25">
+    <row r="268" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G268" s="1" t="s">
         <v>364</v>
       </c>
@@ -20445,7 +20447,7 @@
         <v>64564</v>
       </c>
     </row>
-    <row r="269" spans="7:10" ht="14.25">
+    <row r="269" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G269" s="1" t="s">
         <v>363</v>
       </c>
@@ -20459,7 +20461,7 @@
         <v>64565</v>
       </c>
     </row>
-    <row r="270" spans="7:10" ht="14.25">
+    <row r="270" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G270" s="1" t="s">
         <v>362</v>
       </c>
@@ -20473,7 +20475,7 @@
         <v>64566</v>
       </c>
     </row>
-    <row r="271" spans="7:10" ht="14.25">
+    <row r="271" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G271" s="1" t="s">
         <v>361</v>
       </c>
@@ -20487,7 +20489,7 @@
         <v>64567</v>
       </c>
     </row>
-    <row r="272" spans="7:10" ht="14.25">
+    <row r="272" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G272" s="1" t="s">
         <v>360</v>
       </c>
@@ -20501,7 +20503,7 @@
         <v>64568</v>
       </c>
     </row>
-    <row r="273" spans="7:10" ht="14.25">
+    <row r="273" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G273" s="1" t="s">
         <v>359</v>
       </c>
@@ -20515,7 +20517,7 @@
         <v>64569</v>
       </c>
     </row>
-    <row r="274" spans="7:10" ht="14.25">
+    <row r="274" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G274" s="1" t="s">
         <v>358</v>
       </c>
@@ -20529,7 +20531,7 @@
         <v>64570</v>
       </c>
     </row>
-    <row r="275" spans="7:10" ht="14.25">
+    <row r="275" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G275" s="1" t="s">
         <v>357</v>
       </c>
@@ -20543,7 +20545,7 @@
         <v>64571</v>
       </c>
     </row>
-    <row r="276" spans="7:10" ht="14.25">
+    <row r="276" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G276" s="1" t="s">
         <v>356</v>
       </c>
@@ -20557,7 +20559,7 @@
         <v>64572</v>
       </c>
     </row>
-    <row r="277" spans="7:10" ht="14.25">
+    <row r="277" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G277" s="1" t="s">
         <v>355</v>
       </c>
@@ -20571,7 +20573,7 @@
         <v>64573</v>
       </c>
     </row>
-    <row r="278" spans="7:10" ht="14.25">
+    <row r="278" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G278" s="1" t="s">
         <v>354</v>
       </c>
@@ -20585,7 +20587,7 @@
         <v>64574</v>
       </c>
     </row>
-    <row r="279" spans="7:10" ht="14.25">
+    <row r="279" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G279" s="1" t="s">
         <v>353</v>
       </c>
@@ -20599,7 +20601,7 @@
         <v>64575</v>
       </c>
     </row>
-    <row r="280" spans="7:10" ht="14.25">
+    <row r="280" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G280" s="1" t="s">
         <v>352</v>
       </c>
@@ -20613,7 +20615,7 @@
         <v>64576</v>
       </c>
     </row>
-    <row r="281" spans="7:10" ht="14.25">
+    <row r="281" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G281" s="1" t="s">
         <v>351</v>
       </c>
@@ -20627,7 +20629,7 @@
         <v>64577</v>
       </c>
     </row>
-    <row r="282" spans="7:10" ht="14.25">
+    <row r="282" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G282" s="1" t="s">
         <v>350</v>
       </c>
@@ -20641,7 +20643,7 @@
         <v>64578</v>
       </c>
     </row>
-    <row r="283" spans="7:10" ht="14.25">
+    <row r="283" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G283" s="1" t="s">
         <v>349</v>
       </c>
@@ -20655,7 +20657,7 @@
         <v>64579</v>
       </c>
     </row>
-    <row r="284" spans="7:10" ht="14.25">
+    <row r="284" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G284" s="1" t="s">
         <v>348</v>
       </c>
@@ -20669,7 +20671,7 @@
         <v>64580</v>
       </c>
     </row>
-    <row r="285" spans="7:10" ht="14.25">
+    <row r="285" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G285" s="1" t="s">
         <v>347</v>
       </c>
@@ -20683,7 +20685,7 @@
         <v>64581</v>
       </c>
     </row>
-    <row r="286" spans="7:10" ht="14.25">
+    <row r="286" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G286" s="1" t="s">
         <v>346</v>
       </c>
@@ -20697,7 +20699,7 @@
         <v>64582</v>
       </c>
     </row>
-    <row r="287" spans="7:10" ht="14.25">
+    <row r="287" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G287" s="1" t="s">
         <v>345</v>
       </c>
@@ -20711,7 +20713,7 @@
         <v>64583</v>
       </c>
     </row>
-    <row r="288" spans="7:10" ht="14.25">
+    <row r="288" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G288" s="1" t="s">
         <v>344</v>
       </c>
@@ -20725,7 +20727,7 @@
         <v>64584</v>
       </c>
     </row>
-    <row r="289" spans="7:10" ht="14.25">
+    <row r="289" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G289" s="1" t="s">
         <v>343</v>
       </c>
@@ -20739,7 +20741,7 @@
         <v>64585</v>
       </c>
     </row>
-    <row r="290" spans="7:10" ht="14.25">
+    <row r="290" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G290" s="1" t="s">
         <v>342</v>
       </c>
@@ -20753,7 +20755,7 @@
         <v>64586</v>
       </c>
     </row>
-    <row r="291" spans="7:10" ht="14.25">
+    <row r="291" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G291" s="1" t="s">
         <v>341</v>
       </c>
@@ -20767,7 +20769,7 @@
         <v>64587</v>
       </c>
     </row>
-    <row r="292" spans="7:10" ht="14.25">
+    <row r="292" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G292" s="1" t="s">
         <v>340</v>
       </c>
@@ -20781,7 +20783,7 @@
         <v>64588</v>
       </c>
     </row>
-    <row r="293" spans="7:10" ht="14.25">
+    <row r="293" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G293" s="1" t="s">
         <v>339</v>
       </c>
@@ -20795,7 +20797,7 @@
         <v>64589</v>
       </c>
     </row>
-    <row r="294" spans="7:10" ht="14.25">
+    <row r="294" spans="7:10" ht="28.8" x14ac:dyDescent="0.25">
       <c r="G294" s="1" t="s">
         <v>338</v>
       </c>
@@ -20809,7 +20811,7 @@
         <v>64590</v>
       </c>
     </row>
-    <row r="295" spans="7:10" ht="14.25">
+    <row r="295" spans="7:10" ht="28.8" x14ac:dyDescent="0.25">
       <c r="G295" s="1" t="s">
         <v>337</v>
       </c>
@@ -20823,7 +20825,7 @@
         <v>64591</v>
       </c>
     </row>
-    <row r="296" spans="7:10" ht="14.25">
+    <row r="296" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G296" s="1" t="s">
         <v>336</v>
       </c>
@@ -20837,7 +20839,7 @@
         <v>64592</v>
       </c>
     </row>
-    <row r="297" spans="7:10" ht="14.25">
+    <row r="297" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G297" s="1" t="s">
         <v>335</v>
       </c>
@@ -20851,7 +20853,7 @@
         <v>64517</v>
       </c>
     </row>
-    <row r="298" spans="7:10" ht="14.25">
+    <row r="298" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G298" s="1" t="s">
         <v>334</v>
       </c>
@@ -20865,7 +20867,7 @@
         <v>64594</v>
       </c>
     </row>
-    <row r="299" spans="7:10" ht="14.25">
+    <row r="299" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G299" s="1" t="s">
         <v>333</v>
       </c>
@@ -20879,7 +20881,7 @@
         <v>64595</v>
       </c>
     </row>
-    <row r="300" spans="7:10" ht="14.25">
+    <row r="300" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G300" s="1" t="s">
         <v>332</v>
       </c>
@@ -20893,7 +20895,7 @@
         <v>64596</v>
       </c>
     </row>
-    <row r="301" spans="7:10" ht="14.25">
+    <row r="301" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G301" s="1" t="s">
         <v>331</v>
       </c>
@@ -20907,7 +20909,7 @@
         <v>64597</v>
       </c>
     </row>
-    <row r="302" spans="7:10" ht="14.25">
+    <row r="302" spans="7:10" ht="28.8" x14ac:dyDescent="0.25">
       <c r="G302" s="1" t="s">
         <v>330</v>
       </c>
@@ -20921,7 +20923,7 @@
         <v>64598</v>
       </c>
     </row>
-    <row r="303" spans="7:10" ht="14.25">
+    <row r="303" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G303" s="1" t="s">
         <v>329</v>
       </c>
@@ -20935,7 +20937,7 @@
         <v>64600</v>
       </c>
     </row>
-    <row r="304" spans="7:10" ht="14.25">
+    <row r="304" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G304" s="1" t="s">
         <v>328</v>
       </c>
@@ -20949,7 +20951,7 @@
         <v>64517</v>
       </c>
     </row>
-    <row r="305" spans="7:10" ht="14.25">
+    <row r="305" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G305" s="1" t="s">
         <v>327</v>
       </c>
@@ -20963,7 +20965,7 @@
         <v>64601</v>
       </c>
     </row>
-    <row r="306" spans="7:10" ht="14.25">
+    <row r="306" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G306" s="1" t="s">
         <v>326</v>
       </c>
@@ -20977,7 +20979,7 @@
         <v>64602</v>
       </c>
     </row>
-    <row r="307" spans="7:10" ht="14.25">
+    <row r="307" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G307" s="1" t="s">
         <v>325</v>
       </c>
@@ -20991,7 +20993,7 @@
         <v>64614</v>
       </c>
     </row>
-    <row r="308" spans="7:10" ht="14.25">
+    <row r="308" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G308" s="1" t="s">
         <v>324</v>
       </c>
@@ -21005,7 +21007,7 @@
         <v>64603</v>
       </c>
     </row>
-    <row r="309" spans="7:10" ht="14.25">
+    <row r="309" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G309" s="1" t="s">
         <v>323</v>
       </c>
@@ -21019,7 +21021,7 @@
         <v>64604</v>
       </c>
     </row>
-    <row r="310" spans="7:10" ht="14.25">
+    <row r="310" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G310" s="1" t="s">
         <v>322</v>
       </c>
@@ -21033,7 +21035,7 @@
         <v>64605</v>
       </c>
     </row>
-    <row r="311" spans="7:10" ht="14.25">
+    <row r="311" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G311" s="1" t="s">
         <v>321</v>
       </c>
@@ -21047,7 +21049,7 @@
         <v>64606</v>
       </c>
     </row>
-    <row r="312" spans="7:10" ht="14.25">
+    <row r="312" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G312" s="1" t="s">
         <v>320</v>
       </c>
@@ -21061,7 +21063,7 @@
         <v>64607</v>
       </c>
     </row>
-    <row r="313" spans="7:10" ht="14.25">
+    <row r="313" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G313" s="1" t="s">
         <v>319</v>
       </c>
@@ -21075,7 +21077,7 @@
         <v>64608</v>
       </c>
     </row>
-    <row r="314" spans="7:10" ht="14.25">
+    <row r="314" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G314" s="1" t="s">
         <v>318</v>
       </c>
@@ -21089,7 +21091,7 @@
         <v>64609</v>
       </c>
     </row>
-    <row r="315" spans="7:10" ht="14.25">
+    <row r="315" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G315" s="1" t="s">
         <v>317</v>
       </c>
@@ -21103,7 +21105,7 @@
         <v>64610</v>
       </c>
     </row>
-    <row r="316" spans="7:10" ht="14.25">
+    <row r="316" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G316" s="1" t="s">
         <v>316</v>
       </c>
@@ -21117,7 +21119,7 @@
         <v>64611</v>
       </c>
     </row>
-    <row r="317" spans="7:10" ht="14.25">
+    <row r="317" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G317" s="1" t="s">
         <v>315</v>
       </c>
@@ -21131,7 +21133,7 @@
         <v>64615</v>
       </c>
     </row>
-    <row r="318" spans="7:10" ht="14.25">
+    <row r="318" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G318" s="1" t="s">
         <v>314</v>
       </c>
@@ -21145,7 +21147,7 @@
         <v>64616</v>
       </c>
     </row>
-    <row r="319" spans="7:10" ht="14.25">
+    <row r="319" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G319" s="1" t="s">
         <v>313</v>
       </c>
@@ -21159,7 +21161,7 @@
         <v>64617</v>
       </c>
     </row>
-    <row r="320" spans="7:10" ht="14.25">
+    <row r="320" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G320" s="1" t="s">
         <v>311</v>
       </c>
@@ -21173,7 +21175,7 @@
         <v>64767</v>
       </c>
     </row>
-    <row r="321" spans="7:10" ht="14.25">
+    <row r="321" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G321" s="1" t="s">
         <v>309</v>
       </c>
@@ -21187,7 +21189,7 @@
         <v>64768</v>
       </c>
     </row>
-    <row r="322" spans="7:10" ht="14.25">
+    <row r="322" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G322" s="1" t="s">
         <v>308</v>
       </c>
@@ -21201,7 +21203,7 @@
         <v>64769</v>
       </c>
     </row>
-    <row r="323" spans="7:10" ht="14.25">
+    <row r="323" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G323" s="1" t="s">
         <v>307</v>
       </c>
@@ -21215,7 +21217,7 @@
         <v>64770</v>
       </c>
     </row>
-    <row r="324" spans="7:10" ht="14.25">
+    <row r="324" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G324" s="1" t="s">
         <v>306</v>
       </c>
@@ -21229,7 +21231,7 @@
         <v>64771</v>
       </c>
     </row>
-    <row r="325" spans="7:10" ht="14.25">
+    <row r="325" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G325" s="1" t="s">
         <v>305</v>
       </c>
@@ -21243,7 +21245,7 @@
         <v>64772</v>
       </c>
     </row>
-    <row r="326" spans="7:10" ht="14.25">
+    <row r="326" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G326" s="1" t="s">
         <v>304</v>
       </c>
@@ -21257,7 +21259,7 @@
         <v>64773</v>
       </c>
     </row>
-    <row r="327" spans="7:10" ht="14.25">
+    <row r="327" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G327" s="1" t="s">
         <v>303</v>
       </c>
@@ -21271,7 +21273,7 @@
         <v>64774</v>
       </c>
     </row>
-    <row r="328" spans="7:10" ht="14.25">
+    <row r="328" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G328" s="1" t="s">
         <v>302</v>
       </c>
@@ -21285,7 +21287,7 @@
         <v>64776</v>
       </c>
     </row>
-    <row r="329" spans="7:10" ht="14.25">
+    <row r="329" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G329" s="1" t="s">
         <v>301</v>
       </c>
@@ -21299,7 +21301,7 @@
         <v>64777</v>
       </c>
     </row>
-    <row r="330" spans="7:10" ht="14.25">
+    <row r="330" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G330" s="1" t="s">
         <v>300</v>
       </c>
@@ -21313,7 +21315,7 @@
         <v>64778</v>
       </c>
     </row>
-    <row r="331" spans="7:10" ht="14.25">
+    <row r="331" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G331" s="1" t="s">
         <v>299</v>
       </c>
@@ -21327,7 +21329,7 @@
         <v>64779</v>
       </c>
     </row>
-    <row r="332" spans="7:10" ht="14.25">
+    <row r="332" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G332" s="1" t="s">
         <v>298</v>
       </c>
@@ -21341,7 +21343,7 @@
         <v>64780</v>
       </c>
     </row>
-    <row r="333" spans="7:10" ht="14.25">
+    <row r="333" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G333" s="1" t="s">
         <v>297</v>
       </c>
@@ -21355,7 +21357,7 @@
         <v>64781</v>
       </c>
     </row>
-    <row r="334" spans="7:10" ht="14.25">
+    <row r="334" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G334" s="1" t="s">
         <v>296</v>
       </c>
@@ -21369,7 +21371,7 @@
         <v>64782</v>
       </c>
     </row>
-    <row r="335" spans="7:10" ht="14.25">
+    <row r="335" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G335" s="1" t="s">
         <v>295</v>
       </c>
@@ -21383,7 +21385,7 @@
         <v>64783</v>
       </c>
     </row>
-    <row r="336" spans="7:10" ht="14.25">
+    <row r="336" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G336" s="1" t="s">
         <v>294</v>
       </c>
@@ -21397,7 +21399,7 @@
         <v>64784</v>
       </c>
     </row>
-    <row r="337" spans="7:10" ht="14.25">
+    <row r="337" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G337" s="1" t="s">
         <v>293</v>
       </c>
@@ -21411,7 +21413,7 @@
         <v>64785</v>
       </c>
     </row>
-    <row r="338" spans="7:10" ht="14.25">
+    <row r="338" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G338" s="1" t="s">
         <v>292</v>
       </c>
@@ -21425,7 +21427,7 @@
         <v>64786</v>
       </c>
     </row>
-    <row r="339" spans="7:10" ht="14.25">
+    <row r="339" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G339" s="1" t="s">
         <v>291</v>
       </c>
@@ -21439,7 +21441,7 @@
         <v>64787</v>
       </c>
     </row>
-    <row r="340" spans="7:10" ht="14.25">
+    <row r="340" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G340" s="1" t="s">
         <v>290</v>
       </c>
@@ -21453,7 +21455,7 @@
         <v>64788</v>
       </c>
     </row>
-    <row r="341" spans="7:10" ht="14.25">
+    <row r="341" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G341" s="1" t="s">
         <v>289</v>
       </c>
@@ -21467,7 +21469,7 @@
         <v>64789</v>
       </c>
     </row>
-    <row r="342" spans="7:10" ht="14.25">
+    <row r="342" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G342" s="1" t="s">
         <v>288</v>
       </c>
@@ -21481,7 +21483,7 @@
         <v>64790</v>
       </c>
     </row>
-    <row r="343" spans="7:10" ht="14.25">
+    <row r="343" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G343" s="1" t="s">
         <v>287</v>
       </c>
@@ -21495,7 +21497,7 @@
         <v>64791</v>
       </c>
     </row>
-    <row r="344" spans="7:10" ht="14.25">
+    <row r="344" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G344" s="1" t="s">
         <v>286</v>
       </c>
@@ -21509,7 +21511,7 @@
         <v>64792</v>
       </c>
     </row>
-    <row r="345" spans="7:10" ht="14.25">
+    <row r="345" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G345" s="1" t="s">
         <v>285</v>
       </c>
@@ -21523,7 +21525,7 @@
         <v>64793</v>
       </c>
     </row>
-    <row r="346" spans="7:10" ht="14.25">
+    <row r="346" spans="7:10" ht="28.8" x14ac:dyDescent="0.25">
       <c r="G346" s="1" t="s">
         <v>284</v>
       </c>
@@ -21537,7 +21539,7 @@
         <v>64794</v>
       </c>
     </row>
-    <row r="347" spans="7:10" ht="14.25">
+    <row r="347" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G347" s="1" t="s">
         <v>283</v>
       </c>
@@ -21551,7 +21553,7 @@
         <v>64795</v>
       </c>
     </row>
-    <row r="348" spans="7:10" ht="14.25">
+    <row r="348" spans="7:10" ht="28.8" x14ac:dyDescent="0.25">
       <c r="G348" s="1" t="s">
         <v>282</v>
       </c>
@@ -21565,7 +21567,7 @@
         <v>64796</v>
       </c>
     </row>
-    <row r="349" spans="7:10" ht="14.25">
+    <row r="349" spans="7:10" ht="28.8" x14ac:dyDescent="0.25">
       <c r="G349" s="1" t="s">
         <v>281</v>
       </c>
@@ -21579,7 +21581,7 @@
         <v>64797</v>
       </c>
     </row>
-    <row r="350" spans="7:10" ht="14.25">
+    <row r="350" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G350" s="1" t="s">
         <v>280</v>
       </c>
@@ -21593,7 +21595,7 @@
         <v>64798</v>
       </c>
     </row>
-    <row r="351" spans="7:10" ht="28.5">
+    <row r="351" spans="7:10" ht="28.8" x14ac:dyDescent="0.25">
       <c r="G351" s="1" t="s">
         <v>279</v>
       </c>
@@ -21607,7 +21609,7 @@
         <v>64799</v>
       </c>
     </row>
-    <row r="352" spans="7:10" ht="28.5">
+    <row r="352" spans="7:10" ht="28.8" x14ac:dyDescent="0.25">
       <c r="G352" s="1" t="s">
         <v>278</v>
       </c>
@@ -21621,7 +21623,7 @@
         <v>64800</v>
       </c>
     </row>
-    <row r="353" spans="7:10" ht="14.25">
+    <row r="353" spans="7:10" ht="28.8" x14ac:dyDescent="0.25">
       <c r="G353" s="1" t="s">
         <v>277</v>
       </c>
@@ -21635,7 +21637,7 @@
         <v>64801</v>
       </c>
     </row>
-    <row r="354" spans="7:10" ht="14.25">
+    <row r="354" spans="7:10" ht="28.8" x14ac:dyDescent="0.25">
       <c r="G354" s="1" t="s">
         <v>276</v>
       </c>
@@ -21649,7 +21651,7 @@
         <v>64802</v>
       </c>
     </row>
-    <row r="355" spans="7:10" ht="28.5">
+    <row r="355" spans="7:10" ht="28.8" x14ac:dyDescent="0.25">
       <c r="G355" s="1" t="s">
         <v>275</v>
       </c>
@@ -21663,7 +21665,7 @@
         <v>64803</v>
       </c>
     </row>
-    <row r="356" spans="7:10" ht="14.25">
+    <row r="356" spans="7:10" ht="28.8" x14ac:dyDescent="0.25">
       <c r="G356" s="1" t="s">
         <v>274</v>
       </c>
@@ -21677,7 +21679,7 @@
         <v>64804</v>
       </c>
     </row>
-    <row r="357" spans="7:10" ht="14.25">
+    <row r="357" spans="7:10" ht="28.8" x14ac:dyDescent="0.25">
       <c r="G357" s="1" t="s">
         <v>273</v>
       </c>
@@ -21691,7 +21693,7 @@
         <v>64805</v>
       </c>
     </row>
-    <row r="358" spans="7:10" ht="14.25">
+    <row r="358" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G358" s="1" t="s">
         <v>272</v>
       </c>
@@ -21705,7 +21707,7 @@
         <v>64806</v>
       </c>
     </row>
-    <row r="359" spans="7:10" ht="14.25">
+    <row r="359" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G359" s="1" t="s">
         <v>271</v>
       </c>
@@ -21719,7 +21721,7 @@
         <v>64807</v>
       </c>
     </row>
-    <row r="360" spans="7:10" ht="14.25">
+    <row r="360" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G360" s="1" t="s">
         <v>270</v>
       </c>
@@ -21733,7 +21735,7 @@
         <v>64808</v>
       </c>
     </row>
-    <row r="361" spans="7:10" ht="14.25">
+    <row r="361" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G361" s="1" t="s">
         <v>269</v>
       </c>
@@ -21747,7 +21749,7 @@
         <v>64809</v>
       </c>
     </row>
-    <row r="362" spans="7:10" ht="14.25">
+    <row r="362" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G362" s="1" t="s">
         <v>268</v>
       </c>
@@ -21761,7 +21763,7 @@
         <v>64810</v>
       </c>
     </row>
-    <row r="363" spans="7:10" ht="14.25">
+    <row r="363" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G363" s="1" t="s">
         <v>267</v>
       </c>
@@ -21775,7 +21777,7 @@
         <v>64811</v>
       </c>
     </row>
-    <row r="364" spans="7:10" ht="14.25">
+    <row r="364" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G364" s="1" t="s">
         <v>266</v>
       </c>
@@ -21789,7 +21791,7 @@
         <v>64812</v>
       </c>
     </row>
-    <row r="365" spans="7:10" ht="14.25">
+    <row r="365" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G365" s="1" t="s">
         <v>265</v>
       </c>
@@ -21803,7 +21805,7 @@
         <v>64813</v>
       </c>
     </row>
-    <row r="366" spans="7:10" ht="14.25">
+    <row r="366" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G366" s="1" t="s">
         <v>264</v>
       </c>
@@ -21817,7 +21819,7 @@
         <v>64814</v>
       </c>
     </row>
-    <row r="367" spans="7:10" ht="14.25">
+    <row r="367" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G367" s="1" t="s">
         <v>263</v>
       </c>
@@ -21831,7 +21833,7 @@
         <v>64815</v>
       </c>
     </row>
-    <row r="368" spans="7:10" ht="14.25">
+    <row r="368" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G368" s="1" t="s">
         <v>262</v>
       </c>
@@ -21845,7 +21847,7 @@
         <v>64816</v>
       </c>
     </row>
-    <row r="369" spans="7:10" ht="14.25">
+    <row r="369" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G369" s="1" t="s">
         <v>261</v>
       </c>
@@ -21859,7 +21861,7 @@
         <v>64817</v>
       </c>
     </row>
-    <row r="370" spans="7:10" ht="14.25">
+    <row r="370" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G370" s="1" t="s">
         <v>260</v>
       </c>
@@ -21873,7 +21875,7 @@
         <v>64818</v>
       </c>
     </row>
-    <row r="371" spans="7:10" ht="14.25">
+    <row r="371" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G371" s="1" t="s">
         <v>259</v>
       </c>
@@ -21887,7 +21889,7 @@
         <v>64819</v>
       </c>
     </row>
-    <row r="372" spans="7:10" ht="14.25">
+    <row r="372" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G372" s="1" t="s">
         <v>258</v>
       </c>
@@ -21901,7 +21903,7 @@
         <v>64820</v>
       </c>
     </row>
-    <row r="373" spans="7:10" ht="14.25">
+    <row r="373" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G373" s="1" t="s">
         <v>257</v>
       </c>
@@ -21915,7 +21917,7 @@
         <v>64821</v>
       </c>
     </row>
-    <row r="374" spans="7:10" ht="14.25">
+    <row r="374" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G374" s="1" t="s">
         <v>256</v>
       </c>
@@ -21929,7 +21931,7 @@
         <v>64822</v>
       </c>
     </row>
-    <row r="375" spans="7:10" ht="14.25">
+    <row r="375" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G375" s="1" t="s">
         <v>255</v>
       </c>
@@ -21943,7 +21945,7 @@
         <v>64823</v>
       </c>
     </row>
-    <row r="376" spans="7:10" ht="14.25">
+    <row r="376" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G376" s="1" t="s">
         <v>254</v>
       </c>
@@ -21957,7 +21959,7 @@
         <v>64824</v>
       </c>
     </row>
-    <row r="377" spans="7:10" ht="14.25">
+    <row r="377" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G377" s="1" t="s">
         <v>253</v>
       </c>
@@ -21971,7 +21973,7 @@
         <v>64825</v>
       </c>
     </row>
-    <row r="378" spans="7:10" ht="14.25">
+    <row r="378" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G378" s="1" t="s">
         <v>252</v>
       </c>
@@ -21985,7 +21987,7 @@
         <v>64826</v>
       </c>
     </row>
-    <row r="379" spans="7:10" ht="14.25">
+    <row r="379" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G379" s="1" t="s">
         <v>251</v>
       </c>
@@ -21999,7 +22001,7 @@
         <v>64827</v>
       </c>
     </row>
-    <row r="380" spans="7:10" ht="14.25">
+    <row r="380" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G380" s="1" t="s">
         <v>250</v>
       </c>
@@ -22013,7 +22015,7 @@
         <v>64828</v>
       </c>
     </row>
-    <row r="381" spans="7:10" ht="14.25">
+    <row r="381" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G381" s="1" t="s">
         <v>249</v>
       </c>
@@ -22027,7 +22029,7 @@
         <v>64829</v>
       </c>
     </row>
-    <row r="382" spans="7:10" ht="14.25">
+    <row r="382" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G382" s="1" t="s">
         <v>248</v>
       </c>
@@ -22041,7 +22043,7 @@
         <v>64830</v>
       </c>
     </row>
-    <row r="383" spans="7:10" ht="14.25">
+    <row r="383" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G383" s="1" t="s">
         <v>247</v>
       </c>
@@ -22055,7 +22057,7 @@
         <v>64831</v>
       </c>
     </row>
-    <row r="384" spans="7:10" ht="14.25">
+    <row r="384" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G384" s="1" t="s">
         <v>246</v>
       </c>
@@ -22069,7 +22071,7 @@
         <v>64832</v>
       </c>
     </row>
-    <row r="385" spans="7:10" ht="14.25">
+    <row r="385" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G385" s="1" t="s">
         <v>245</v>
       </c>
@@ -22083,7 +22085,7 @@
         <v>64833</v>
       </c>
     </row>
-    <row r="386" spans="7:10" ht="14.25">
+    <row r="386" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G386" s="1" t="s">
         <v>244</v>
       </c>
@@ -22097,7 +22099,7 @@
         <v>64834</v>
       </c>
     </row>
-    <row r="387" spans="7:10" ht="14.25">
+    <row r="387" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G387" s="1" t="s">
         <v>243</v>
       </c>
@@ -22111,7 +22113,7 @@
         <v>64835</v>
       </c>
     </row>
-    <row r="388" spans="7:10" ht="14.25">
+    <row r="388" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G388" s="1" t="s">
         <v>242</v>
       </c>
@@ -22125,7 +22127,7 @@
         <v>64836</v>
       </c>
     </row>
-    <row r="389" spans="7:10" ht="14.25">
+    <row r="389" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G389" s="1" t="s">
         <v>241</v>
       </c>
@@ -22139,7 +22141,7 @@
         <v>64837</v>
       </c>
     </row>
-    <row r="390" spans="7:10" ht="14.25">
+    <row r="390" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G390" s="1" t="s">
         <v>240</v>
       </c>
@@ -22153,7 +22155,7 @@
         <v>64838</v>
       </c>
     </row>
-    <row r="391" spans="7:10" ht="14.25">
+    <row r="391" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G391" s="1" t="s">
         <v>239</v>
       </c>
@@ -22167,7 +22169,7 @@
         <v>64839</v>
       </c>
     </row>
-    <row r="392" spans="7:10" ht="14.25">
+    <row r="392" spans="7:10" ht="28.8" x14ac:dyDescent="0.25">
       <c r="G392" s="1" t="s">
         <v>238</v>
       </c>
@@ -22181,7 +22183,7 @@
         <v>64840</v>
       </c>
     </row>
-    <row r="393" spans="7:10" ht="14.25">
+    <row r="393" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G393" s="1" t="s">
         <v>237</v>
       </c>
@@ -22195,7 +22197,7 @@
         <v>64841</v>
       </c>
     </row>
-    <row r="394" spans="7:10" ht="14.25">
+    <row r="394" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G394" s="1" t="s">
         <v>236</v>
       </c>
@@ -22209,7 +22211,7 @@
         <v>64842</v>
       </c>
     </row>
-    <row r="395" spans="7:10" ht="14.25">
+    <row r="395" spans="7:10" ht="28.8" x14ac:dyDescent="0.25">
       <c r="G395" s="1" t="s">
         <v>235</v>
       </c>
@@ -22223,7 +22225,7 @@
         <v>64843</v>
       </c>
     </row>
-    <row r="396" spans="7:10" ht="14.25">
+    <row r="396" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G396" s="1" t="s">
         <v>234</v>
       </c>
@@ -22237,7 +22239,7 @@
         <v>64844</v>
       </c>
     </row>
-    <row r="397" spans="7:10" ht="14.25">
+    <row r="397" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G397" s="1" t="s">
         <v>233</v>
       </c>
@@ -22251,7 +22253,7 @@
         <v>64845</v>
       </c>
     </row>
-    <row r="398" spans="7:10" ht="28.5">
+    <row r="398" spans="7:10" ht="28.8" x14ac:dyDescent="0.25">
       <c r="G398" s="1" t="s">
         <v>232</v>
       </c>
@@ -22265,7 +22267,7 @@
         <v>64846</v>
       </c>
     </row>
-    <row r="399" spans="7:10" ht="28.5">
+    <row r="399" spans="7:10" ht="28.8" x14ac:dyDescent="0.25">
       <c r="G399" s="1" t="s">
         <v>231</v>
       </c>
@@ -22279,7 +22281,7 @@
         <v>64847</v>
       </c>
     </row>
-    <row r="400" spans="7:10" ht="14.25">
+    <row r="400" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G400" s="1" t="s">
         <v>230</v>
       </c>
@@ -22293,7 +22295,7 @@
         <v>64848</v>
       </c>
     </row>
-    <row r="401" spans="7:10" ht="14.25">
+    <row r="401" spans="7:10" ht="28.8" x14ac:dyDescent="0.25">
       <c r="G401" s="1" t="s">
         <v>229</v>
       </c>
@@ -22307,7 +22309,7 @@
         <v>64773</v>
       </c>
     </row>
-    <row r="402" spans="7:10" ht="14.25">
+    <row r="402" spans="7:10" ht="28.8" x14ac:dyDescent="0.25">
       <c r="G402" s="1" t="s">
         <v>228</v>
       </c>
@@ -22321,7 +22323,7 @@
         <v>64850</v>
       </c>
     </row>
-    <row r="403" spans="7:10" ht="14.25">
+    <row r="403" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G403" s="1" t="s">
         <v>227</v>
       </c>
@@ -22335,7 +22337,7 @@
         <v>64851</v>
       </c>
     </row>
-    <row r="404" spans="7:10" ht="14.25">
+    <row r="404" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G404" s="1" t="s">
         <v>226</v>
       </c>
@@ -22349,7 +22351,7 @@
         <v>64852</v>
       </c>
     </row>
-    <row r="405" spans="7:10" ht="14.25">
+    <row r="405" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G405" s="1" t="s">
         <v>225</v>
       </c>
@@ -22363,7 +22365,7 @@
         <v>64853</v>
       </c>
     </row>
-    <row r="406" spans="7:10" ht="28.5">
+    <row r="406" spans="7:10" ht="28.8" x14ac:dyDescent="0.25">
       <c r="G406" s="1" t="s">
         <v>224</v>
       </c>
@@ -22377,7 +22379,7 @@
         <v>64854</v>
       </c>
     </row>
-    <row r="407" spans="7:10" ht="14.25">
+    <row r="407" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G407" s="1" t="s">
         <v>223</v>
       </c>
@@ -22391,7 +22393,7 @@
         <v>64856</v>
       </c>
     </row>
-    <row r="408" spans="7:10" ht="14.25">
+    <row r="408" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G408" s="1" t="s">
         <v>222</v>
       </c>
@@ -22405,7 +22407,7 @@
         <v>64773</v>
       </c>
     </row>
-    <row r="409" spans="7:10" ht="14.25">
+    <row r="409" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G409" s="1" t="s">
         <v>221</v>
       </c>
@@ -22419,7 +22421,7 @@
         <v>64857</v>
       </c>
     </row>
-    <row r="410" spans="7:10" ht="14.25">
+    <row r="410" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G410" s="1" t="s">
         <v>220</v>
       </c>
@@ -22433,7 +22435,7 @@
         <v>64858</v>
       </c>
     </row>
-    <row r="411" spans="7:10" ht="14.25">
+    <row r="411" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G411" s="1" t="s">
         <v>219</v>
       </c>
@@ -22447,7 +22449,7 @@
         <v>64870</v>
       </c>
     </row>
-    <row r="412" spans="7:10" ht="14.25">
+    <row r="412" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G412" s="1" t="s">
         <v>218</v>
       </c>
@@ -22461,7 +22463,7 @@
         <v>64859</v>
       </c>
     </row>
-    <row r="413" spans="7:10" ht="14.25">
+    <row r="413" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G413" s="1" t="s">
         <v>217</v>
       </c>
@@ -22475,7 +22477,7 @@
         <v>64860</v>
       </c>
     </row>
-    <row r="414" spans="7:10" ht="14.25">
+    <row r="414" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G414" s="1" t="s">
         <v>216</v>
       </c>
@@ -22489,7 +22491,7 @@
         <v>64861</v>
       </c>
     </row>
-    <row r="415" spans="7:10" ht="14.25">
+    <row r="415" spans="7:10" ht="28.8" x14ac:dyDescent="0.25">
       <c r="G415" s="1" t="s">
         <v>215</v>
       </c>
@@ -22503,7 +22505,7 @@
         <v>64862</v>
       </c>
     </row>
-    <row r="416" spans="7:10" ht="14.25">
+    <row r="416" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G416" s="1" t="s">
         <v>214</v>
       </c>
@@ -22517,7 +22519,7 @@
         <v>64863</v>
       </c>
     </row>
-    <row r="417" spans="7:10" ht="14.25">
+    <row r="417" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G417" s="1" t="s">
         <v>213</v>
       </c>
@@ -22531,7 +22533,7 @@
         <v>64864</v>
       </c>
     </row>
-    <row r="418" spans="7:10" ht="14.25">
+    <row r="418" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G418" s="1" t="s">
         <v>212</v>
       </c>
@@ -22545,7 +22547,7 @@
         <v>64865</v>
       </c>
     </row>
-    <row r="419" spans="7:10" ht="14.25">
+    <row r="419" spans="7:10" ht="28.8" x14ac:dyDescent="0.25">
       <c r="G419" s="1" t="s">
         <v>211</v>
       </c>
@@ -22559,7 +22561,7 @@
         <v>64866</v>
       </c>
     </row>
-    <row r="420" spans="7:10" ht="14.25">
+    <row r="420" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G420" s="1" t="s">
         <v>210</v>
       </c>
@@ -22573,7 +22575,7 @@
         <v>64867</v>
       </c>
     </row>
-    <row r="421" spans="7:10" ht="14.25">
+    <row r="421" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G421" s="1" t="s">
         <v>209</v>
       </c>
@@ -22587,7 +22589,7 @@
         <v>64871</v>
       </c>
     </row>
-    <row r="422" spans="7:10" ht="14.25">
+    <row r="422" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G422" s="1" t="s">
         <v>208</v>
       </c>
@@ -22601,7 +22603,7 @@
         <v>64872</v>
       </c>
     </row>
-    <row r="423" spans="7:10" ht="14.25">
+    <row r="423" spans="7:10" ht="28.8" x14ac:dyDescent="0.25">
       <c r="G423" s="1" t="s">
         <v>207</v>
       </c>
@@ -22615,7 +22617,7 @@
         <v>65023</v>
       </c>
     </row>
-    <row r="424" spans="7:10" ht="14.25">
+    <row r="424" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G424" s="1" t="s">
         <v>205</v>
       </c>
@@ -22629,7 +22631,7 @@
         <v>65024</v>
       </c>
     </row>
-    <row r="425" spans="7:10" ht="14.25">
+    <row r="425" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G425" s="1" t="s">
         <v>203</v>
       </c>
@@ -22643,7 +22645,7 @@
         <v>65025</v>
       </c>
     </row>
-    <row r="426" spans="7:10" ht="14.25">
+    <row r="426" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G426" s="1" t="s">
         <v>201</v>
       </c>
@@ -22657,7 +22659,7 @@
         <v>65026</v>
       </c>
     </row>
-    <row r="427" spans="7:10" ht="14.25">
+    <row r="427" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G427" s="1" t="s">
         <v>199</v>
       </c>
@@ -22671,7 +22673,7 @@
         <v>65027</v>
       </c>
     </row>
-    <row r="428" spans="7:10" ht="14.25">
+    <row r="428" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G428" s="1" t="s">
         <v>197</v>
       </c>
@@ -22685,7 +22687,7 @@
         <v>65028</v>
       </c>
     </row>
-    <row r="429" spans="7:10" ht="14.25">
+    <row r="429" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G429" s="1" t="s">
         <v>195</v>
       </c>
@@ -22699,7 +22701,7 @@
         <v>65029</v>
       </c>
     </row>
-    <row r="430" spans="7:10" ht="14.25">
+    <row r="430" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G430" s="1" t="s">
         <v>194</v>
       </c>
@@ -22713,7 +22715,7 @@
         <v>65030</v>
       </c>
     </row>
-    <row r="431" spans="7:10" ht="14.25">
+    <row r="431" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G431" s="1" t="s">
         <v>192</v>
       </c>
@@ -22727,7 +22729,7 @@
         <v>65032</v>
       </c>
     </row>
-    <row r="432" spans="7:10" ht="14.25">
+    <row r="432" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G432" s="1" t="s">
         <v>190</v>
       </c>
@@ -22741,7 +22743,7 @@
         <v>65033</v>
       </c>
     </row>
-    <row r="433" spans="7:10" ht="14.25">
+    <row r="433" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G433" s="1" t="s">
         <v>188</v>
       </c>
@@ -22755,7 +22757,7 @@
         <v>65034</v>
       </c>
     </row>
-    <row r="434" spans="7:10" ht="14.25">
+    <row r="434" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G434" s="1" t="s">
         <v>186</v>
       </c>
@@ -22769,7 +22771,7 @@
         <v>65035</v>
       </c>
     </row>
-    <row r="435" spans="7:10" ht="14.25">
+    <row r="435" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G435" s="1" t="s">
         <v>184</v>
       </c>
@@ -22783,7 +22785,7 @@
         <v>65036</v>
       </c>
     </row>
-    <row r="436" spans="7:10" ht="14.25">
+    <row r="436" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G436" s="1" t="s">
         <v>182</v>
       </c>
@@ -22797,7 +22799,7 @@
         <v>65037</v>
       </c>
     </row>
-    <row r="437" spans="7:10" ht="14.25">
+    <row r="437" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G437" s="1" t="s">
         <v>180</v>
       </c>
@@ -22811,7 +22813,7 @@
         <v>65038</v>
       </c>
     </row>
-    <row r="438" spans="7:10" ht="14.25">
+    <row r="438" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G438" s="1" t="s">
         <v>178</v>
       </c>
@@ -22825,7 +22827,7 @@
         <v>65039</v>
       </c>
     </row>
-    <row r="439" spans="7:10" ht="14.25">
+    <row r="439" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G439" s="1" t="s">
         <v>176</v>
       </c>
@@ -22839,7 +22841,7 @@
         <v>65040</v>
       </c>
     </row>
-    <row r="440" spans="7:10" ht="14.25">
+    <row r="440" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G440" s="1" t="s">
         <v>174</v>
       </c>
@@ -22853,7 +22855,7 @@
         <v>65041</v>
       </c>
     </row>
-    <row r="441" spans="7:10" ht="14.25">
+    <row r="441" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G441" s="1" t="s">
         <v>172</v>
       </c>
@@ -22867,7 +22869,7 @@
         <v>65042</v>
       </c>
     </row>
-    <row r="442" spans="7:10" ht="14.25">
+    <row r="442" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G442" s="1" t="s">
         <v>170</v>
       </c>
@@ -22881,7 +22883,7 @@
         <v>65043</v>
       </c>
     </row>
-    <row r="443" spans="7:10" ht="14.25">
+    <row r="443" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G443" s="1" t="s">
         <v>168</v>
       </c>
@@ -22895,7 +22897,7 @@
         <v>65044</v>
       </c>
     </row>
-    <row r="444" spans="7:10" ht="14.25">
+    <row r="444" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G444" s="1" t="s">
         <v>166</v>
       </c>
@@ -22909,7 +22911,7 @@
         <v>65045</v>
       </c>
     </row>
-    <row r="445" spans="7:10" ht="14.25">
+    <row r="445" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G445" s="1" t="s">
         <v>164</v>
       </c>
@@ -22923,7 +22925,7 @@
         <v>65046</v>
       </c>
     </row>
-    <row r="446" spans="7:10" ht="14.25">
+    <row r="446" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G446" s="1" t="s">
         <v>162</v>
       </c>
@@ -22937,7 +22939,7 @@
         <v>65047</v>
       </c>
     </row>
-    <row r="447" spans="7:10" ht="14.25">
+    <row r="447" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G447" s="1" t="s">
         <v>160</v>
       </c>
@@ -22951,7 +22953,7 @@
         <v>65048</v>
       </c>
     </row>
-    <row r="448" spans="7:10" ht="14.25">
+    <row r="448" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G448" s="1" t="s">
         <v>158</v>
       </c>
@@ -22965,7 +22967,7 @@
         <v>65049</v>
       </c>
     </row>
-    <row r="449" spans="7:10" ht="14.25">
+    <row r="449" spans="7:10" ht="28.8" x14ac:dyDescent="0.25">
       <c r="G449" s="1" t="s">
         <v>156</v>
       </c>
@@ -22979,7 +22981,7 @@
         <v>65050</v>
       </c>
     </row>
-    <row r="450" spans="7:10" ht="14.25">
+    <row r="450" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G450" s="1" t="s">
         <v>154</v>
       </c>
@@ -22993,7 +22995,7 @@
         <v>65051</v>
       </c>
     </row>
-    <row r="451" spans="7:10" ht="14.25">
+    <row r="451" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G451" s="1" t="s">
         <v>152</v>
       </c>
@@ -23007,7 +23009,7 @@
         <v>65052</v>
       </c>
     </row>
-    <row r="452" spans="7:10" ht="14.25">
+    <row r="452" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G452" s="1" t="s">
         <v>150</v>
       </c>
@@ -23021,7 +23023,7 @@
         <v>65053</v>
       </c>
     </row>
-    <row r="453" spans="7:10" ht="14.25">
+    <row r="453" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G453" s="1" t="s">
         <v>148</v>
       </c>
@@ -23035,7 +23037,7 @@
         <v>65054</v>
       </c>
     </row>
-    <row r="454" spans="7:10" ht="28.5">
+    <row r="454" spans="7:10" ht="28.8" x14ac:dyDescent="0.25">
       <c r="G454" s="1" t="s">
         <v>146</v>
       </c>
@@ -23049,7 +23051,7 @@
         <v>65055</v>
       </c>
     </row>
-    <row r="455" spans="7:10" ht="28.5">
+    <row r="455" spans="7:10" ht="28.8" x14ac:dyDescent="0.25">
       <c r="G455" s="1" t="s">
         <v>144</v>
       </c>
@@ -23063,7 +23065,7 @@
         <v>65056</v>
       </c>
     </row>
-    <row r="456" spans="7:10" ht="14.25">
+    <row r="456" spans="7:10" ht="28.8" x14ac:dyDescent="0.25">
       <c r="G456" s="1" t="s">
         <v>142</v>
       </c>
@@ -23077,7 +23079,7 @@
         <v>65057</v>
       </c>
     </row>
-    <row r="457" spans="7:10" ht="14.25">
+    <row r="457" spans="7:10" ht="28.8" x14ac:dyDescent="0.25">
       <c r="G457" s="1" t="s">
         <v>140</v>
       </c>
@@ -23091,7 +23093,7 @@
         <v>65058</v>
       </c>
     </row>
-    <row r="458" spans="7:10" ht="14.25">
+    <row r="458" spans="7:10" ht="28.8" x14ac:dyDescent="0.25">
       <c r="G458" s="1" t="s">
         <v>138</v>
       </c>
@@ -23105,7 +23107,7 @@
         <v>65059</v>
       </c>
     </row>
-    <row r="459" spans="7:10" ht="14.25">
+    <row r="459" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G459" s="1" t="s">
         <v>136</v>
       </c>
@@ -23119,7 +23121,7 @@
         <v>65060</v>
       </c>
     </row>
-    <row r="460" spans="7:10" ht="14.25">
+    <row r="460" spans="7:10" ht="28.8" x14ac:dyDescent="0.25">
       <c r="G460" s="1" t="s">
         <v>134</v>
       </c>
@@ -23133,7 +23135,7 @@
         <v>65061</v>
       </c>
     </row>
-    <row r="461" spans="7:10" ht="14.25">
+    <row r="461" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G461" s="1" t="s">
         <v>132</v>
       </c>
@@ -23147,7 +23149,7 @@
         <v>65062</v>
       </c>
     </row>
-    <row r="462" spans="7:10" ht="14.25">
+    <row r="462" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G462" s="1" t="s">
         <v>130</v>
       </c>
@@ -23161,7 +23163,7 @@
         <v>65063</v>
       </c>
     </row>
-    <row r="463" spans="7:10" ht="14.25">
+    <row r="463" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G463" s="1" t="s">
         <v>128</v>
       </c>
@@ -23175,7 +23177,7 @@
         <v>65064</v>
       </c>
     </row>
-    <row r="464" spans="7:10" ht="14.25">
+    <row r="464" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G464" s="1" t="s">
         <v>126</v>
       </c>
@@ -23189,7 +23191,7 @@
         <v>65065</v>
       </c>
     </row>
-    <row r="465" spans="7:10" ht="14.25">
+    <row r="465" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G465" s="1" t="s">
         <v>124</v>
       </c>
@@ -23203,7 +23205,7 @@
         <v>65066</v>
       </c>
     </row>
-    <row r="466" spans="7:10" ht="14.25">
+    <row r="466" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G466" s="1" t="s">
         <v>122</v>
       </c>
@@ -23217,7 +23219,7 @@
         <v>65067</v>
       </c>
     </row>
-    <row r="467" spans="7:10" ht="14.25">
+    <row r="467" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G467" s="1" t="s">
         <v>120</v>
       </c>
@@ -23231,7 +23233,7 @@
         <v>65068</v>
       </c>
     </row>
-    <row r="468" spans="7:10" ht="14.25">
+    <row r="468" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G468" s="1" t="s">
         <v>118</v>
       </c>
@@ -23245,7 +23247,7 @@
         <v>65069</v>
       </c>
     </row>
-    <row r="469" spans="7:10" ht="14.25">
+    <row r="469" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G469" s="1" t="s">
         <v>116</v>
       </c>
@@ -23259,7 +23261,7 @@
         <v>65070</v>
       </c>
     </row>
-    <row r="470" spans="7:10" ht="14.25">
+    <row r="470" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G470" s="1" t="s">
         <v>114</v>
       </c>
@@ -23273,7 +23275,7 @@
         <v>65071</v>
       </c>
     </row>
-    <row r="471" spans="7:10" ht="14.25">
+    <row r="471" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G471" s="1" t="s">
         <v>112</v>
       </c>
@@ -23287,7 +23289,7 @@
         <v>65072</v>
       </c>
     </row>
-    <row r="472" spans="7:10" ht="14.25">
+    <row r="472" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G472" s="1" t="s">
         <v>110</v>
       </c>
@@ -23301,7 +23303,7 @@
         <v>65073</v>
       </c>
     </row>
-    <row r="473" spans="7:10" ht="14.25">
+    <row r="473" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G473" s="1" t="s">
         <v>108</v>
       </c>
@@ -23315,7 +23317,7 @@
         <v>65074</v>
       </c>
     </row>
-    <row r="474" spans="7:10" ht="14.25">
+    <row r="474" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G474" s="1" t="s">
         <v>106</v>
       </c>
@@ -23329,7 +23331,7 @@
         <v>65075</v>
       </c>
     </row>
-    <row r="475" spans="7:10" ht="14.25">
+    <row r="475" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G475" s="1" t="s">
         <v>104</v>
       </c>
@@ -23343,7 +23345,7 @@
         <v>65076</v>
       </c>
     </row>
-    <row r="476" spans="7:10" ht="14.25">
+    <row r="476" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G476" s="1" t="s">
         <v>102</v>
       </c>
@@ -23357,7 +23359,7 @@
         <v>65077</v>
       </c>
     </row>
-    <row r="477" spans="7:10" ht="14.25">
+    <row r="477" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G477" s="1" t="s">
         <v>100</v>
       </c>
@@ -23371,7 +23373,7 @@
         <v>65078</v>
       </c>
     </row>
-    <row r="478" spans="7:10" ht="14.25">
+    <row r="478" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G478" s="1" t="s">
         <v>98</v>
       </c>
@@ -23385,7 +23387,7 @@
         <v>65079</v>
       </c>
     </row>
-    <row r="479" spans="7:10" ht="14.25">
+    <row r="479" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G479" s="1" t="s">
         <v>96</v>
       </c>
@@ -23399,7 +23401,7 @@
         <v>65080</v>
       </c>
     </row>
-    <row r="480" spans="7:10" ht="14.25">
+    <row r="480" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G480" s="1" t="s">
         <v>94</v>
       </c>
@@ -23413,7 +23415,7 @@
         <v>65081</v>
       </c>
     </row>
-    <row r="481" spans="7:10" ht="14.25">
+    <row r="481" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G481" s="1" t="s">
         <v>92</v>
       </c>
@@ -23427,7 +23429,7 @@
         <v>65082</v>
       </c>
     </row>
-    <row r="482" spans="7:10" ht="14.25">
+    <row r="482" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G482" s="1" t="s">
         <v>90</v>
       </c>
@@ -23441,7 +23443,7 @@
         <v>65083</v>
       </c>
     </row>
-    <row r="483" spans="7:10" ht="14.25">
+    <row r="483" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G483" s="1" t="s">
         <v>88</v>
       </c>
@@ -23455,7 +23457,7 @@
         <v>65084</v>
       </c>
     </row>
-    <row r="484" spans="7:10" ht="14.25">
+    <row r="484" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G484" s="1" t="s">
         <v>86</v>
       </c>
@@ -23469,7 +23471,7 @@
         <v>65085</v>
       </c>
     </row>
-    <row r="485" spans="7:10" ht="14.25">
+    <row r="485" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G485" s="1" t="s">
         <v>84</v>
       </c>
@@ -23483,7 +23485,7 @@
         <v>65086</v>
       </c>
     </row>
-    <row r="486" spans="7:10" ht="14.25">
+    <row r="486" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G486" s="1" t="s">
         <v>82</v>
       </c>
@@ -23497,7 +23499,7 @@
         <v>65087</v>
       </c>
     </row>
-    <row r="487" spans="7:10" ht="14.25">
+    <row r="487" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G487" s="1" t="s">
         <v>80</v>
       </c>
@@ -23511,7 +23513,7 @@
         <v>65088</v>
       </c>
     </row>
-    <row r="488" spans="7:10" ht="14.25">
+    <row r="488" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G488" s="1" t="s">
         <v>78</v>
       </c>
@@ -23525,7 +23527,7 @@
         <v>65089</v>
       </c>
     </row>
-    <row r="489" spans="7:10" ht="14.25">
+    <row r="489" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G489" s="1" t="s">
         <v>76</v>
       </c>
@@ -23539,7 +23541,7 @@
         <v>65090</v>
       </c>
     </row>
-    <row r="490" spans="7:10" ht="14.25">
+    <row r="490" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G490" s="1" t="s">
         <v>74</v>
       </c>
@@ -23553,7 +23555,7 @@
         <v>65091</v>
       </c>
     </row>
-    <row r="491" spans="7:10" ht="14.25">
+    <row r="491" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G491" s="1" t="s">
         <v>72</v>
       </c>
@@ -23567,7 +23569,7 @@
         <v>65092</v>
       </c>
     </row>
-    <row r="492" spans="7:10" ht="14.25">
+    <row r="492" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G492" s="1" t="s">
         <v>70</v>
       </c>
@@ -23581,7 +23583,7 @@
         <v>65093</v>
       </c>
     </row>
-    <row r="493" spans="7:10" ht="14.25">
+    <row r="493" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G493" s="1" t="s">
         <v>68</v>
       </c>
@@ -23595,7 +23597,7 @@
         <v>65094</v>
       </c>
     </row>
-    <row r="494" spans="7:10" ht="14.25">
+    <row r="494" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G494" s="1" t="s">
         <v>66</v>
       </c>
@@ -23609,7 +23611,7 @@
         <v>65095</v>
       </c>
     </row>
-    <row r="495" spans="7:10" ht="14.25">
+    <row r="495" spans="7:10" ht="28.8" x14ac:dyDescent="0.25">
       <c r="G495" s="1" t="s">
         <v>64</v>
       </c>
@@ -23623,7 +23625,7 @@
         <v>65096</v>
       </c>
     </row>
-    <row r="496" spans="7:10" ht="14.25">
+    <row r="496" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G496" s="1" t="s">
         <v>62</v>
       </c>
@@ -23637,7 +23639,7 @@
         <v>65097</v>
       </c>
     </row>
-    <row r="497" spans="7:10" ht="14.25">
+    <row r="497" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G497" s="1" t="s">
         <v>60</v>
       </c>
@@ -23651,7 +23653,7 @@
         <v>65098</v>
       </c>
     </row>
-    <row r="498" spans="7:10" ht="14.25">
+    <row r="498" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G498" s="1" t="s">
         <v>58</v>
       </c>
@@ -23665,7 +23667,7 @@
         <v>65099</v>
       </c>
     </row>
-    <row r="499" spans="7:10" ht="14.25">
+    <row r="499" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G499" s="1" t="s">
         <v>56</v>
       </c>
@@ -23679,7 +23681,7 @@
         <v>65100</v>
       </c>
     </row>
-    <row r="500" spans="7:10" ht="14.25">
+    <row r="500" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G500" s="1" t="s">
         <v>54</v>
       </c>
@@ -23693,7 +23695,7 @@
         <v>65101</v>
       </c>
     </row>
-    <row r="501" spans="7:10" ht="14.25">
+    <row r="501" spans="7:10" ht="28.8" x14ac:dyDescent="0.25">
       <c r="G501" s="1" t="s">
         <v>52</v>
       </c>
@@ -23707,7 +23709,7 @@
         <v>65102</v>
       </c>
     </row>
-    <row r="502" spans="7:10" ht="14.25">
+    <row r="502" spans="7:10" ht="28.8" x14ac:dyDescent="0.25">
       <c r="G502" s="1" t="s">
         <v>50</v>
       </c>
@@ -23721,7 +23723,7 @@
         <v>65103</v>
       </c>
     </row>
-    <row r="503" spans="7:10" ht="14.25">
+    <row r="503" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G503" s="1" t="s">
         <v>48</v>
       </c>
@@ -23735,7 +23737,7 @@
         <v>65104</v>
       </c>
     </row>
-    <row r="504" spans="7:10" ht="14.25">
+    <row r="504" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G504" s="1" t="s">
         <v>46</v>
       </c>
@@ -23749,7 +23751,7 @@
         <v>65029</v>
       </c>
     </row>
-    <row r="505" spans="7:10" ht="14.25">
+    <row r="505" spans="7:10" ht="28.8" x14ac:dyDescent="0.25">
       <c r="G505" s="1" t="s">
         <v>44</v>
       </c>
@@ -23763,7 +23765,7 @@
         <v>65106</v>
       </c>
     </row>
-    <row r="506" spans="7:10" ht="14.25">
+    <row r="506" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G506" s="1" t="s">
         <v>42</v>
       </c>
@@ -23777,7 +23779,7 @@
         <v>65107</v>
       </c>
     </row>
-    <row r="507" spans="7:10" ht="14.25">
+    <row r="507" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G507" s="1" t="s">
         <v>40</v>
       </c>
@@ -23791,7 +23793,7 @@
         <v>65108</v>
       </c>
     </row>
-    <row r="508" spans="7:10" ht="14.25">
+    <row r="508" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G508" s="1" t="s">
         <v>38</v>
       </c>
@@ -23805,7 +23807,7 @@
         <v>65109</v>
       </c>
     </row>
-    <row r="509" spans="7:10" ht="14.25">
+    <row r="509" spans="7:10" ht="28.8" x14ac:dyDescent="0.25">
       <c r="G509" s="1" t="s">
         <v>36</v>
       </c>
@@ -23819,7 +23821,7 @@
         <v>65110</v>
       </c>
     </row>
-    <row r="510" spans="7:10" ht="14.25">
+    <row r="510" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G510" s="1" t="s">
         <v>34</v>
       </c>
@@ -23833,7 +23835,7 @@
         <v>65112</v>
       </c>
     </row>
-    <row r="511" spans="7:10" ht="14.25">
+    <row r="511" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G511" s="1" t="s">
         <v>32</v>
       </c>
@@ -23847,7 +23849,7 @@
         <v>65029</v>
       </c>
     </row>
-    <row r="512" spans="7:10" ht="14.25">
+    <row r="512" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G512" s="1" t="s">
         <v>30</v>
       </c>
@@ -23861,7 +23863,7 @@
         <v>65113</v>
       </c>
     </row>
-    <row r="513" spans="7:10" ht="14.25">
+    <row r="513" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G513" s="1" t="s">
         <v>28</v>
       </c>
@@ -23875,7 +23877,7 @@
         <v>65114</v>
       </c>
     </row>
-    <row r="514" spans="7:10" ht="14.25">
+    <row r="514" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G514" s="1" t="s">
         <v>26</v>
       </c>
@@ -23889,7 +23891,7 @@
         <v>65126</v>
       </c>
     </row>
-    <row r="515" spans="7:10" ht="14.25">
+    <row r="515" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G515" s="1" t="s">
         <v>24</v>
       </c>
@@ -23903,7 +23905,7 @@
         <v>65115</v>
       </c>
     </row>
-    <row r="516" spans="7:10" ht="14.25">
+    <row r="516" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G516" s="1" t="s">
         <v>22</v>
       </c>
@@ -23917,7 +23919,7 @@
         <v>65116</v>
       </c>
     </row>
-    <row r="517" spans="7:10" ht="14.25">
+    <row r="517" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G517" s="1" t="s">
         <v>20</v>
       </c>
@@ -23931,7 +23933,7 @@
         <v>65117</v>
       </c>
     </row>
-    <row r="518" spans="7:10" ht="14.25">
+    <row r="518" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G518" s="1" t="s">
         <v>18</v>
       </c>
@@ -23945,7 +23947,7 @@
         <v>65118</v>
       </c>
     </row>
-    <row r="519" spans="7:10" ht="14.25">
+    <row r="519" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G519" s="1" t="s">
         <v>16</v>
       </c>
@@ -23959,7 +23961,7 @@
         <v>65119</v>
       </c>
     </row>
-    <row r="520" spans="7:10" ht="14.25">
+    <row r="520" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G520" s="1" t="s">
         <v>14</v>
       </c>
@@ -23973,7 +23975,7 @@
         <v>65120</v>
       </c>
     </row>
-    <row r="521" spans="7:10" ht="14.25">
+    <row r="521" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G521" s="1" t="s">
         <v>12</v>
       </c>
@@ -23987,7 +23989,7 @@
         <v>65121</v>
       </c>
     </row>
-    <row r="522" spans="7:10" ht="14.25">
+    <row r="522" spans="7:10" ht="28.8" x14ac:dyDescent="0.25">
       <c r="G522" s="1" t="s">
         <v>10</v>
       </c>
@@ -24001,7 +24003,7 @@
         <v>65122</v>
       </c>
     </row>
-    <row r="523" spans="7:10" ht="14.25">
+    <row r="523" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G523" s="1" t="s">
         <v>8</v>
       </c>
@@ -24015,7 +24017,7 @@
         <v>65123</v>
       </c>
     </row>
-    <row r="524" spans="7:10" ht="14.25">
+    <row r="524" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G524" s="1" t="s">
         <v>6</v>
       </c>
@@ -24029,7 +24031,7 @@
         <v>65127</v>
       </c>
     </row>
-    <row r="525" spans="7:10" ht="14.25">
+    <row r="525" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G525" s="1" t="s">
         <v>4</v>
       </c>
@@ -24043,7 +24045,7 @@
         <v>65128</v>
       </c>
     </row>
-    <row r="526" spans="7:10" ht="14.25">
+    <row r="526" spans="7:10" ht="28.8" x14ac:dyDescent="0.25">
       <c r="G526" s="1" t="s">
         <v>2</v>
       </c>
@@ -24065,14 +24067,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B3" sqref="B3:D39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
